--- a/data/crep_oceanographic/Gove2013_pone.0061974.s005.xlsx
+++ b/data/crep_oceanographic/Gove2013_pone.0061974.s005.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robins64/Documents/git_repos/PelagicReefs/data/crep_oceanographic/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B02835A-FDE2-CA4B-9D1C-5F6734C491DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="348" windowWidth="20772" windowHeight="7944"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="43200" windowHeight="24560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="104">
   <si>
     <t>Sea Surface Temperature (°C)</t>
   </si>
@@ -407,16 +413,28 @@
   <si>
     <t>Northwestern Hawaiian</t>
   </si>
+  <si>
+    <t>SST_mean</t>
+  </si>
+  <si>
+    <t>chl-a_mg_m3_mean</t>
+  </si>
+  <si>
+    <t>wave_energy_mean_kw_m1</t>
+  </si>
+  <si>
+    <t>irradiance_einsteins_m2_d1_mean</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,16 +645,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1"/>
@@ -646,48 +664,40 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -698,10 +708,10 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="7"/>
-    <cellStyle name="Normal 3" xfId="8"/>
-    <cellStyle name="Normal 4" xfId="9"/>
-    <cellStyle name="Normal 5" xfId="6"/>
+    <cellStyle name="Normal 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -709,14 +719,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -754,7 +767,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -826,7 +839,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -999,86 +1012,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="A1:AO43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
     <col min="10" max="10" width="9.33203125" customWidth="1"/>
     <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" customWidth="1"/>
-    <col min="15" max="15" width="18.44140625" customWidth="1"/>
-    <col min="18" max="18" width="10.77734375" customWidth="1"/>
-    <col min="21" max="21" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.77734375" customWidth="1"/>
+    <col min="15" max="15" width="18.5" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" customWidth="1"/>
+    <col min="21" max="21" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.83203125" customWidth="1"/>
     <col min="27" max="27" width="12" customWidth="1"/>
     <col min="30" max="30" width="18.33203125" customWidth="1"/>
     <col min="33" max="33" width="17.6640625" customWidth="1"/>
     <col min="36" max="36" width="10.6640625" customWidth="1"/>
-    <col min="39" max="39" width="17.44140625" customWidth="1"/>
+    <col min="39" max="39" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" ht="18" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="15" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="21" t="s">
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="12" t="s">
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="14"/>
-    </row>
-    <row r="2" spans="1:41" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="10"/>
+    </row>
+    <row r="2" spans="1:41" ht="37.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1203,7 +1216,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1328,7 +1341,7 @@
         <v>0.83638553766463197</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1453,7 +1466,7 @@
         <v>0.999408068305637</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1578,7 +1591,7 @@
         <v>0.93351829878677495</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1703,7 +1716,7 @@
         <v>1.0746025091698499</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -1828,7 +1841,7 @@
         <v>1.36077146917624</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -1953,7 +1966,7 @@
         <v>1.39469372581679</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -2078,7 +2091,7 @@
         <v>1.9240407786850899</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
@@ -2203,7 +2216,7 @@
         <v>1.5002945841908499</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -2328,7 +2341,7 @@
         <v>1.2972344774844</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -2453,7 +2466,7 @@
         <v>2.0417910928420802</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -2578,14 +2591,14 @@
         <v>1.9736664332645799</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:41">
+      <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="6">
@@ -2594,123 +2607,123 @@
       <c r="E14" s="6">
         <v>-158.00346999999999</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="7">
         <v>26.65</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="7">
         <v>0.48</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="7">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="7">
         <v>25.2935923076923</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="7">
         <v>1.13138041809162</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="7">
         <v>3.13788469960401E-2</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="7">
         <v>23.87</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="7">
         <v>0.46</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="7">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="7">
         <v>151.123129751455</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="7">
         <v>80.204917006058196</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q14" s="7">
         <v>21.435665726522</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="7">
         <v>28.556640916367201</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S14" s="7">
         <v>27.586266927350401</v>
       </c>
-      <c r="T14" s="9">
+      <c r="T14" s="7">
         <v>0.38689236844047498</v>
       </c>
-      <c r="U14" s="9">
+      <c r="U14" s="7">
         <v>5.9478528631466103</v>
       </c>
-      <c r="V14" s="9">
+      <c r="V14" s="7">
         <v>1.67675028698266</v>
       </c>
-      <c r="W14" s="9">
+      <c r="W14" s="7">
         <v>0.44813036407599899</v>
       </c>
-      <c r="X14" s="9">
+      <c r="X14" s="7">
         <v>0.106898391503437</v>
       </c>
-      <c r="Y14" s="9">
+      <c r="Y14" s="7">
         <v>2.2482825063688198E-2</v>
       </c>
-      <c r="Z14" s="9">
+      <c r="Z14" s="7">
         <v>7.1096935436374799E-3</v>
       </c>
-      <c r="AA14" s="9">
+      <c r="AA14" s="7">
         <v>7.8791402032938801E-2</v>
       </c>
-      <c r="AB14" s="9">
+      <c r="AB14" s="7">
         <v>2.05203483744134E-2</v>
       </c>
-      <c r="AC14" s="9">
+      <c r="AC14" s="7">
         <v>1.00852010176783E-3</v>
       </c>
-      <c r="AD14" s="9">
+      <c r="AD14" s="7">
         <v>6.2281682756945997E-2</v>
       </c>
-      <c r="AE14" s="9">
+      <c r="AE14" s="7">
         <v>1.42168877605737E-2</v>
       </c>
-      <c r="AF14" s="9">
+      <c r="AF14" s="7">
         <v>4.4957746562383598E-3</v>
       </c>
-      <c r="AG14" s="9">
+      <c r="AG14" s="7">
         <v>54.313890064102601</v>
       </c>
-      <c r="AH14" s="9">
+      <c r="AH14" s="7">
         <v>2.2691077906820301</v>
       </c>
-      <c r="AI14" s="9">
+      <c r="AI14" s="7">
         <v>0.71755488749878205</v>
       </c>
-      <c r="AJ14" s="9">
+      <c r="AJ14" s="7">
         <v>43.257167879286598</v>
       </c>
-      <c r="AK14" s="9">
+      <c r="AK14" s="7">
         <v>8.8895294324940597</v>
       </c>
-      <c r="AL14" s="9">
+      <c r="AL14" s="7">
         <v>0.43955894078430302</v>
       </c>
-      <c r="AM14" s="9">
+      <c r="AM14" s="7">
         <v>27.738169686609702</v>
       </c>
-      <c r="AN14" s="9">
+      <c r="AN14" s="7">
         <v>5.6815222093233197</v>
       </c>
-      <c r="AO14" s="9">
+      <c r="AO14" s="7">
         <v>1.79665507582936</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:41">
+      <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="6">
@@ -2719,123 +2732,123 @@
       <c r="E15" s="6">
         <v>-157.09115</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="7">
         <v>26.5</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="7">
         <v>0.49</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="7">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="7">
         <v>25.242346153846199</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="7">
         <v>1.0773247395660099</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="7">
         <v>2.9879612221777901E-2</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="7">
         <v>23.89</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="7">
         <v>0.45</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="7">
         <v>0.09</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="7">
         <v>151.123129751455</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="7">
         <v>80.204917006058196</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="7">
         <v>21.435665726522</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="7">
         <v>28.556640916367201</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S15" s="7">
         <v>27.586266927350401</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T15" s="7">
         <v>0.38689236844047498</v>
       </c>
-      <c r="U15" s="9">
+      <c r="U15" s="7">
         <v>5.9478528631466103</v>
       </c>
-      <c r="V15" s="9">
+      <c r="V15" s="7">
         <v>1.67675028698266</v>
       </c>
-      <c r="W15" s="9">
+      <c r="W15" s="7">
         <v>0.44813036407599899</v>
       </c>
-      <c r="X15" s="9">
+      <c r="X15" s="7">
         <v>0.124782959058566</v>
       </c>
-      <c r="Y15" s="9">
+      <c r="Y15" s="7">
         <v>4.7701885735452497E-2</v>
       </c>
-      <c r="Z15" s="9">
+      <c r="Z15" s="7">
         <v>1.50846607609126E-2</v>
       </c>
-      <c r="AA15" s="9">
+      <c r="AA15" s="7">
         <v>8.9700239050223396E-2</v>
       </c>
-      <c r="AB15" s="9">
+      <c r="AB15" s="7">
         <v>2.18862066941337E-2</v>
       </c>
-      <c r="AC15" s="9">
+      <c r="AC15" s="7">
         <v>1.0756483759311599E-3</v>
       </c>
-      <c r="AD15" s="9">
+      <c r="AD15" s="7">
         <v>7.2441654593764698E-2</v>
       </c>
-      <c r="AE15" s="9">
+      <c r="AE15" s="7">
         <v>1.8231355104688401E-2</v>
       </c>
-      <c r="AF15" s="9">
+      <c r="AF15" s="7">
         <v>5.7652606962152698E-3</v>
       </c>
-      <c r="AG15" s="9">
+      <c r="AG15" s="7">
         <v>55.808342916666703</v>
       </c>
-      <c r="AH15" s="9">
+      <c r="AH15" s="7">
         <v>1.12214053866372</v>
       </c>
-      <c r="AI15" s="9">
+      <c r="AI15" s="7">
         <v>0.35485199569855902</v>
       </c>
-      <c r="AJ15" s="9">
+      <c r="AJ15" s="7">
         <v>44.381059030154901</v>
       </c>
-      <c r="AK15" s="9">
+      <c r="AK15" s="7">
         <v>9.1839871543610396</v>
       </c>
-      <c r="AL15" s="9">
+      <c r="AL15" s="7">
         <v>0.454118938061155</v>
       </c>
-      <c r="AM15" s="9">
+      <c r="AM15" s="7">
         <v>28.127905185185199</v>
       </c>
-      <c r="AN15" s="9">
+      <c r="AN15" s="7">
         <v>6.1383668208085398</v>
       </c>
-      <c r="AO15" s="9">
+      <c r="AO15" s="7">
         <v>1.94112202673616</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:41">
+      <c r="A16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="6">
@@ -2844,123 +2857,123 @@
       <c r="E16" s="6">
         <v>-156.91766000000001</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="7">
         <v>26.77</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="7">
         <v>0.48</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="7">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="7">
         <v>25.489238461538498</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="7">
         <v>1.0909512153766201</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="7">
         <v>3.02575426620783E-2</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="7">
         <v>24.1</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="7">
         <v>0.46</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="7">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="7">
         <v>151.123129751455</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="7">
         <v>80.204917006058196</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="Q16" s="7">
         <v>21.435665726522</v>
       </c>
-      <c r="R16" s="9">
+      <c r="R16" s="7">
         <v>28.556640916367201</v>
       </c>
-      <c r="S16" s="9">
+      <c r="S16" s="7">
         <v>27.586266927350401</v>
       </c>
-      <c r="T16" s="9">
+      <c r="T16" s="7">
         <v>0.38689236844047498</v>
       </c>
-      <c r="U16" s="9">
+      <c r="U16" s="7">
         <v>5.9478528631466103</v>
       </c>
-      <c r="V16" s="9">
+      <c r="V16" s="7">
         <v>1.67675028698266</v>
       </c>
-      <c r="W16" s="9">
+      <c r="W16" s="7">
         <v>0.44813036407599899</v>
       </c>
-      <c r="X16" s="9">
+      <c r="X16" s="7">
         <v>0.116811273965142</v>
       </c>
-      <c r="Y16" s="9">
+      <c r="Y16" s="7">
         <v>4.2973569873512897E-2</v>
       </c>
-      <c r="Z16" s="9">
+      <c r="Z16" s="7">
         <v>1.35894359988695E-2</v>
       </c>
-      <c r="AA16" s="9">
+      <c r="AA16" s="7">
         <v>8.4018973050246998E-2</v>
       </c>
-      <c r="AB16" s="9">
+      <c r="AB16" s="7">
         <v>2.0392350965515001E-2</v>
       </c>
-      <c r="AC16" s="9">
+      <c r="AC16" s="7">
         <v>1.0022293723175801E-3</v>
       </c>
-      <c r="AD16" s="9">
+      <c r="AD16" s="7">
         <v>6.9649621737213396E-2</v>
       </c>
-      <c r="AE16" s="9">
+      <c r="AE16" s="7">
         <v>8.4690400073704798E-3</v>
       </c>
-      <c r="AF16" s="9">
+      <c r="AF16" s="7">
         <v>2.6781456018379899E-3</v>
       </c>
-      <c r="AG16" s="9">
+      <c r="AG16" s="7">
         <v>55.501692105263203</v>
       </c>
-      <c r="AH16" s="9">
+      <c r="AH16" s="7">
         <v>1.65132874896272</v>
       </c>
-      <c r="AI16" s="9">
+      <c r="AI16" s="7">
         <v>0.52219600124386101</v>
       </c>
-      <c r="AJ16" s="9">
+      <c r="AJ16" s="7">
         <v>44.953106292626501</v>
       </c>
-      <c r="AK16" s="9">
+      <c r="AK16" s="7">
         <v>8.8375685830961892</v>
       </c>
-      <c r="AL16" s="9">
+      <c r="AL16" s="7">
         <v>0.43698964213953001</v>
       </c>
-      <c r="AM16" s="9">
+      <c r="AM16" s="7">
         <v>28.927633333333301</v>
       </c>
-      <c r="AN16" s="9">
+      <c r="AN16" s="7">
         <v>6.0618988832443197</v>
       </c>
-      <c r="AO16" s="9">
+      <c r="AO16" s="7">
         <v>1.91694074166831</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:41">
+      <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="6">
@@ -2969,123 +2982,123 @@
       <c r="E17" s="6">
         <v>-156.39988</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="7">
         <v>26.45</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="7">
         <v>0.49</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="7">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="7">
         <v>25.187007692307699</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="7">
         <v>1.0630304625808999</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="7">
         <v>2.9483160309351102E-2</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="7">
         <v>23.85</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="7">
         <v>0.45</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="7">
         <v>0.09</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="7">
         <v>137.034522169881</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17" s="7">
         <v>68.164039230311104</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="7">
         <v>18.2176057784602</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R17" s="7">
         <v>29.725011016802199</v>
       </c>
-      <c r="S17" s="9">
+      <c r="S17" s="7">
         <v>26.612685585912601</v>
       </c>
-      <c r="T17" s="9">
+      <c r="T17" s="7">
         <v>0.37323806747795901</v>
       </c>
-      <c r="U17" s="9">
+      <c r="U17" s="7">
         <v>6.7913819141946403</v>
       </c>
-      <c r="V17" s="9">
+      <c r="V17" s="7">
         <v>2.43502743165305</v>
       </c>
-      <c r="W17" s="9">
+      <c r="W17" s="7">
         <v>0.650788455474414</v>
       </c>
-      <c r="X17" s="9">
+      <c r="X17" s="7">
         <v>0.112704689771225</v>
       </c>
-      <c r="Y17" s="9">
+      <c r="Y17" s="7">
         <v>4.3862623381683299E-2</v>
       </c>
-      <c r="Z17" s="9">
+      <c r="Z17" s="7">
         <v>1.3870579403627599E-2</v>
       </c>
-      <c r="AA17" s="9">
+      <c r="AA17" s="7">
         <v>7.6004744392924206E-2</v>
       </c>
-      <c r="AB17" s="9">
+      <c r="AB17" s="7">
         <v>2.0543781496136899E-2</v>
       </c>
-      <c r="AC17" s="9">
+      <c r="AC17" s="7">
         <v>1.0096717768697399E-3</v>
       </c>
-      <c r="AD17" s="9">
+      <c r="AD17" s="7">
         <v>6.2088876675485002E-2</v>
       </c>
-      <c r="AE17" s="9">
+      <c r="AE17" s="7">
         <v>1.32840473038589E-2</v>
       </c>
-      <c r="AF17" s="9">
+      <c r="AF17" s="7">
         <v>4.2007846025612899E-3</v>
       </c>
-      <c r="AG17" s="9">
+      <c r="AG17" s="7">
         <v>54.770915000000002</v>
       </c>
-      <c r="AH17" s="9">
+      <c r="AH17" s="7">
         <v>1.3617726422682901</v>
       </c>
-      <c r="AI17" s="9">
+      <c r="AI17" s="7">
         <v>0.43063032048734701</v>
       </c>
-      <c r="AJ17" s="9">
+      <c r="AJ17" s="7">
         <v>43.7165007579462</v>
       </c>
-      <c r="AK17" s="9">
+      <c r="AK17" s="7">
         <v>8.7597888455513999</v>
       </c>
-      <c r="AL17" s="9">
+      <c r="AL17" s="7">
         <v>0.43314368164080003</v>
       </c>
-      <c r="AM17" s="9">
+      <c r="AM17" s="7">
         <v>27.474202500000001</v>
       </c>
-      <c r="AN17" s="9">
+      <c r="AN17" s="7">
         <v>7.0349559857833803</v>
       </c>
-      <c r="AO17" s="9">
+      <c r="AO17" s="7">
         <v>2.22464841541106</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:41">
+      <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="6">
@@ -3094,123 +3107,123 @@
       <c r="E18" s="6">
         <v>-155.41561000000002</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="7">
         <v>26.46</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="7">
         <v>0.45</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="7">
         <v>0.09</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="7">
         <v>25.2987461538461</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="7">
         <v>0.99012734549694303</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="7">
         <v>2.7461191641755998E-2</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="7">
         <v>24.12</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="7">
         <v>0.44</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="7">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O18" s="7">
         <v>108.979323529704</v>
       </c>
-      <c r="P18" s="9">
+      <c r="P18" s="7">
         <v>45.570195533446899</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="Q18" s="7">
         <v>12.179147052460999</v>
       </c>
-      <c r="R18" s="9">
+      <c r="R18" s="7">
         <v>26.476330372376999</v>
       </c>
-      <c r="S18" s="9">
+      <c r="S18" s="7">
         <v>22.521475003636102</v>
       </c>
-      <c r="T18" s="9">
+      <c r="T18" s="7">
         <v>0.31585958433146399</v>
       </c>
-      <c r="U18" s="9">
+      <c r="U18" s="7">
         <v>6.7536594733453699</v>
       </c>
-      <c r="V18" s="9">
+      <c r="V18" s="7">
         <v>1.7065557452989799</v>
       </c>
-      <c r="W18" s="9">
+      <c r="W18" s="7">
         <v>0.45609620788138899</v>
       </c>
-      <c r="X18" s="9">
+      <c r="X18" s="7">
         <v>8.3022516362772095E-2</v>
       </c>
-      <c r="Y18" s="9">
+      <c r="Y18" s="7">
         <v>2.0053029862432899E-2</v>
       </c>
-      <c r="Z18" s="9">
+      <c r="Z18" s="7">
         <v>6.3413248352660904E-3</v>
       </c>
-      <c r="AA18" s="9">
+      <c r="AA18" s="7">
         <v>6.6264003733644203E-2</v>
       </c>
-      <c r="AB18" s="9">
+      <c r="AB18" s="7">
         <v>1.30162508550566E-2</v>
       </c>
-      <c r="AC18" s="9">
+      <c r="AC18" s="7">
         <v>6.3971382929079899E-4</v>
       </c>
-      <c r="AD18" s="9">
+      <c r="AD18" s="7">
         <v>5.6513191921510997E-2</v>
       </c>
-      <c r="AE18" s="9">
+      <c r="AE18" s="7">
         <v>1.0581267911069499E-2</v>
       </c>
-      <c r="AF18" s="9">
+      <c r="AF18" s="7">
         <v>3.3460907131431599E-3</v>
       </c>
-      <c r="AG18" s="9">
+      <c r="AG18" s="7">
         <v>50.3971422093773</v>
       </c>
-      <c r="AH18" s="9">
+      <c r="AH18" s="7">
         <v>1.8467897364980099</v>
       </c>
-      <c r="AI18" s="9">
+      <c r="AI18" s="7">
         <v>0.58400619267558995</v>
       </c>
-      <c r="AJ18" s="9">
+      <c r="AJ18" s="7">
         <v>41.461423233859399</v>
       </c>
-      <c r="AK18" s="9">
+      <c r="AK18" s="7">
         <v>7.2481930285410296</v>
       </c>
-      <c r="AL18" s="9">
+      <c r="AL18" s="7">
         <v>0.35840007892653902</v>
       </c>
-      <c r="AM18" s="9">
+      <c r="AM18" s="7">
         <v>28.612591724122499</v>
       </c>
-      <c r="AN18" s="9">
+      <c r="AN18" s="7">
         <v>6.37738443781973</v>
       </c>
-      <c r="AO18" s="9">
+      <c r="AO18" s="7">
         <v>2.0167060338022802</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:41">
+      <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="6">
@@ -3219,123 +3232,123 @@
       <c r="E19" s="6">
         <v>-169.51560000000001</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="7">
         <v>27.58</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="7">
         <v>0.36</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="7">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="7">
         <v>26.429207692307699</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="7">
         <v>1.0277202900361699</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="7">
         <v>2.8503832327385601E-2</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="7">
         <v>25.04</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="7">
         <v>0.37</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="7">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="O19" s="9">
+      <c r="O19" s="7">
         <v>158.41254269847201</v>
       </c>
-      <c r="P19" s="9">
+      <c r="P19" s="7">
         <v>80.242714604021003</v>
       </c>
-      <c r="Q19" s="9">
+      <c r="Q19" s="7">
         <v>21.4457675594949</v>
       </c>
-      <c r="R19" s="9">
+      <c r="R19" s="7">
         <v>34.033758130067</v>
       </c>
-      <c r="S19" s="9">
+      <c r="S19" s="7">
         <v>28.0247494039161</v>
       </c>
-      <c r="T19" s="9">
+      <c r="T19" s="7">
         <v>0.39304200529873101</v>
       </c>
-      <c r="U19" s="9">
+      <c r="U19" s="7">
         <v>8.9482086974265105</v>
       </c>
-      <c r="V19" s="9">
+      <c r="V19" s="7">
         <v>2.4076080562734701</v>
       </c>
-      <c r="W19" s="9">
+      <c r="W19" s="7">
         <v>0.64346031915800594</v>
       </c>
-      <c r="X19" s="9">
+      <c r="X19" s="7">
         <v>6.7585840409590398E-2</v>
       </c>
-      <c r="Y19" s="9">
+      <c r="Y19" s="7">
         <v>1.7674375824986498E-2</v>
       </c>
-      <c r="Z19" s="9">
+      <c r="Z19" s="7">
         <v>5.5891283828774898E-3</v>
       </c>
-      <c r="AA19" s="9">
+      <c r="AA19" s="7">
         <v>5.3058060919152598E-2</v>
       </c>
-      <c r="AB19" s="9">
+      <c r="AB19" s="7">
         <v>1.63245506679555E-2</v>
       </c>
-      <c r="AC19" s="9">
+      <c r="AC19" s="7">
         <v>8.0230789461102896E-4</v>
       </c>
-      <c r="AD19" s="9">
+      <c r="AD19" s="7">
         <v>4.1517541666666699E-2</v>
       </c>
-      <c r="AE19" s="9">
+      <c r="AE19" s="7">
         <v>1.96341388362028E-2</v>
       </c>
-      <c r="AF19" s="9">
+      <c r="AF19" s="7">
         <v>6.2088598618368403E-3</v>
       </c>
-      <c r="AG19" s="9">
+      <c r="AG19" s="7">
         <v>53.609189285714301</v>
       </c>
-      <c r="AH19" s="9">
+      <c r="AH19" s="7">
         <v>1.12590762119178</v>
       </c>
-      <c r="AI19" s="9">
+      <c r="AI19" s="7">
         <v>0.35604325179080798</v>
       </c>
-      <c r="AJ19" s="9">
+      <c r="AJ19" s="7">
         <v>45.552707998602898</v>
       </c>
-      <c r="AK19" s="9">
+      <c r="AK19" s="7">
         <v>7.1092727907126001</v>
       </c>
-      <c r="AL19" s="9">
+      <c r="AL19" s="7">
         <v>0.35153091525965702</v>
       </c>
-      <c r="AM19" s="9">
+      <c r="AM19" s="7">
         <v>33.674012698412703</v>
       </c>
-      <c r="AN19" s="9">
+      <c r="AN19" s="7">
         <v>4.9334970614635099</v>
       </c>
-      <c r="AO19" s="9">
+      <c r="AO19" s="7">
         <v>1.5601087543972401</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:41">
+      <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="6">
@@ -3344,123 +3357,123 @@
       <c r="E20" s="6">
         <v>166.61556000000002</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="7">
         <v>28.49</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="7">
         <v>0.5</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="7">
         <v>0.5</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="7">
         <v>27.256830769230699</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="7">
         <v>1.25338775497988</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="7">
         <v>3.4762721681682103E-2</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="7">
         <v>25.39</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="7">
         <v>0.56999999999999995</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="7">
         <v>0.56999999999999995</v>
       </c>
-      <c r="O20" s="9">
+      <c r="O20" s="7">
         <v>125.60397553409901</v>
       </c>
-      <c r="P20" s="9">
+      <c r="P20" s="7">
         <v>58.006309772586697</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="Q20" s="7">
         <v>15.502838388578301</v>
       </c>
-      <c r="R20" s="9">
+      <c r="R20" s="7">
         <v>28.0327972896768</v>
       </c>
-      <c r="S20" s="9">
+      <c r="S20" s="7">
         <v>25.292735744583499</v>
       </c>
-      <c r="T20" s="9">
+      <c r="T20" s="7">
         <v>0.35472601140022503</v>
       </c>
-      <c r="U20" s="9">
+      <c r="U20" s="7">
         <v>5.9755549491535298</v>
       </c>
-      <c r="V20" s="9">
+      <c r="V20" s="7">
         <v>1.11738816796551</v>
       </c>
-      <c r="W20" s="9">
+      <c r="W20" s="7">
         <v>0.29863454946871099</v>
       </c>
-      <c r="X20" s="9">
+      <c r="X20" s="7">
         <v>6.0539921875E-2</v>
       </c>
-      <c r="Y20" s="9">
+      <c r="Y20" s="7">
         <v>2.25331899689993E-2</v>
       </c>
-      <c r="Z20" s="9">
+      <c r="Z20" s="7">
         <v>7.1256203251296602E-3</v>
       </c>
-      <c r="AA20" s="9">
+      <c r="AA20" s="7">
         <v>4.19111343001035E-2</v>
       </c>
-      <c r="AB20" s="9">
+      <c r="AB20" s="7">
         <v>1.2914906517320799E-2</v>
       </c>
-      <c r="AC20" s="9">
+      <c r="AC20" s="7">
         <v>6.3473302682380398E-4</v>
       </c>
-      <c r="AD20" s="9">
+      <c r="AD20" s="7">
         <v>2.9919917328042299E-2</v>
       </c>
-      <c r="AE20" s="9">
+      <c r="AE20" s="7">
         <v>9.5918121426873601E-3</v>
       </c>
-      <c r="AF20" s="9">
+      <c r="AF20" s="7">
         <v>3.0331973259351999E-3</v>
       </c>
-      <c r="AG20" s="9">
+      <c r="AG20" s="7">
         <v>55.050983333333299</v>
       </c>
-      <c r="AH20" s="9">
+      <c r="AH20" s="7">
         <v>2.6461407875457499</v>
       </c>
-      <c r="AI20" s="9">
+      <c r="AI20" s="7">
         <v>0.83678318981162803</v>
       </c>
-      <c r="AJ20" s="9">
+      <c r="AJ20" s="7">
         <v>44.713863868513997</v>
       </c>
-      <c r="AK20" s="9">
+      <c r="AK20" s="7">
         <v>7.8376759712592996</v>
       </c>
-      <c r="AL20" s="9">
+      <c r="AL20" s="7">
         <v>0.38754813449903303</v>
       </c>
-      <c r="AM20" s="9">
+      <c r="AM20" s="7">
         <v>33.411550617284</v>
       </c>
-      <c r="AN20" s="9">
+      <c r="AN20" s="7">
         <v>4.1348602887899499</v>
       </c>
-      <c r="AO20" s="9">
+      <c r="AO20" s="7">
         <v>1.30755763191578</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:41">
+      <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="6">
@@ -3469,123 +3482,123 @@
       <c r="E21" s="6">
         <v>144.89339000000001</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="7">
         <v>28.92</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="7">
         <v>0.38</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="7">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="7">
         <v>27.617192307692299</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="7">
         <v>1.51389322980757</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="7">
         <v>4.1987843581915103E-2</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="7">
         <v>25.09</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="7">
         <v>0.61</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="7">
         <v>0.122</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O21" s="7">
         <v>68.536456822041302</v>
       </c>
-      <c r="P21" s="9">
+      <c r="P21" s="7">
         <v>42.920373379110799</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="Q21" s="7">
         <v>11.4709522926461</v>
       </c>
-      <c r="R21" s="9">
+      <c r="R21" s="7">
         <v>20.9987203198896</v>
       </c>
-      <c r="S21" s="9">
+      <c r="S21" s="7">
         <v>19.797913472203799</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T21" s="7">
         <v>0.277662129987089</v>
       </c>
-      <c r="U21" s="9">
+      <c r="U21" s="7">
         <v>4.0468431252656503</v>
       </c>
-      <c r="V21" s="9">
+      <c r="V21" s="7">
         <v>1.7455406775023901</v>
       </c>
-      <c r="W21" s="9">
+      <c r="W21" s="7">
         <v>0.46651536927794302</v>
       </c>
-      <c r="X21" s="9">
+      <c r="X21" s="7">
         <v>5.7240295833333302E-2</v>
       </c>
-      <c r="Y21" s="9">
+      <c r="Y21" s="7">
         <v>9.8547501194100294E-3</v>
       </c>
-      <c r="Z21" s="9">
+      <c r="Z21" s="7">
         <v>3.1163456149151999E-3</v>
       </c>
-      <c r="AA21" s="9">
+      <c r="AA21" s="7">
         <v>4.31549747263682E-2</v>
       </c>
-      <c r="AB21" s="9">
+      <c r="AB21" s="7">
         <v>1.33452330823495E-2</v>
       </c>
-      <c r="AC21" s="9">
+      <c r="AC21" s="7">
         <v>6.5588242366821801E-4</v>
       </c>
-      <c r="AD21" s="9">
+      <c r="AD21" s="7">
         <v>2.8993138888888902E-2</v>
       </c>
-      <c r="AE21" s="9">
+      <c r="AE21" s="7">
         <v>1.05533471040963E-2</v>
       </c>
-      <c r="AF21" s="9">
+      <c r="AF21" s="7">
         <v>3.3372613787286298E-3</v>
       </c>
-      <c r="AG21" s="9">
+      <c r="AG21" s="7">
         <v>55.502025000000003</v>
       </c>
-      <c r="AH21" s="9">
+      <c r="AH21" s="7">
         <v>1.8984076465867601</v>
       </c>
-      <c r="AI21" s="9">
+      <c r="AI21" s="7">
         <v>0.60032920906941201</v>
       </c>
-      <c r="AJ21" s="9">
+      <c r="AJ21" s="7">
         <v>43.201211776691103</v>
       </c>
-      <c r="AK21" s="9">
+      <c r="AK21" s="7">
         <v>9.3072980681546298</v>
       </c>
-      <c r="AL21" s="9">
+      <c r="AL21" s="7">
         <v>0.46021627032895002</v>
       </c>
-      <c r="AM21" s="9">
+      <c r="AM21" s="7">
         <v>28.307255555555599</v>
       </c>
-      <c r="AN21" s="9">
+      <c r="AN21" s="7">
         <v>5.1683448773855298</v>
       </c>
-      <c r="AO21" s="9">
+      <c r="AO21" s="7">
         <v>1.63437415458019</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:41">
+      <c r="A22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="6">
@@ -3594,123 +3607,123 @@
       <c r="E22" s="6">
         <v>145.22189</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="7">
         <v>28.9</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="7">
         <v>0.45</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="7">
         <v>0.09</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="7">
         <v>27.751769230769298</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="7">
         <v>1.41762830128076</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="7">
         <v>3.9317934844743697E-2</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="7">
         <v>25.46</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="7">
         <v>0.59</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="7">
         <v>0.11799999999999999</v>
       </c>
-      <c r="O22" s="9">
+      <c r="O22" s="7">
         <v>63.178611121648501</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P22" s="7">
         <v>40.350241222991997</v>
       </c>
-      <c r="Q22" s="9">
+      <c r="Q22" s="7">
         <v>10.784055580722701</v>
       </c>
-      <c r="R22" s="9">
+      <c r="R22" s="7">
         <v>19.554809326167199</v>
       </c>
-      <c r="S22" s="9">
+      <c r="S22" s="7">
         <v>19.730802035339298</v>
       </c>
-      <c r="T22" s="9">
+      <c r="T22" s="7">
         <v>0.27672090431033097</v>
       </c>
-      <c r="U22" s="9">
+      <c r="U22" s="7">
         <v>3.7190501730700398</v>
       </c>
-      <c r="V22" s="9">
+      <c r="V22" s="7">
         <v>1.54445844542035</v>
       </c>
-      <c r="W22" s="9">
+      <c r="W22" s="7">
         <v>0.41277388220517502</v>
       </c>
-      <c r="X22" s="9">
+      <c r="X22" s="7">
         <v>5.7416285714285697E-2</v>
       </c>
-      <c r="Y22" s="9">
+      <c r="Y22" s="7">
         <v>1.2532038713690101E-2</v>
       </c>
-      <c r="Z22" s="9">
+      <c r="Z22" s="7">
         <v>3.96297860606676E-3</v>
       </c>
-      <c r="AA22" s="9">
+      <c r="AA22" s="7">
         <v>4.3782293125618203E-2</v>
       </c>
-      <c r="AB22" s="9">
+      <c r="AB22" s="7">
         <v>1.2380026351484901E-2</v>
       </c>
-      <c r="AC22" s="9">
+      <c r="AC22" s="7">
         <v>6.0844510083737002E-4</v>
       </c>
-      <c r="AD22" s="9">
+      <c r="AD22" s="7">
         <v>3.1287250000000003E-2</v>
       </c>
-      <c r="AE22" s="9">
+      <c r="AE22" s="7">
         <v>1.25190136484691E-2</v>
       </c>
-      <c r="AF22" s="9">
+      <c r="AF22" s="7">
         <v>3.9588597187896904E-3</v>
       </c>
-      <c r="AG22" s="9">
+      <c r="AG22" s="7">
         <v>55.311039583333297</v>
       </c>
-      <c r="AH22" s="9">
+      <c r="AH22" s="7">
         <v>2.4261826361842602</v>
       </c>
-      <c r="AI22" s="9">
+      <c r="AI22" s="7">
         <v>0.76722631498939198</v>
       </c>
-      <c r="AJ22" s="9">
+      <c r="AJ22" s="7">
         <v>43.478261450692798</v>
       </c>
-      <c r="AK22" s="9">
+      <c r="AK22" s="7">
         <v>9.0501634055197897</v>
       </c>
-      <c r="AL22" s="9">
+      <c r="AL22" s="7">
         <v>0.44750177955584303</v>
       </c>
-      <c r="AM22" s="9">
+      <c r="AM22" s="7">
         <v>28.9541055555556</v>
       </c>
-      <c r="AN22" s="9">
+      <c r="AN22" s="7">
         <v>5.5516577488170196</v>
       </c>
-      <c r="AO22" s="9">
+      <c r="AO22" s="7">
         <v>1.7555883275984701</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:41">
+      <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="6">
@@ -3719,123 +3732,123 @@
       <c r="E23" s="6">
         <v>145.40110000000001</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="7">
         <v>28.94</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="7">
         <v>0.44</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="7">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="7">
         <v>27.7943769230769</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="7">
         <v>1.3601179576012701</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="7">
         <v>3.7722884898544098E-2</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="7">
         <v>25.58</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="7">
         <v>0.47</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="7">
         <v>9.4E-2</v>
       </c>
-      <c r="O23" s="9">
+      <c r="O23" s="7">
         <v>63.178611121648501</v>
       </c>
-      <c r="P23" s="9">
+      <c r="P23" s="7">
         <v>40.350241222991997</v>
       </c>
-      <c r="Q23" s="9">
+      <c r="Q23" s="7">
         <v>10.784055580722701</v>
       </c>
-      <c r="R23" s="9">
+      <c r="R23" s="7">
         <v>19.554809326167199</v>
       </c>
-      <c r="S23" s="9">
+      <c r="S23" s="7">
         <v>19.730802035339298</v>
       </c>
-      <c r="T23" s="9">
+      <c r="T23" s="7">
         <v>0.27672090431033097</v>
       </c>
-      <c r="U23" s="9">
+      <c r="U23" s="7">
         <v>3.7190501730700398</v>
       </c>
-      <c r="V23" s="9">
+      <c r="V23" s="7">
         <v>1.54445844542035</v>
       </c>
-      <c r="W23" s="9">
+      <c r="W23" s="7">
         <v>0.41277388220517502</v>
       </c>
-      <c r="X23" s="9">
+      <c r="X23" s="7">
         <v>5.4451490476190502E-2</v>
       </c>
-      <c r="Y23" s="9">
+      <c r="Y23" s="7">
         <v>1.21483130308776E-2</v>
       </c>
-      <c r="Z23" s="9">
+      <c r="Z23" s="7">
         <v>3.8416338906276698E-3</v>
       </c>
-      <c r="AA23" s="9">
+      <c r="AA23" s="7">
         <v>4.1928097055888201E-2</v>
       </c>
-      <c r="AB23" s="9">
+      <c r="AB23" s="7">
         <v>1.15181383644092E-2</v>
       </c>
-      <c r="AC23" s="9">
+      <c r="AC23" s="7">
         <v>5.6608561723708905E-4</v>
       </c>
-      <c r="AD23" s="9">
+      <c r="AD23" s="7">
         <v>3.3557249999999997E-2</v>
       </c>
-      <c r="AE23" s="9">
+      <c r="AE23" s="7">
         <v>1.1162339139778399E-2</v>
       </c>
-      <c r="AF23" s="9">
+      <c r="AF23" s="7">
         <v>3.5298415696944298E-3</v>
       </c>
-      <c r="AG23" s="9">
+      <c r="AG23" s="7">
         <v>54.546804166666703</v>
       </c>
-      <c r="AH23" s="9">
+      <c r="AH23" s="7">
         <v>2.4919853262350098</v>
       </c>
-      <c r="AI23" s="9">
+      <c r="AI23" s="7">
         <v>0.78803495266203905</v>
       </c>
-      <c r="AJ23" s="9">
+      <c r="AJ23" s="7">
         <v>43.121240790545997</v>
       </c>
-      <c r="AK23" s="9">
+      <c r="AK23" s="7">
         <v>8.9853585771330007</v>
       </c>
-      <c r="AL23" s="9">
+      <c r="AL23" s="7">
         <v>0.44429738702418903</v>
       </c>
-      <c r="AM23" s="9">
+      <c r="AM23" s="7">
         <v>29.312692592592601</v>
       </c>
-      <c r="AN23" s="9">
+      <c r="AN23" s="7">
         <v>5.1239837682170899</v>
       </c>
-      <c r="AO23" s="9">
+      <c r="AO23" s="7">
         <v>1.6203459401298299</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:41">
+      <c r="A24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D24" s="6">
@@ -3844,123 +3857,123 @@
       <c r="E24" s="6">
         <v>145.65638000000001</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="7">
         <v>28.86</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="7">
         <v>0.4</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="7">
         <v>0.08</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="7">
         <v>28.000830769230799</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="7">
         <v>1.22474540653591</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="7">
         <v>3.3968325866570899E-2</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="7">
         <v>25.97</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="7">
         <v>0.56999999999999995</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="7">
         <v>0.114</v>
       </c>
-      <c r="O24" s="9">
+      <c r="O24" s="7">
         <v>73.063701011163204</v>
       </c>
-      <c r="P24" s="9">
+      <c r="P24" s="7">
         <v>43.181766651550802</v>
       </c>
-      <c r="Q24" s="9">
+      <c r="Q24" s="7">
         <v>11.540812583266</v>
       </c>
-      <c r="R24" s="9">
+      <c r="R24" s="7">
         <v>21.821478996431701</v>
       </c>
-      <c r="S24" s="9">
+      <c r="S24" s="7">
         <v>19.790153301905999</v>
       </c>
-      <c r="T24" s="9">
+      <c r="T24" s="7">
         <v>0.27755329501228299</v>
       </c>
-      <c r="U24" s="9">
+      <c r="U24" s="7">
         <v>4.3539990939622601</v>
       </c>
-      <c r="V24" s="9">
+      <c r="V24" s="7">
         <v>1.6765104658074099</v>
       </c>
-      <c r="W24" s="9">
+      <c r="W24" s="7">
         <v>0.44806626917086601</v>
       </c>
-      <c r="X24" s="9">
+      <c r="X24" s="7">
         <v>5.2197791666666701E-2</v>
       </c>
-      <c r="Y24" s="9">
+      <c r="Y24" s="7">
         <v>1.5728951796545598E-2</v>
       </c>
-      <c r="Z24" s="9">
+      <c r="Z24" s="7">
         <v>4.9739312884081498E-3</v>
       </c>
-      <c r="AA24" s="9">
+      <c r="AA24" s="7">
         <v>4.1548097357016901E-2</v>
       </c>
-      <c r="AB24" s="9">
+      <c r="AB24" s="7">
         <v>1.0393033010705301E-2</v>
       </c>
-      <c r="AC24" s="9">
+      <c r="AC24" s="7">
         <v>5.1078970582693704E-4</v>
       </c>
-      <c r="AD24" s="9">
+      <c r="AD24" s="7">
         <v>3.0945571428571399E-2</v>
       </c>
-      <c r="AE24" s="9">
+      <c r="AE24" s="7">
         <v>1.08226475655951E-2</v>
       </c>
-      <c r="AF24" s="9">
+      <c r="AF24" s="7">
         <v>3.4224216620557099E-3</v>
       </c>
-      <c r="AG24" s="9">
+      <c r="AG24" s="7">
         <v>53.31785</v>
       </c>
-      <c r="AH24" s="9">
+      <c r="AH24" s="7">
         <v>4.7047918126435198</v>
       </c>
-      <c r="AI24" s="9">
+      <c r="AI24" s="7">
         <v>1.4877858044865699</v>
       </c>
-      <c r="AJ24" s="9">
+      <c r="AJ24" s="7">
         <v>42.805033604998698</v>
       </c>
-      <c r="AK24" s="9">
+      <c r="AK24" s="7">
         <v>8.5111786826231892</v>
       </c>
-      <c r="AL24" s="9">
+      <c r="AL24" s="7">
         <v>0.420850700250189</v>
       </c>
-      <c r="AM24" s="9">
+      <c r="AM24" s="7">
         <v>28.279679012345699</v>
       </c>
-      <c r="AN24" s="9">
+      <c r="AN24" s="7">
         <v>6.1241350354218698</v>
       </c>
-      <c r="AO24" s="9">
+      <c r="AO24" s="7">
         <v>1.9366215410369101</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:41">
+      <c r="A25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D25" s="6">
@@ -3969,123 +3982,123 @@
       <c r="E25" s="6">
         <v>145.75653</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="7">
         <v>28.78</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="7">
         <v>0.36</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="7">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="7">
         <v>28.001961538461501</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="7">
         <v>1.1340180757863201</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="7">
         <v>3.1452002458081399E-2</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="7">
         <v>26.09</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="7">
         <v>0.52</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="7">
         <v>0.104</v>
       </c>
-      <c r="O25" s="9">
+      <c r="O25" s="7">
         <v>65.986462014053203</v>
       </c>
-      <c r="P25" s="9">
+      <c r="P25" s="7">
         <v>28.019436455844598</v>
       </c>
-      <c r="Q25" s="9">
+      <c r="Q25" s="7">
         <v>7.4885093848752797</v>
       </c>
-      <c r="R25" s="9">
+      <c r="R25" s="7">
         <v>20.329351785076899</v>
       </c>
-      <c r="S25" s="9">
+      <c r="S25" s="7">
         <v>18.566560536454801</v>
       </c>
-      <c r="T25" s="9">
+      <c r="T25" s="7">
         <v>0.26039262937097801</v>
       </c>
-      <c r="U25" s="9">
+      <c r="U25" s="7">
         <v>4.2525031171450296</v>
       </c>
-      <c r="V25" s="9">
+      <c r="V25" s="7">
         <v>1.5165805052810599</v>
       </c>
-      <c r="W25" s="9">
+      <c r="W25" s="7">
         <v>0.405323189301588</v>
       </c>
-      <c r="X25" s="9">
+      <c r="X25" s="7">
         <v>5.86347777777778E-2</v>
       </c>
-      <c r="Y25" s="9">
+      <c r="Y25" s="7">
         <v>1.1538741922243899E-2</v>
       </c>
-      <c r="Z25" s="9">
+      <c r="Z25" s="7">
         <v>3.6488705807160202E-3</v>
       </c>
-      <c r="AA25" s="9">
+      <c r="AA25" s="7">
         <v>4.5336177058999699E-2</v>
       </c>
-      <c r="AB25" s="9">
+      <c r="AB25" s="7">
         <v>1.23411634719033E-2</v>
       </c>
-      <c r="AC25" s="9">
+      <c r="AC25" s="7">
         <v>6.0653509450826304E-4</v>
       </c>
-      <c r="AD25" s="9">
+      <c r="AD25" s="7">
         <v>3.4779801719576703E-2</v>
       </c>
-      <c r="AE25" s="9">
+      <c r="AE25" s="7">
         <v>7.7026685952021404E-3</v>
       </c>
-      <c r="AF25" s="9">
+      <c r="AF25" s="7">
         <v>2.4357976822288298E-3</v>
       </c>
-      <c r="AG25" s="9">
+      <c r="AG25" s="7">
         <v>54.082338271604897</v>
       </c>
-      <c r="AH25" s="9">
+      <c r="AH25" s="7">
         <v>1.9664969315416401</v>
       </c>
-      <c r="AI25" s="9">
+      <c r="AI25" s="7">
         <v>0.62186093154037902</v>
       </c>
-      <c r="AJ25" s="9">
+      <c r="AJ25" s="7">
         <v>43.1460346916598</v>
       </c>
-      <c r="AK25" s="9">
+      <c r="AK25" s="7">
         <v>8.2441712643951508</v>
       </c>
-      <c r="AL25" s="9">
+      <c r="AL25" s="7">
         <v>0.40764803313162801</v>
       </c>
-      <c r="AM25" s="9">
+      <c r="AM25" s="7">
         <v>31.075697530864201</v>
       </c>
-      <c r="AN25" s="9">
+      <c r="AN25" s="7">
         <v>5.0710404882783804</v>
       </c>
-      <c r="AO25" s="9">
+      <c r="AO25" s="7">
         <v>1.6036038049892101</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:41">
+      <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D26" s="6">
@@ -4094,123 +4107,123 @@
       <c r="E26" s="6">
         <v>145.82533999999998</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="7">
         <v>28.85</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="7">
         <v>0.47</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="7">
         <v>9.4E-2</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="7">
         <v>28.076592307692302</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="7">
         <v>1.1397224261033001</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="7">
         <v>3.1610212670089899E-2</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="7">
         <v>26.22</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="7">
         <v>0.57999999999999996</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N26" s="7">
         <v>0.11600000000000001</v>
       </c>
-      <c r="O26" s="9">
+      <c r="O26" s="7">
         <v>65.986462014053203</v>
       </c>
-      <c r="P26" s="9">
+      <c r="P26" s="7">
         <v>28.019436455844598</v>
       </c>
-      <c r="Q26" s="9">
+      <c r="Q26" s="7">
         <v>7.4885093848752797</v>
       </c>
-      <c r="R26" s="9">
+      <c r="R26" s="7">
         <v>20.329351785076899</v>
       </c>
-      <c r="S26" s="9">
+      <c r="S26" s="7">
         <v>18.566560536454801</v>
       </c>
-      <c r="T26" s="9">
+      <c r="T26" s="7">
         <v>0.26039262937097801</v>
       </c>
-      <c r="U26" s="9">
+      <c r="U26" s="7">
         <v>4.2525031171450296</v>
       </c>
-      <c r="V26" s="9">
+      <c r="V26" s="7">
         <v>1.5165805052810599</v>
       </c>
-      <c r="W26" s="9">
+      <c r="W26" s="7">
         <v>0.405323189301588</v>
       </c>
-      <c r="X26" s="9">
+      <c r="X26" s="7">
         <v>5.2717076388888902E-2</v>
       </c>
-      <c r="Y26" s="9">
+      <c r="Y26" s="7">
         <v>1.22138296492819E-2</v>
       </c>
-      <c r="Z26" s="9">
+      <c r="Z26" s="7">
         <v>3.8623520645026401E-3</v>
       </c>
-      <c r="AA26" s="9">
+      <c r="AA26" s="7">
         <v>4.3068691197130998E-2</v>
       </c>
-      <c r="AB26" s="9">
+      <c r="AB26" s="7">
         <v>1.16463566269606E-2</v>
       </c>
-      <c r="AC26" s="9">
+      <c r="AC26" s="7">
         <v>5.7238720105220705E-4</v>
       </c>
-      <c r="AD26" s="9">
+      <c r="AD26" s="7">
         <v>2.9265006122448999E-2</v>
       </c>
-      <c r="AE26" s="9">
+      <c r="AE26" s="7">
         <v>8.0510030099515406E-3</v>
       </c>
-      <c r="AF26" s="9">
+      <c r="AF26" s="7">
         <v>2.5459506960318098E-3</v>
       </c>
-      <c r="AG26" s="9">
+      <c r="AG26" s="7">
         <v>54.6236305555556</v>
       </c>
-      <c r="AH26" s="9">
+      <c r="AH26" s="7">
         <v>2.1062679588636399</v>
       </c>
-      <c r="AI26" s="9">
+      <c r="AI26" s="7">
         <v>0.66606041126429305</v>
       </c>
-      <c r="AJ26" s="9">
+      <c r="AJ26" s="7">
         <v>43.4626099633252</v>
       </c>
-      <c r="AK26" s="9">
+      <c r="AK26" s="7">
         <v>8.2002836682437099</v>
       </c>
-      <c r="AL26" s="9">
+      <c r="AL26" s="7">
         <v>0.40547793116792002</v>
       </c>
-      <c r="AM26" s="9">
+      <c r="AM26" s="7">
         <v>31.0920083333333</v>
       </c>
-      <c r="AN26" s="9">
+      <c r="AN26" s="7">
         <v>4.3064348847602103</v>
       </c>
-      <c r="AO26" s="9">
+      <c r="AO26" s="7">
         <v>1.3618142831047</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:41">
+      <c r="A27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D27" s="6">
@@ -4219,123 +4232,123 @@
       <c r="E27" s="6">
         <v>145.83727999999999</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="7">
         <v>28.91</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="7">
         <v>0.42</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="7">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="7">
         <v>28.110646153846101</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="7">
         <v>1.1428613177939</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="7">
         <v>3.16972698619249E-2</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L27" s="7">
         <v>26.25</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M27" s="7">
         <v>0.59</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N27" s="7">
         <v>0.11799999999999999</v>
       </c>
-      <c r="O27" s="9">
+      <c r="O27" s="7">
         <v>65.465941672599996</v>
       </c>
-      <c r="P27" s="9">
+      <c r="P27" s="7">
         <v>28.784778283572098</v>
       </c>
-      <c r="Q27" s="9">
+      <c r="Q27" s="7">
         <v>7.6930555922412598</v>
       </c>
-      <c r="R27" s="9">
+      <c r="R27" s="7">
         <v>20.165442507578099</v>
       </c>
-      <c r="S27" s="9">
+      <c r="S27" s="7">
         <v>18.178104542466201</v>
       </c>
-      <c r="T27" s="9">
+      <c r="T27" s="7">
         <v>0.25494460481785702</v>
       </c>
-      <c r="U27" s="9">
+      <c r="U27" s="7">
         <v>4.3271218207233497</v>
       </c>
-      <c r="V27" s="9">
+      <c r="V27" s="7">
         <v>1.65616262889558</v>
       </c>
-      <c r="W27" s="9">
+      <c r="W27" s="7">
         <v>0.442628081007578</v>
       </c>
-      <c r="X27" s="9">
+      <c r="X27" s="7">
         <v>5.1413587500000003E-2</v>
       </c>
-      <c r="Y27" s="9">
+      <c r="Y27" s="7">
         <v>1.6824907692286398E-2</v>
       </c>
-      <c r="Z27" s="9">
+      <c r="Z27" s="7">
         <v>5.3205029729712404E-3</v>
       </c>
-      <c r="AA27" s="9">
+      <c r="AA27" s="7">
         <v>4.2267403968254E-2</v>
       </c>
-      <c r="AB27" s="9">
+      <c r="AB27" s="7">
         <v>1.1044961724881701E-2</v>
       </c>
-      <c r="AC27" s="9">
+      <c r="AC27" s="7">
         <v>5.4283025412417397E-4</v>
       </c>
-      <c r="AD27" s="9">
+      <c r="AD27" s="7">
         <v>3.4627671428571399E-2</v>
       </c>
-      <c r="AE27" s="9">
+      <c r="AE27" s="7">
         <v>9.0817591228227103E-3</v>
       </c>
-      <c r="AF27" s="9">
+      <c r="AF27" s="7">
         <v>2.8719043989132598E-3</v>
       </c>
-      <c r="AG27" s="9">
+      <c r="AG27" s="7">
         <v>54.715238095238099</v>
       </c>
-      <c r="AH27" s="9">
+      <c r="AH27" s="7">
         <v>1.44099495545011</v>
       </c>
-      <c r="AI27" s="9">
+      <c r="AI27" s="7">
         <v>0.45568261560352102</v>
       </c>
-      <c r="AJ27" s="9">
+      <c r="AJ27" s="7">
         <v>43.663095668878803</v>
       </c>
-      <c r="AK27" s="9">
+      <c r="AK27" s="7">
         <v>7.8624865301214797</v>
       </c>
-      <c r="AL27" s="9">
+      <c r="AL27" s="7">
         <v>0.38877493767872301</v>
       </c>
-      <c r="AM27" s="9">
+      <c r="AM27" s="7">
         <v>31.398473015873002</v>
       </c>
-      <c r="AN27" s="9">
+      <c r="AN27" s="7">
         <v>4.2439995827449097</v>
       </c>
-      <c r="AO27" s="9">
+      <c r="AO27" s="7">
         <v>1.34207050702782</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:41">
+      <c r="A28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D28" s="6">
@@ -4344,123 +4357,123 @@
       <c r="E28" s="6">
         <v>145.77567999999999</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="7">
         <v>28.87</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="7">
         <v>0.47</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="7">
         <v>9.4E-2</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="7">
         <v>28.143415384615398</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="7">
         <v>1.09272900869575</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="7">
         <v>3.0306849777226599E-2</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="7">
         <v>26.37</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="7">
         <v>0.59</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N28" s="7">
         <v>0.11799999999999999</v>
       </c>
-      <c r="O28" s="9">
+      <c r="O28" s="7">
         <v>65.465941672599996</v>
       </c>
-      <c r="P28" s="9">
+      <c r="P28" s="7">
         <v>28.784778283572098</v>
       </c>
-      <c r="Q28" s="9">
+      <c r="Q28" s="7">
         <v>7.6930555922412598</v>
       </c>
-      <c r="R28" s="9">
+      <c r="R28" s="7">
         <v>20.165442507578099</v>
       </c>
-      <c r="S28" s="9">
+      <c r="S28" s="7">
         <v>18.178104542466201</v>
       </c>
-      <c r="T28" s="9">
+      <c r="T28" s="7">
         <v>0.25494460481785702</v>
       </c>
-      <c r="U28" s="9">
+      <c r="U28" s="7">
         <v>4.3271218207233497</v>
       </c>
-      <c r="V28" s="9">
+      <c r="V28" s="7">
         <v>1.65616262889558</v>
       </c>
-      <c r="W28" s="9">
+      <c r="W28" s="7">
         <v>0.442628081007578</v>
       </c>
-      <c r="X28" s="9">
+      <c r="X28" s="7">
         <v>5.2599E-2</v>
       </c>
-      <c r="Y28" s="9">
+      <c r="Y28" s="7">
         <v>7.9422483382645907E-3</v>
       </c>
-      <c r="Z28" s="9">
+      <c r="Z28" s="7">
         <v>2.51155944916035E-3</v>
       </c>
-      <c r="AA28" s="9">
+      <c r="AA28" s="7">
         <v>4.15969490898749E-2</v>
       </c>
-      <c r="AB28" s="9">
+      <c r="AB28" s="7">
         <v>1.3913856265364699E-2</v>
       </c>
-      <c r="AC28" s="9">
+      <c r="AC28" s="7">
         <v>6.8382872847448303E-4</v>
       </c>
-      <c r="AD28" s="9">
+      <c r="AD28" s="7">
         <v>2.6703009999999999E-2</v>
       </c>
-      <c r="AE28" s="9">
+      <c r="AE28" s="7">
         <v>9.1582912905738001E-3</v>
       </c>
-      <c r="AF28" s="9">
+      <c r="AF28" s="7">
         <v>2.8961059953496199E-3</v>
       </c>
-      <c r="AG28" s="9">
+      <c r="AG28" s="7">
         <v>54.146242222222199</v>
       </c>
-      <c r="AH28" s="9">
+      <c r="AH28" s="7">
         <v>1.60957259449347</v>
       </c>
-      <c r="AI28" s="9">
+      <c r="AI28" s="7">
         <v>0.50899154579859596</v>
       </c>
-      <c r="AJ28" s="9">
+      <c r="AJ28" s="7">
         <v>43.159807775061097</v>
       </c>
-      <c r="AK28" s="9">
+      <c r="AK28" s="7">
         <v>7.8272668749180498</v>
       </c>
-      <c r="AL28" s="9">
+      <c r="AL28" s="7">
         <v>0.38703343781041499</v>
       </c>
-      <c r="AM28" s="9">
+      <c r="AM28" s="7">
         <v>33.2684022222222</v>
       </c>
-      <c r="AN28" s="9">
+      <c r="AN28" s="7">
         <v>4.0040608755043197</v>
       </c>
-      <c r="AO28" s="9">
+      <c r="AO28" s="7">
         <v>1.2661952256561599</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:41">
+      <c r="A29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="6">
@@ -4469,123 +4482,123 @@
       <c r="E29" s="6">
         <v>145.75326000000001</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="7">
         <v>28.65</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="7">
         <v>0.45</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="7">
         <v>0.09</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="7">
         <v>28.1390307692308</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="7">
         <v>0.89661530116472299</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="7">
         <v>2.4867634174730702E-2</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L29" s="7">
         <v>26.72</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M29" s="7">
         <v>0.52</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N29" s="7">
         <v>0.104</v>
       </c>
-      <c r="O29" s="9">
+      <c r="O29" s="7">
         <v>58.9273655989115</v>
       </c>
-      <c r="P29" s="9">
+      <c r="P29" s="7">
         <v>66.834281183919501</v>
       </c>
-      <c r="Q29" s="9">
+      <c r="Q29" s="7">
         <v>17.862212991538499</v>
       </c>
-      <c r="R29" s="9">
+      <c r="R29" s="7">
         <v>18.050378525804199</v>
       </c>
-      <c r="S29" s="9">
+      <c r="S29" s="7">
         <v>17.8960042950652</v>
       </c>
-      <c r="T29" s="9">
+      <c r="T29" s="7">
         <v>0.250988200236475</v>
       </c>
-      <c r="U29" s="9">
+      <c r="U29" s="7">
         <v>4.1927060119338098</v>
       </c>
-      <c r="V29" s="9">
+      <c r="V29" s="7">
         <v>1.51164395906384</v>
       </c>
-      <c r="W29" s="9">
+      <c r="W29" s="7">
         <v>0.40400384182881699</v>
       </c>
-      <c r="X29" s="9">
+      <c r="X29" s="7">
         <v>6.9205000000000003E-2</v>
       </c>
-      <c r="Y29" s="9">
+      <c r="Y29" s="7">
         <v>4.7237341339006103E-2</v>
       </c>
-      <c r="Z29" s="9">
+      <c r="Z29" s="7">
         <v>1.49377589242087E-2</v>
       </c>
-      <c r="AA29" s="9">
+      <c r="AA29" s="7">
         <v>4.72265570726218E-2</v>
       </c>
-      <c r="AB29" s="9">
+      <c r="AB29" s="7">
         <v>1.5717708653173401E-2</v>
       </c>
-      <c r="AC29" s="9">
+      <c r="AC29" s="7">
         <v>7.7248323669887905E-4</v>
       </c>
-      <c r="AD29" s="9">
+      <c r="AD29" s="7">
         <v>3.6362039682539697E-2</v>
       </c>
-      <c r="AE29" s="9">
+      <c r="AE29" s="7">
         <v>1.03200159524742E-2</v>
       </c>
-      <c r="AF29" s="9">
+      <c r="AF29" s="7">
         <v>3.2634755899090501E-3</v>
       </c>
-      <c r="AG29" s="9">
+      <c r="AG29" s="7">
         <v>53.182630952380997</v>
       </c>
-      <c r="AH29" s="9">
+      <c r="AH29" s="7">
         <v>2.21259731139914</v>
       </c>
-      <c r="AI29" s="9">
+      <c r="AI29" s="7">
         <v>0.69968470487861301</v>
       </c>
-      <c r="AJ29" s="9">
+      <c r="AJ29" s="7">
         <v>43.310200750960497</v>
       </c>
-      <c r="AK29" s="9">
+      <c r="AK29" s="7">
         <v>7.6320680900938296</v>
       </c>
-      <c r="AL29" s="9">
+      <c r="AL29" s="7">
         <v>0.37738147909299502</v>
       </c>
-      <c r="AM29" s="9">
+      <c r="AM29" s="7">
         <v>33.895785714285701</v>
       </c>
-      <c r="AN29" s="9">
+      <c r="AN29" s="7">
         <v>5.6240958079853103</v>
       </c>
-      <c r="AO29" s="9">
+      <c r="AO29" s="7">
         <v>1.77849525322386</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:41">
+      <c r="A30" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D30" s="6">
@@ -4594,123 +4607,123 @@
       <c r="E30" s="6">
         <v>145.63243</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="7">
         <v>28.63</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="7">
         <v>0.51</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="7">
         <v>0.10199999999999999</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="7">
         <v>28.1547153846154</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="7">
         <v>0.90332300515884101</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="7">
         <v>2.50536724108186E-2</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="7">
         <v>26.75</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="7">
         <v>0.45</v>
       </c>
-      <c r="N30" s="9">
+      <c r="N30" s="7">
         <v>0.09</v>
       </c>
-      <c r="O30" s="9">
+      <c r="O30" s="7">
         <v>58.9273655989115</v>
       </c>
-      <c r="P30" s="9">
+      <c r="P30" s="7">
         <v>66.834281183919501</v>
       </c>
-      <c r="Q30" s="9">
+      <c r="Q30" s="7">
         <v>17.862212991538499</v>
       </c>
-      <c r="R30" s="9">
+      <c r="R30" s="7">
         <v>18.050378525804199</v>
       </c>
-      <c r="S30" s="9">
+      <c r="S30" s="7">
         <v>17.8960042950652</v>
       </c>
-      <c r="T30" s="9">
+      <c r="T30" s="7">
         <v>0.250988200236475</v>
       </c>
-      <c r="U30" s="9">
+      <c r="U30" s="7">
         <v>4.1927060119338098</v>
       </c>
-      <c r="V30" s="9">
+      <c r="V30" s="7">
         <v>1.51164395906384</v>
       </c>
-      <c r="W30" s="9">
+      <c r="W30" s="7">
         <v>0.40400384182881699</v>
       </c>
-      <c r="X30" s="9">
+      <c r="X30" s="7">
         <v>6.4831638888888904E-2</v>
       </c>
-      <c r="Y30" s="9">
+      <c r="Y30" s="7">
         <v>8.8815165474636394E-3</v>
       </c>
-      <c r="Z30" s="9">
+      <c r="Z30" s="7">
         <v>2.8085821366460101E-3</v>
       </c>
-      <c r="AA30" s="9">
+      <c r="AA30" s="7">
         <v>4.2263712737398998E-2</v>
       </c>
-      <c r="AB30" s="9">
+      <c r="AB30" s="7">
         <v>1.41867576704138E-2</v>
       </c>
-      <c r="AC30" s="9">
+      <c r="AC30" s="7">
         <v>6.972411008071E-4</v>
       </c>
-      <c r="AD30" s="9">
+      <c r="AD30" s="7">
         <v>2.9518034722222201E-2</v>
       </c>
-      <c r="AE30" s="9">
+      <c r="AE30" s="7">
         <v>9.1191434470148502E-3</v>
       </c>
-      <c r="AF30" s="9">
+      <c r="AF30" s="7">
         <v>2.8837263602365902E-3</v>
       </c>
-      <c r="AG30" s="9">
+      <c r="AG30" s="7">
         <v>52.796597777777798</v>
       </c>
-      <c r="AH30" s="9">
+      <c r="AH30" s="7">
         <v>3.1646241001214399</v>
       </c>
-      <c r="AI30" s="9">
+      <c r="AI30" s="7">
         <v>1.0007420094644499</v>
       </c>
-      <c r="AJ30" s="9">
+      <c r="AJ30" s="7">
         <v>42.806615452322802</v>
       </c>
-      <c r="AK30" s="9">
+      <c r="AK30" s="7">
         <v>7.4967788542693397</v>
       </c>
-      <c r="AL30" s="9">
+      <c r="AL30" s="7">
         <v>0.37069185692006501</v>
       </c>
-      <c r="AM30" s="9">
+      <c r="AM30" s="7">
         <v>34.395850000000003</v>
       </c>
-      <c r="AN30" s="9">
+      <c r="AN30" s="7">
         <v>3.35731387264804</v>
       </c>
-      <c r="AO30" s="9">
+      <c r="AO30" s="7">
         <v>1.06167586576483</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:41">
+      <c r="A31" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D31" s="6">
@@ -4719,123 +4732,123 @@
       <c r="E31" s="6">
         <v>145.55479</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="7">
         <v>28.71</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="7">
         <v>0.49</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="7">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="7">
         <v>28.2011769230769</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="7">
         <v>0.91394765024930202</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K31" s="7">
         <v>2.53483470466438E-2</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L31" s="7">
         <v>26.81</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M31" s="7">
         <v>0.47</v>
       </c>
-      <c r="N31" s="9">
+      <c r="N31" s="7">
         <v>9.4E-2</v>
       </c>
-      <c r="O31" s="9">
+      <c r="O31" s="7">
         <v>65.514379529512098</v>
       </c>
-      <c r="P31" s="9">
+      <c r="P31" s="7">
         <v>54.415509872621499</v>
       </c>
-      <c r="Q31" s="9">
+      <c r="Q31" s="7">
         <v>14.543156747854599</v>
       </c>
-      <c r="R31" s="9">
+      <c r="R31" s="7">
         <v>18.355678882061301</v>
       </c>
-      <c r="S31" s="9">
+      <c r="S31" s="7">
         <v>21.081319914136799</v>
       </c>
-      <c r="T31" s="9">
+      <c r="T31" s="7">
         <v>0.29566167154517298</v>
       </c>
-      <c r="U31" s="9">
+      <c r="U31" s="7">
         <v>4.1881065954721901</v>
       </c>
-      <c r="V31" s="9">
+      <c r="V31" s="7">
         <v>1.86447122120621</v>
       </c>
-      <c r="W31" s="9">
+      <c r="W31" s="7">
         <v>0.49830089408954698</v>
       </c>
-      <c r="X31" s="9">
+      <c r="X31" s="7">
         <v>5.4043241071428598E-2</v>
       </c>
-      <c r="Y31" s="9">
+      <c r="Y31" s="7">
         <v>1.16661400533495E-2</v>
       </c>
-      <c r="Z31" s="9">
+      <c r="Z31" s="7">
         <v>3.6891574071102801E-3</v>
       </c>
-      <c r="AA31" s="9">
+      <c r="AA31" s="7">
         <v>3.8363302850978602E-2</v>
       </c>
-      <c r="AB31" s="9">
+      <c r="AB31" s="7">
         <v>1.23551692164298E-2</v>
       </c>
-      <c r="AC31" s="9">
+      <c r="AC31" s="7">
         <v>6.0722343929839404E-4</v>
       </c>
-      <c r="AD31" s="9">
+      <c r="AD31" s="7">
         <v>2.8176626190476201E-2</v>
       </c>
-      <c r="AE31" s="9">
+      <c r="AE31" s="7">
         <v>6.7032071062985898E-3</v>
       </c>
-      <c r="AF31" s="9">
+      <c r="AF31" s="7">
         <v>2.119740208373E-3</v>
       </c>
-      <c r="AG31" s="9">
+      <c r="AG31" s="7">
         <v>53.853842857142901</v>
       </c>
-      <c r="AH31" s="9">
+      <c r="AH31" s="7">
         <v>1.88143179740321</v>
       </c>
-      <c r="AI31" s="9">
+      <c r="AI31" s="7">
         <v>0.59496097420586103</v>
       </c>
-      <c r="AJ31" s="9">
+      <c r="AJ31" s="7">
         <v>43.5751960181627</v>
       </c>
-      <c r="AK31" s="9">
+      <c r="AK31" s="7">
         <v>7.5176936191338397</v>
       </c>
-      <c r="AL31" s="9">
+      <c r="AL31" s="7">
         <v>0.371726025484374</v>
       </c>
-      <c r="AM31" s="9">
+      <c r="AM31" s="7">
         <v>34.5737555555556</v>
       </c>
-      <c r="AN31" s="9">
+      <c r="AN31" s="7">
         <v>3.6919301351292799</v>
       </c>
-      <c r="AO31" s="9">
+      <c r="AO31" s="7">
         <v>1.16749081892218</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:41">
+      <c r="A32" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D32" s="6">
@@ -4844,123 +4857,123 @@
       <c r="E32" s="6">
         <v>145.21026000000001</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="7">
         <v>28.81</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="7">
         <v>0.63</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="7">
         <v>0.126</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="7">
         <v>28.2989307692308</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="7">
         <v>0.89389315259689095</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K32" s="7">
         <v>2.4792135357494201E-2</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L32" s="7">
         <v>26.84</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="7">
         <v>0.53</v>
       </c>
-      <c r="N32" s="9">
+      <c r="N32" s="7">
         <v>0.106</v>
       </c>
-      <c r="O32" s="9">
+      <c r="O32" s="7">
         <v>54.810009551114398</v>
       </c>
-      <c r="P32" s="9">
+      <c r="P32" s="7">
         <v>30.432568679634699</v>
       </c>
-      <c r="Q32" s="9">
+      <c r="Q32" s="7">
         <v>8.1334460999043099</v>
       </c>
-      <c r="R32" s="9">
+      <c r="R32" s="7">
         <v>16.890647042167</v>
       </c>
-      <c r="S32" s="9">
+      <c r="S32" s="7">
         <v>16.6844067436807</v>
       </c>
-      <c r="T32" s="9">
+      <c r="T32" s="7">
         <v>0.23399576528736299</v>
       </c>
-      <c r="U32" s="9">
+      <c r="U32" s="7">
         <v>3.9344685122045102</v>
       </c>
-      <c r="V32" s="9">
+      <c r="V32" s="7">
         <v>1.5576020510408199</v>
       </c>
-      <c r="W32" s="9">
+      <c r="W32" s="7">
         <v>0.41628665856650798</v>
       </c>
-      <c r="X32" s="9">
+      <c r="X32" s="7">
         <v>4.5843507407407398E-2</v>
       </c>
-      <c r="Y32" s="9">
+      <c r="Y32" s="7">
         <v>8.6394359898833793E-3</v>
       </c>
-      <c r="Z32" s="9">
+      <c r="Z32" s="7">
         <v>2.7320295427262901E-3</v>
       </c>
-      <c r="AA32" s="9">
+      <c r="AA32" s="7">
         <v>3.1237099836230801E-2</v>
       </c>
-      <c r="AB32" s="9">
+      <c r="AB32" s="7">
         <v>1.1314028058682601E-2</v>
       </c>
-      <c r="AC32" s="9">
+      <c r="AC32" s="7">
         <v>5.5605414298785295E-4</v>
       </c>
-      <c r="AD32" s="9">
+      <c r="AD32" s="7">
         <v>2.13495822916667E-2</v>
       </c>
-      <c r="AE32" s="9">
+      <c r="AE32" s="7">
         <v>6.8624370881559E-3</v>
       </c>
-      <c r="AF32" s="9">
+      <c r="AF32" s="7">
         <v>2.1700931498186298E-3</v>
       </c>
-      <c r="AG32" s="9">
+      <c r="AG32" s="7">
         <v>53.253734444444497</v>
       </c>
-      <c r="AH32" s="9">
+      <c r="AH32" s="7">
         <v>1.91751207484537</v>
       </c>
-      <c r="AI32" s="9">
+      <c r="AI32" s="7">
         <v>0.60637055973866305</v>
       </c>
-      <c r="AJ32" s="9">
+      <c r="AJ32" s="7">
         <v>43.658483863080697</v>
       </c>
-      <c r="AK32" s="9">
+      <c r="AK32" s="7">
         <v>7.2106114586925099</v>
       </c>
-      <c r="AL32" s="9">
+      <c r="AL32" s="7">
         <v>0.35654178989548602</v>
       </c>
-      <c r="AM32" s="9">
+      <c r="AM32" s="7">
         <v>36.065188888888898</v>
       </c>
-      <c r="AN32" s="9">
+      <c r="AN32" s="7">
         <v>2.79788766149324</v>
       </c>
-      <c r="AO32" s="9">
+      <c r="AO32" s="7">
         <v>0.88476976476008196</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+    <row r="33" spans="1:41">
+      <c r="A33" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D33" s="6">
@@ -4969,123 +4982,123 @@
       <c r="E33" s="6">
         <v>144.78749999999999</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="7">
         <v>28.77</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="7">
         <v>0.4</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="7">
         <v>0.08</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="7">
         <v>28.288715384615301</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J33" s="7">
         <v>0.825842027055258</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K33" s="7">
         <v>2.29047367229296E-2</v>
       </c>
-      <c r="L33" s="11">
+      <c r="L33" s="7">
         <v>26.98</v>
       </c>
-      <c r="M33" s="11">
+      <c r="M33" s="7">
         <v>0.52</v>
       </c>
-      <c r="N33" s="11">
+      <c r="N33" s="7">
         <v>0.104</v>
       </c>
-      <c r="O33" s="11">
+      <c r="O33" s="7">
         <v>49.241889191908299</v>
       </c>
-      <c r="P33" s="11">
+      <c r="P33" s="7">
         <v>24.953444671294999</v>
       </c>
-      <c r="Q33" s="11">
+      <c r="Q33" s="7">
         <v>6.6690886128432698</v>
       </c>
-      <c r="R33" s="11">
+      <c r="R33" s="7">
         <v>15.539813991186801</v>
       </c>
-      <c r="S33" s="11">
+      <c r="S33" s="7">
         <v>14.056753311585</v>
       </c>
-      <c r="T33" s="11">
+      <c r="T33" s="7">
         <v>0.19714340456521301</v>
       </c>
-      <c r="U33" s="11">
+      <c r="U33" s="7">
         <v>3.8175935932482399</v>
       </c>
-      <c r="V33" s="11">
+      <c r="V33" s="7">
         <v>1.5954838091028101</v>
       </c>
-      <c r="W33" s="11">
+      <c r="W33" s="7">
         <v>0.42641098427198298</v>
       </c>
-      <c r="X33" s="11">
+      <c r="X33" s="7">
         <v>5.82932658730159E-2</v>
       </c>
-      <c r="Y33" s="11">
+      <c r="Y33" s="7">
         <v>1.74222012349202E-2</v>
       </c>
-      <c r="Z33" s="11">
+      <c r="Z33" s="7">
         <v>5.5093837756146199E-3</v>
       </c>
-      <c r="AA33" s="11">
+      <c r="AA33" s="7">
         <v>3.5696872236327101E-2</v>
       </c>
-      <c r="AB33" s="11">
+      <c r="AB33" s="7">
         <v>1.33505671771119E-2</v>
       </c>
-      <c r="AC33" s="11">
+      <c r="AC33" s="7">
         <v>6.5614458012357797E-4</v>
       </c>
-      <c r="AD33" s="11">
+      <c r="AD33" s="7">
         <v>2.4309077787601999E-2</v>
       </c>
-      <c r="AE33" s="11">
+      <c r="AE33" s="7">
         <v>7.8933077244328301E-3</v>
       </c>
-      <c r="AF33" s="11">
+      <c r="AF33" s="7">
         <v>2.4960830681808399E-3</v>
       </c>
-      <c r="AG33" s="11">
+      <c r="AG33" s="7">
         <v>52.232083127571997</v>
       </c>
-      <c r="AH33" s="11">
+      <c r="AH33" s="7">
         <v>1.7446750100736199</v>
       </c>
-      <c r="AI33" s="11">
+      <c r="AI33" s="7">
         <v>0.55171468086098596</v>
       </c>
-      <c r="AJ33" s="11">
+      <c r="AJ33" s="7">
         <v>42.636856768993901</v>
       </c>
-      <c r="AK33" s="11">
+      <c r="AK33" s="7">
         <v>7.13926972360116</v>
       </c>
-      <c r="AL33" s="11">
+      <c r="AL33" s="7">
         <v>0.35301416813005898</v>
       </c>
-      <c r="AM33" s="11">
+      <c r="AM33" s="7">
         <v>34.144550205761298</v>
       </c>
-      <c r="AN33" s="11">
+      <c r="AN33" s="7">
         <v>8.8583437966062402</v>
       </c>
-      <c r="AO33" s="11">
+      <c r="AO33" s="7">
         <v>2.8012542694098999</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
+    <row r="34" spans="1:41">
+      <c r="A34" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D34" s="6">
@@ -5094,123 +5107,123 @@
       <c r="E34" s="6">
         <v>-162.37922</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="7">
         <v>28.82</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="7">
         <v>0.78</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="7">
         <v>0.156</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="7">
         <v>27.9837615384616</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J34" s="7">
         <v>0.803172839281177</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K34" s="7">
         <v>2.22760065776022E-2</v>
       </c>
-      <c r="L34" s="11">
+      <c r="L34" s="7">
         <v>27.37</v>
       </c>
-      <c r="M34" s="11">
+      <c r="M34" s="7">
         <v>0.49</v>
       </c>
-      <c r="N34" s="11">
+      <c r="N34" s="7">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="O34" s="11">
+      <c r="O34" s="7">
         <v>101.89734162758</v>
       </c>
-      <c r="P34" s="11">
+      <c r="P34" s="7">
         <v>42.168698564868798</v>
       </c>
-      <c r="Q34" s="11">
+      <c r="Q34" s="7">
         <v>11.270058748277499</v>
       </c>
-      <c r="R34" s="11">
+      <c r="R34" s="7">
         <v>30.3206765501596</v>
       </c>
-      <c r="S34" s="11">
+      <c r="S34" s="7">
         <v>20.387583577330801</v>
       </c>
-      <c r="T34" s="11">
+      <c r="T34" s="7">
         <v>0.28593214579502502</v>
       </c>
-      <c r="U34" s="11">
+      <c r="U34" s="7">
         <v>9.6782504433843108</v>
       </c>
-      <c r="V34" s="11">
+      <c r="V34" s="7">
         <v>3.4183903561064199</v>
       </c>
-      <c r="W34" s="11">
+      <c r="W34" s="7">
         <v>0.91360325191445502</v>
       </c>
-      <c r="X34" s="11">
+      <c r="X34" s="7">
         <v>0.213290571428571</v>
       </c>
-      <c r="Y34" s="11">
+      <c r="Y34" s="7">
         <v>1.5935045025966901E-2</v>
       </c>
-      <c r="Z34" s="11">
+      <c r="Z34" s="7">
         <v>5.0391036899392304E-3</v>
       </c>
-      <c r="AA34" s="11">
+      <c r="AA34" s="7">
         <v>0.125122730806277</v>
       </c>
-      <c r="AB34" s="11">
+      <c r="AB34" s="7">
         <v>5.4402441697188601E-2</v>
       </c>
-      <c r="AC34" s="11">
+      <c r="AC34" s="7">
         <v>2.6737341411454101E-3</v>
       </c>
-      <c r="AD34" s="11">
+      <c r="AD34" s="7">
         <v>5.9327071428571403E-2</v>
       </c>
-      <c r="AE34" s="11">
+      <c r="AE34" s="7">
         <v>2.0033034760832999E-2</v>
       </c>
-      <c r="AF34" s="11">
+      <c r="AF34" s="7">
         <v>6.3350018289558699E-3</v>
       </c>
-      <c r="AG34" s="11">
+      <c r="AG34" s="7">
         <v>45.113569444444401</v>
       </c>
-      <c r="AH34" s="11">
+      <c r="AH34" s="7">
         <v>3.4266584178441901</v>
       </c>
-      <c r="AI34" s="11">
+      <c r="AI34" s="7">
         <v>1.0836045363776601</v>
       </c>
-      <c r="AJ34" s="11">
+      <c r="AJ34" s="7">
         <v>39.053144682151597</v>
       </c>
-      <c r="AK34" s="11">
+      <c r="AK34" s="7">
         <v>6.9876118981962598</v>
       </c>
-      <c r="AL34" s="11">
+      <c r="AL34" s="7">
         <v>0.34551517129306603</v>
       </c>
-      <c r="AM34" s="11">
+      <c r="AM34" s="7">
         <v>32.314179166666698</v>
       </c>
-      <c r="AN34" s="11">
+      <c r="AN34" s="7">
         <v>6.4590706137854896</v>
       </c>
-      <c r="AO34" s="11">
+      <c r="AO34" s="7">
         <v>2.0425374707423898</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
+    <row r="35" spans="1:41">
+      <c r="A35" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D35" s="6">
@@ -5219,123 +5232,123 @@
       <c r="E35" s="6">
         <v>-162.086037</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="7">
         <v>28.76</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="7">
         <v>0.72</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="7">
         <v>0.14399999999999999</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35" s="7">
         <v>27.972484615384701</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J35" s="7">
         <v>0.83657825873076097</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K35" s="7">
         <v>2.3202506213785699E-2</v>
       </c>
-      <c r="L35" s="11">
+      <c r="L35" s="7">
         <v>27.3</v>
       </c>
-      <c r="M35" s="11">
+      <c r="M35" s="7">
         <v>0.62</v>
       </c>
-      <c r="N35" s="11">
+      <c r="N35" s="7">
         <v>0.124</v>
       </c>
-      <c r="O35" s="11">
+      <c r="O35" s="7">
         <v>101.89734162758</v>
       </c>
-      <c r="P35" s="11">
+      <c r="P35" s="7">
         <v>42.168698564868798</v>
       </c>
-      <c r="Q35" s="11">
+      <c r="Q35" s="7">
         <v>11.270058748277499</v>
       </c>
-      <c r="R35" s="11">
+      <c r="R35" s="7">
         <v>30.3206765501596</v>
       </c>
-      <c r="S35" s="11">
+      <c r="S35" s="7">
         <v>20.387583577330801</v>
       </c>
-      <c r="T35" s="11">
+      <c r="T35" s="7">
         <v>0.28593214579502502</v>
       </c>
-      <c r="U35" s="11">
+      <c r="U35" s="7">
         <v>9.6782504433843108</v>
       </c>
-      <c r="V35" s="11">
+      <c r="V35" s="7">
         <v>3.4183903561064199</v>
       </c>
-      <c r="W35" s="11">
+      <c r="W35" s="7">
         <v>0.91360325191445502</v>
       </c>
-      <c r="X35" s="11">
+      <c r="X35" s="7">
         <v>0.18618702380952401</v>
       </c>
-      <c r="Y35" s="11">
+      <c r="Y35" s="7">
         <v>2.62794779593261E-2</v>
       </c>
-      <c r="Z35" s="11">
+      <c r="Z35" s="7">
         <v>8.31030060716644E-3</v>
       </c>
-      <c r="AA35" s="11">
+      <c r="AA35" s="7">
         <v>0.124903998157411</v>
       </c>
-      <c r="AB35" s="11">
+      <c r="AB35" s="7">
         <v>4.9083191159572402E-2</v>
       </c>
-      <c r="AC35" s="11">
+      <c r="AC35" s="7">
         <v>2.4123072396307001E-3</v>
       </c>
-      <c r="AD35" s="11">
+      <c r="AD35" s="7">
         <v>5.2089095238095198E-2</v>
       </c>
-      <c r="AE35" s="11">
+      <c r="AE35" s="7">
         <v>1.3471820477896201E-2</v>
       </c>
-      <c r="AF35" s="11">
+      <c r="AF35" s="7">
         <v>4.2601636939049899E-3</v>
       </c>
-      <c r="AG35" s="11">
+      <c r="AG35" s="7">
         <v>46.724598989899</v>
       </c>
-      <c r="AH35" s="11">
+      <c r="AH35" s="7">
         <v>3.27916883224714</v>
       </c>
-      <c r="AI35" s="11">
+      <c r="AI35" s="7">
         <v>1.0369642342135601</v>
       </c>
-      <c r="AJ35" s="11">
+      <c r="AJ35" s="7">
         <v>39.209256130251198</v>
       </c>
-      <c r="AK35" s="11">
+      <c r="AK35" s="7">
         <v>7.0962782917492904</v>
       </c>
-      <c r="AL35" s="11">
+      <c r="AL35" s="7">
         <v>0.35088837863905098</v>
       </c>
-      <c r="AM35" s="11">
+      <c r="AM35" s="7">
         <v>32.021072727272703</v>
       </c>
-      <c r="AN35" s="11">
+      <c r="AN35" s="7">
         <v>9.1297774666481608</v>
       </c>
-      <c r="AO35" s="11">
+      <c r="AO35" s="7">
         <v>2.8870891325090202</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:41">
+      <c r="A36" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D36" s="6">
@@ -5344,123 +5357,123 @@
       <c r="E36" s="6">
         <v>-176.6207</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="7">
         <v>28.6</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="7">
         <v>1.01</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="7">
         <v>0.20200000000000001</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="7">
         <v>28.160569230769301</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J36" s="7">
         <v>1.1746418643336101</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K36" s="7">
         <v>3.2578703632011097E-2</v>
       </c>
-      <c r="L36" s="11">
+      <c r="L36" s="7">
         <v>27.34</v>
       </c>
-      <c r="M36" s="11">
+      <c r="M36" s="7">
         <v>1.05</v>
       </c>
-      <c r="N36" s="11">
+      <c r="N36" s="7">
         <v>0.21</v>
       </c>
-      <c r="O36" s="11">
+      <c r="O36" s="7">
         <v>67.106092773836195</v>
       </c>
-      <c r="P36" s="11">
+      <c r="P36" s="7">
         <v>22.109786196138401</v>
       </c>
-      <c r="Q36" s="11">
+      <c r="Q36" s="7">
         <v>5.9090889171981296</v>
       </c>
-      <c r="R36" s="11">
+      <c r="R36" s="7">
         <v>21.490693108220398</v>
       </c>
-      <c r="S36" s="11">
+      <c r="S36" s="7">
         <v>13.041359117328399</v>
       </c>
-      <c r="T36" s="11">
+      <c r="T36" s="7">
         <v>0.18290268595869599</v>
       </c>
-      <c r="U36" s="11">
+      <c r="U36" s="7">
         <v>8.0753621036497005</v>
       </c>
-      <c r="V36" s="11">
+      <c r="V36" s="7">
         <v>3.2982017060973998</v>
       </c>
-      <c r="W36" s="11">
+      <c r="W36" s="7">
         <v>0.88148148404926896</v>
       </c>
-      <c r="X36" s="11">
+      <c r="X36" s="7">
         <v>0.24318313888888901</v>
       </c>
-      <c r="Y36" s="11">
+      <c r="Y36" s="7">
         <v>6.7411806141108602E-2</v>
       </c>
-      <c r="Z36" s="11">
+      <c r="Z36" s="7">
         <v>2.1317484859162902E-2</v>
       </c>
-      <c r="AA36" s="11">
+      <c r="AA36" s="7">
         <v>0.18417817574358999</v>
       </c>
-      <c r="AB36" s="11">
+      <c r="AB36" s="7">
         <v>5.7725050157456798E-2</v>
       </c>
-      <c r="AC36" s="11">
+      <c r="AC36" s="7">
         <v>2.8370314381183301E-3</v>
       </c>
-      <c r="AD36" s="11">
+      <c r="AD36" s="7">
         <v>0.13334004285714299</v>
       </c>
-      <c r="AE36" s="11">
+      <c r="AE36" s="7">
         <v>5.2976563151323701E-2</v>
       </c>
-      <c r="AF36" s="11">
+      <c r="AF36" s="7">
         <v>1.6752660216593E-2</v>
       </c>
-      <c r="AG36" s="11">
+      <c r="AG36" s="7">
         <v>52.808242222222198</v>
       </c>
-      <c r="AH36" s="11">
+      <c r="AH36" s="7">
         <v>1.6124331452635301</v>
       </c>
-      <c r="AI36" s="11">
+      <c r="AI36" s="7">
         <v>0.50989613137819001</v>
       </c>
-      <c r="AJ36" s="11">
+      <c r="AJ36" s="7">
         <v>47.822408410758001</v>
       </c>
-      <c r="AK36" s="11">
+      <c r="AK36" s="7">
         <v>5.5756150731845899</v>
       </c>
-      <c r="AL36" s="11">
+      <c r="AL36" s="7">
         <v>0.27569642177363402</v>
       </c>
-      <c r="AM36" s="11">
+      <c r="AM36" s="7">
         <v>43.124308888888898</v>
       </c>
-      <c r="AN36" s="11">
+      <c r="AN36" s="7">
         <v>6.4696162875097301</v>
       </c>
-      <c r="AO36" s="11">
+      <c r="AO36" s="7">
         <v>2.04587230558535</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+    <row r="37" spans="1:41">
+      <c r="A37" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="6">
@@ -5469,123 +5482,123 @@
       <c r="E37" s="6">
         <v>-176.47863999999998</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="7">
         <v>28.57</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="7">
         <v>0.9</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H37" s="7">
         <v>0.18</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I37" s="7">
         <v>28.155584615384601</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J37" s="7">
         <v>1.2143898114204701</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K37" s="7">
         <v>3.3681113334442597E-2</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L37" s="7">
         <v>27.46</v>
       </c>
-      <c r="M37" s="11">
+      <c r="M37" s="7">
         <v>1.05</v>
       </c>
-      <c r="N37" s="11">
+      <c r="N37" s="7">
         <v>0.21</v>
       </c>
-      <c r="O37" s="11">
+      <c r="O37" s="7">
         <v>62.862543622987197</v>
       </c>
-      <c r="P37" s="11">
+      <c r="P37" s="7">
         <v>20.071391587208399</v>
       </c>
-      <c r="Q37" s="11">
+      <c r="Q37" s="7">
         <v>5.3643050425079002</v>
       </c>
-      <c r="R37" s="11">
+      <c r="R37" s="7">
         <v>20.852570562469001</v>
       </c>
-      <c r="S37" s="11">
+      <c r="S37" s="7">
         <v>12.2663341969036</v>
       </c>
-      <c r="T37" s="11">
+      <c r="T37" s="7">
         <v>0.17203310263112201</v>
       </c>
-      <c r="U37" s="11">
+      <c r="U37" s="7">
         <v>8.0081368522801206</v>
       </c>
-      <c r="V37" s="11">
+      <c r="V37" s="7">
         <v>3.1658217820917698</v>
       </c>
-      <c r="W37" s="11">
+      <c r="W37" s="7">
         <v>0.84610146115524998</v>
       </c>
-      <c r="X37" s="11">
+      <c r="X37" s="7">
         <v>0.240957016666667</v>
       </c>
-      <c r="Y37" s="11">
+      <c r="Y37" s="7">
         <v>0.155975524279056</v>
       </c>
-      <c r="Z37" s="11">
+      <c r="Z37" s="7">
         <v>4.93237915960709E-2</v>
       </c>
-      <c r="AA37" s="11">
+      <c r="AA37" s="7">
         <v>0.190037661077543</v>
       </c>
-      <c r="AB37" s="11">
+      <c r="AB37" s="7">
         <v>6.1750752484256197E-2</v>
       </c>
-      <c r="AC37" s="11">
+      <c r="AC37" s="7">
         <v>3.03488391343854E-3</v>
       </c>
-      <c r="AD37" s="11">
+      <c r="AD37" s="7">
         <v>0.14585778888888901</v>
       </c>
-      <c r="AE37" s="11">
+      <c r="AE37" s="7">
         <v>6.34171499872241E-2</v>
       </c>
-      <c r="AF37" s="11">
+      <c r="AF37" s="7">
         <v>2.0054263667614598E-2</v>
       </c>
-      <c r="AG37" s="11">
+      <c r="AG37" s="7">
         <v>53.571672222222197</v>
       </c>
-      <c r="AH37" s="11">
+      <c r="AH37" s="7">
         <v>1.6153335520274299</v>
       </c>
-      <c r="AI37" s="11">
+      <c r="AI37" s="7">
         <v>0.51081332052967798</v>
       </c>
-      <c r="AJ37" s="11">
+      <c r="AJ37" s="7">
         <v>48.404574938875299</v>
       </c>
-      <c r="AK37" s="11">
+      <c r="AK37" s="7">
         <v>5.1358559791507599</v>
       </c>
-      <c r="AL37" s="11">
+      <c r="AL37" s="7">
         <v>0.25395173404391003</v>
       </c>
-      <c r="AM37" s="11">
+      <c r="AM37" s="7">
         <v>44.203464814814801</v>
       </c>
-      <c r="AN37" s="11">
+      <c r="AN37" s="7">
         <v>8.2849063459822805</v>
       </c>
-      <c r="AO37" s="11">
+      <c r="AO37" s="7">
         <v>2.6199174254486999</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+    <row r="38" spans="1:41">
+      <c r="A38" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D38" s="6">
@@ -5594,123 +5607,123 @@
       <c r="E38" s="6">
         <v>-159.99718000000001</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="7">
         <v>27.66</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="7">
         <v>0.86</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="7">
         <v>0.17199999999999999</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I38" s="7">
         <v>27.016761538461498</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J38" s="7">
         <v>1.31200886293129</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K38" s="7">
         <v>3.6388578685861303E-2</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L38" s="7">
         <v>26.52</v>
       </c>
-      <c r="M38" s="11">
+      <c r="M38" s="7">
         <v>1.37</v>
       </c>
-      <c r="N38" s="11">
+      <c r="N38" s="7">
         <v>0.27400000000000002</v>
       </c>
-      <c r="O38" s="11">
+      <c r="O38" s="7">
         <v>71.946012046130207</v>
       </c>
-      <c r="P38" s="11">
+      <c r="P38" s="7">
         <v>29.359793908074899</v>
       </c>
-      <c r="Q38" s="11">
+      <c r="Q38" s="7">
         <v>7.8467349821649197</v>
       </c>
-      <c r="R38" s="11">
+      <c r="R38" s="7">
         <v>24.899309965311598</v>
       </c>
-      <c r="S38" s="11">
+      <c r="S38" s="7">
         <v>14.1902663953214</v>
       </c>
-      <c r="T38" s="11">
+      <c r="T38" s="7">
         <v>0.199015901243383</v>
       </c>
-      <c r="U38" s="11">
+      <c r="U38" s="7">
         <v>9.5963885813668899</v>
       </c>
-      <c r="V38" s="11">
+      <c r="V38" s="7">
         <v>3.5351715586113701</v>
       </c>
-      <c r="W38" s="11">
+      <c r="W38" s="7">
         <v>0.94481434112795504</v>
       </c>
-      <c r="X38" s="11">
+      <c r="X38" s="7">
         <v>0.29125385267857101</v>
       </c>
-      <c r="Y38" s="11">
+      <c r="Y38" s="7">
         <v>0.23925384264545599</v>
       </c>
-      <c r="Z38" s="11">
+      <c r="Z38" s="7">
         <v>7.5658708170716696E-2</v>
       </c>
-      <c r="AA38" s="11">
+      <c r="AA38" s="7">
         <v>0.21188724040404</v>
       </c>
-      <c r="AB38" s="11">
+      <c r="AB38" s="7">
         <v>6.7139249595572395E-2</v>
       </c>
-      <c r="AC38" s="11">
+      <c r="AC38" s="7">
         <v>3.2997140983810299E-3</v>
       </c>
-      <c r="AD38" s="11">
+      <c r="AD38" s="7">
         <v>0.16924560669642899</v>
       </c>
-      <c r="AE38" s="11">
+      <c r="AE38" s="7">
         <v>4.0922398233094702E-2</v>
       </c>
-      <c r="AF38" s="11">
+      <c r="AF38" s="7">
         <v>1.29407985733029E-2</v>
       </c>
-      <c r="AG38" s="11">
+      <c r="AG38" s="7">
         <v>53.486793055555502</v>
       </c>
-      <c r="AH38" s="11">
+      <c r="AH38" s="7">
         <v>2.3710340857494199</v>
       </c>
-      <c r="AI38" s="11">
+      <c r="AI38" s="7">
         <v>0.74978681208631504</v>
       </c>
-      <c r="AJ38" s="11">
+      <c r="AJ38" s="7">
         <v>50.188835268948601</v>
       </c>
-      <c r="AK38" s="11">
+      <c r="AK38" s="7">
         <v>3.7513658831601902</v>
       </c>
-      <c r="AL38" s="11">
+      <c r="AL38" s="7">
         <v>0.18549310473835001</v>
       </c>
-      <c r="AM38" s="11">
+      <c r="AM38" s="7">
         <v>43.365195312499999</v>
       </c>
-      <c r="AN38" s="11">
+      <c r="AN38" s="7">
         <v>2.9812091368189102</v>
       </c>
-      <c r="AO38" s="11">
+      <c r="AO38" s="7">
         <v>0.94274110536523004</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
+    <row r="39" spans="1:41">
+      <c r="A39" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D39" s="6">
@@ -5719,123 +5732,123 @@
       <c r="E39" s="6">
         <v>-171.08171999999999</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="7">
         <v>29.19</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="7">
         <v>0.46</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="7">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I39" s="7">
         <v>28.860346153846201</v>
       </c>
-      <c r="J39" s="11">
+      <c r="J39" s="7">
         <v>0.69780506211950499</v>
       </c>
-      <c r="K39" s="11">
+      <c r="K39" s="7">
         <v>1.9353630244232398E-2</v>
       </c>
-      <c r="L39" s="11">
+      <c r="L39" s="7">
         <v>27.91</v>
       </c>
-      <c r="M39" s="11">
+      <c r="M39" s="7">
         <v>0.45</v>
       </c>
-      <c r="N39" s="11">
+      <c r="N39" s="7">
         <v>0.09</v>
       </c>
-      <c r="O39" s="11">
+      <c r="O39" s="7">
         <v>55.0687551099792</v>
       </c>
-      <c r="P39" s="11">
+      <c r="P39" s="7">
         <v>35.469651651329897</v>
       </c>
-      <c r="Q39" s="11">
+      <c r="Q39" s="7">
         <v>9.4796631505354991</v>
       </c>
-      <c r="R39" s="11">
+      <c r="R39" s="7">
         <v>21.153814289511399</v>
       </c>
-      <c r="S39" s="11">
+      <c r="S39" s="7">
         <v>12.0683513679926</v>
       </c>
-      <c r="T39" s="11">
+      <c r="T39" s="7">
         <v>0.16925642952092501</v>
       </c>
-      <c r="U39" s="11">
+      <c r="U39" s="7">
         <v>8.8198544572741504</v>
       </c>
-      <c r="V39" s="11">
+      <c r="V39" s="7">
         <v>2.6245452429539</v>
       </c>
-      <c r="W39" s="11">
+      <c r="W39" s="7">
         <v>0.70143922108720402</v>
       </c>
-      <c r="X39" s="11">
+      <c r="X39" s="7">
         <v>0.1072845</v>
       </c>
-      <c r="Y39" s="11">
+      <c r="Y39" s="7">
         <v>1.2650140315427301E-3</v>
       </c>
-      <c r="Z39" s="11">
+      <c r="Z39" s="7">
         <v>4.0003256117471199E-4</v>
       </c>
-      <c r="AA39" s="11">
+      <c r="AA39" s="7">
         <v>5.1864663103864797E-2</v>
       </c>
-      <c r="AB39" s="11">
+      <c r="AB39" s="7">
         <v>1.9324147999686798E-2</v>
       </c>
-      <c r="AC39" s="11">
+      <c r="AC39" s="7">
         <v>9.4973006070018704E-4</v>
       </c>
-      <c r="AD39" s="11">
+      <c r="AD39" s="7">
         <v>2.1908166666666701E-2</v>
       </c>
-      <c r="AE39" s="11">
+      <c r="AE39" s="7">
         <v>9.6338584891459203E-3</v>
       </c>
-      <c r="AF39" s="11">
+      <c r="AF39" s="7">
         <v>3.0464935481449599E-3</v>
       </c>
-      <c r="AG39" s="11">
+      <c r="AG39" s="7">
         <v>51.316553703703697</v>
       </c>
-      <c r="AH39" s="11">
+      <c r="AH39" s="7">
         <v>6.5141613640536304</v>
       </c>
-      <c r="AI39" s="11">
+      <c r="AI39" s="7">
         <v>2.0599586956278801</v>
       </c>
-      <c r="AJ39" s="11">
+      <c r="AJ39" s="7">
         <v>42.364848125509397</v>
       </c>
-      <c r="AK39" s="11">
+      <c r="AK39" s="7">
         <v>7.7215185404633697</v>
       </c>
-      <c r="AL39" s="11">
+      <c r="AL39" s="7">
         <v>0.38180451920053898</v>
       </c>
-      <c r="AM39" s="11">
+      <c r="AM39" s="7">
         <v>32.091539583333301</v>
       </c>
-      <c r="AN39" s="11">
+      <c r="AN39" s="7">
         <v>7.12572138325244</v>
       </c>
-      <c r="AO39" s="11">
+      <c r="AO39" s="7">
         <v>2.25335095428433</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
+    <row r="40" spans="1:41">
+      <c r="A40" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D40" s="6">
@@ -5844,123 +5857,123 @@
       <c r="E40" s="6">
         <v>-169.64860000000002</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="7">
         <v>28.93</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="7">
         <v>0.48</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="7">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I40" s="7">
         <v>28.355646153846099</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J40" s="7">
         <v>0.83054067424240696</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K40" s="7">
         <v>2.3035053748764901E-2</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L40" s="7">
         <v>27.11</v>
       </c>
-      <c r="M40" s="11">
+      <c r="M40" s="7">
         <v>0.6</v>
       </c>
-      <c r="N40" s="11">
+      <c r="N40" s="7">
         <v>0.12</v>
       </c>
-      <c r="O40" s="11">
+      <c r="O40" s="7">
         <v>54.600630978069901</v>
       </c>
-      <c r="P40" s="11">
+      <c r="P40" s="7">
         <v>25.6369223308917</v>
       </c>
-      <c r="Q40" s="11">
+      <c r="Q40" s="7">
         <v>6.85175570096649</v>
       </c>
-      <c r="R40" s="11">
+      <c r="R40" s="7">
         <v>23.4031538363169</v>
       </c>
-      <c r="S40" s="11">
+      <c r="S40" s="7">
         <v>13.8962045223976</v>
       </c>
-      <c r="T40" s="11">
+      <c r="T40" s="7">
         <v>0.19489173704301599</v>
       </c>
-      <c r="U40" s="11">
+      <c r="U40" s="7">
         <v>10.319165183214199</v>
       </c>
-      <c r="V40" s="11">
+      <c r="V40" s="7">
         <v>2.7116592448505901</v>
       </c>
-      <c r="W40" s="11">
+      <c r="W40" s="7">
         <v>0.72472141742207596</v>
       </c>
-      <c r="X40" s="11">
+      <c r="X40" s="7">
         <v>5.9004166666666698E-2</v>
       </c>
-      <c r="Y40" s="11">
+      <c r="Y40" s="7">
         <v>1.6423657761268001E-2</v>
       </c>
-      <c r="Z40" s="11">
+      <c r="Z40" s="7">
         <v>5.19361660367089E-3</v>
       </c>
-      <c r="AA40" s="11">
+      <c r="AA40" s="7">
         <v>4.48130104637261E-2</v>
       </c>
-      <c r="AB40" s="11">
+      <c r="AB40" s="7">
         <v>1.4672234147067101E-2</v>
       </c>
-      <c r="AC40" s="11">
+      <c r="AC40" s="7">
         <v>7.2110096793541803E-4</v>
       </c>
-      <c r="AD40" s="11">
+      <c r="AD40" s="7">
         <v>2.84784875E-2</v>
       </c>
-      <c r="AE40" s="11">
+      <c r="AE40" s="7">
         <v>1.35943893017444E-2</v>
       </c>
-      <c r="AF40" s="11">
+      <c r="AF40" s="7">
         <v>4.2989233592538303E-3</v>
       </c>
-      <c r="AG40" s="11">
+      <c r="AG40" s="7">
         <v>49.532395959596002</v>
       </c>
-      <c r="AH40" s="11">
+      <c r="AH40" s="7">
         <v>5.7196929242042698</v>
       </c>
-      <c r="AI40" s="11">
+      <c r="AI40" s="7">
         <v>1.80872571572343</v>
       </c>
-      <c r="AJ40" s="11">
+      <c r="AJ40" s="7">
         <v>41.763511624805503</v>
       </c>
-      <c r="AK40" s="11">
+      <c r="AK40" s="7">
         <v>7.7464503576282802</v>
       </c>
-      <c r="AL40" s="11">
+      <c r="AL40" s="7">
         <v>0.38303731821741099</v>
       </c>
-      <c r="AM40" s="11">
+      <c r="AM40" s="7">
         <v>32.084590909090899</v>
       </c>
-      <c r="AN40" s="11">
+      <c r="AN40" s="7">
         <v>5.8815592830934804</v>
       </c>
-      <c r="AO40" s="11">
+      <c r="AO40" s="7">
         <v>1.85991235278825</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
+    <row r="41" spans="1:41">
+      <c r="A41" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D41" s="6">
@@ -5969,123 +5982,123 @@
       <c r="E41" s="6">
         <v>-169.46906999999999</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="7">
         <v>28.91</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="7">
         <v>0.52</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="7">
         <v>0.104</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I41" s="7">
         <v>28.394384615384599</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J41" s="7">
         <v>0.82950712416904504</v>
       </c>
-      <c r="K41" s="11">
+      <c r="K41" s="7">
         <v>2.3006388227339698E-2</v>
       </c>
-      <c r="L41" s="11">
+      <c r="L41" s="7">
         <v>27.15</v>
       </c>
-      <c r="M41" s="11">
+      <c r="M41" s="7">
         <v>0.6</v>
       </c>
-      <c r="N41" s="11">
+      <c r="N41" s="7">
         <v>0.12</v>
       </c>
-      <c r="O41" s="11">
+      <c r="O41" s="7">
         <v>54.600630978069901</v>
       </c>
-      <c r="P41" s="11">
+      <c r="P41" s="7">
         <v>25.6369223308917</v>
       </c>
-      <c r="Q41" s="11">
+      <c r="Q41" s="7">
         <v>6.85175570096649</v>
       </c>
-      <c r="R41" s="11">
+      <c r="R41" s="7">
         <v>23.4031538363169</v>
       </c>
-      <c r="S41" s="11">
+      <c r="S41" s="7">
         <v>13.8962045223976</v>
       </c>
-      <c r="T41" s="11">
+      <c r="T41" s="7">
         <v>0.19489173704301599</v>
       </c>
-      <c r="U41" s="11">
+      <c r="U41" s="7">
         <v>10.319165183214199</v>
       </c>
-      <c r="V41" s="11">
+      <c r="V41" s="7">
         <v>2.7116592448505901</v>
       </c>
-      <c r="W41" s="11">
+      <c r="W41" s="7">
         <v>0.72472141742207596</v>
       </c>
-      <c r="X41" s="11">
+      <c r="X41" s="7">
         <v>5.4772874999999999E-2</v>
       </c>
-      <c r="Y41" s="11">
+      <c r="Y41" s="7">
         <v>1.48629664848296E-2</v>
       </c>
-      <c r="Z41" s="11">
+      <c r="Z41" s="7">
         <v>4.7000826878807796E-3</v>
       </c>
-      <c r="AA41" s="11">
+      <c r="AA41" s="7">
         <v>4.4694120202020203E-2</v>
       </c>
-      <c r="AB41" s="11">
+      <c r="AB41" s="7">
         <v>1.5729332020163599E-2</v>
       </c>
-      <c r="AC41" s="11">
+      <c r="AC41" s="7">
         <v>7.7305449402092802E-4</v>
       </c>
-      <c r="AD41" s="11">
+      <c r="AD41" s="7">
         <v>2.099784E-2</v>
       </c>
-      <c r="AE41" s="11">
+      <c r="AE41" s="7">
         <v>1.39791858607002E-2</v>
       </c>
-      <c r="AF41" s="11">
+      <c r="AF41" s="7">
         <v>4.4206067154633896E-3</v>
       </c>
-      <c r="AG41" s="11">
+      <c r="AG41" s="7">
         <v>47.843866666666699</v>
       </c>
-      <c r="AH41" s="11">
+      <c r="AH41" s="7">
         <v>4.4993916308902202</v>
       </c>
-      <c r="AI41" s="11">
+      <c r="AI41" s="7">
         <v>1.42283256387127</v>
       </c>
-      <c r="AJ41" s="11">
+      <c r="AJ41" s="7">
         <v>41.3452214853301</v>
       </c>
-      <c r="AK41" s="11">
+      <c r="AK41" s="7">
         <v>7.7698773558433398</v>
       </c>
-      <c r="AL41" s="11">
+      <c r="AL41" s="7">
         <v>0.384195708726084</v>
       </c>
-      <c r="AM41" s="11">
+      <c r="AM41" s="7">
         <v>31.341989062500001</v>
       </c>
-      <c r="AN41" s="11">
+      <c r="AN41" s="7">
         <v>6.1013121743123797</v>
       </c>
-      <c r="AO41" s="11">
+      <c r="AO41" s="7">
         <v>1.9294043186541401</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:41">
+      <c r="A42" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D42" s="6">
@@ -6094,123 +6107,123 @@
       <c r="E42" s="6">
         <v>-170.69513000000001</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="7">
         <v>28.8</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="7">
         <v>0.48</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="7">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="7">
         <v>28.3045923076923</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="7">
         <v>0.785711449483806</v>
       </c>
-      <c r="K42" s="9">
+      <c r="K42" s="7">
         <v>2.1791714760253801E-2</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L42" s="7">
         <v>27.12</v>
       </c>
-      <c r="M42" s="9">
+      <c r="M42" s="7">
         <v>0.51</v>
       </c>
-      <c r="N42" s="9">
+      <c r="N42" s="7">
         <v>0.10199999999999999</v>
       </c>
-      <c r="O42" s="9">
+      <c r="O42" s="7">
         <v>52.828372902860103</v>
       </c>
-      <c r="P42" s="9">
+      <c r="P42" s="7">
         <v>23.038260391919898</v>
       </c>
-      <c r="Q42" s="9">
+      <c r="Q42" s="7">
         <v>6.1572340838463298</v>
       </c>
-      <c r="R42" s="9">
+      <c r="R42" s="7">
         <v>22.3419829777812</v>
       </c>
-      <c r="S42" s="9">
+      <c r="S42" s="7">
         <v>13.3478323078657</v>
       </c>
-      <c r="T42" s="9">
+      <c r="T42" s="7">
         <v>0.187200916627702</v>
       </c>
-      <c r="U42" s="9">
+      <c r="U42" s="7">
         <v>9.9065477997792897</v>
       </c>
-      <c r="V42" s="9">
+      <c r="V42" s="7">
         <v>2.90653097234462</v>
       </c>
-      <c r="W42" s="9">
+      <c r="W42" s="7">
         <v>0.77680307732575005</v>
       </c>
-      <c r="X42" s="9">
+      <c r="X42" s="7">
         <v>7.9805934271284296E-2</v>
       </c>
-      <c r="Y42" s="9">
+      <c r="Y42" s="7">
         <v>3.5898612731726301E-2</v>
       </c>
-      <c r="Z42" s="9">
+      <c r="Z42" s="7">
         <v>1.13521381072574E-2</v>
       </c>
-      <c r="AA42" s="9">
+      <c r="AA42" s="7">
         <v>6.0910384413410401E-2</v>
       </c>
-      <c r="AB42" s="9">
+      <c r="AB42" s="7">
         <v>2.0456867849015001E-2</v>
       </c>
-      <c r="AC42" s="9">
+      <c r="AC42" s="7">
         <v>1.0054002041536599E-3</v>
       </c>
-      <c r="AD42" s="9">
+      <c r="AD42" s="7">
         <v>4.3979211904761902E-2</v>
       </c>
-      <c r="AE42" s="9">
+      <c r="AE42" s="7">
         <v>1.8855104726771099E-2</v>
       </c>
-      <c r="AF42" s="9">
+      <c r="AF42" s="7">
         <v>5.9625076457603399E-3</v>
       </c>
-      <c r="AG42" s="9">
+      <c r="AG42" s="7">
         <v>50.251970833333303</v>
       </c>
-      <c r="AH42" s="9">
+      <c r="AH42" s="7">
         <v>3.6036777680147298</v>
       </c>
-      <c r="AI42" s="9">
+      <c r="AI42" s="7">
         <v>1.13958297002384</v>
       </c>
-      <c r="AJ42" s="9">
+      <c r="AJ42" s="7">
         <v>41.588879874694399</v>
       </c>
-      <c r="AK42" s="9">
+      <c r="AK42" s="7">
         <v>7.7230096054535</v>
       </c>
-      <c r="AL42" s="9">
+      <c r="AL42" s="7">
         <v>0.38187824761920097</v>
       </c>
-      <c r="AM42" s="9">
+      <c r="AM42" s="7">
         <v>30.816510937499999</v>
       </c>
-      <c r="AN42" s="9">
+      <c r="AN42" s="7">
         <v>3.8776562400143999</v>
       </c>
-      <c r="AO42" s="9">
+      <c r="AO42" s="7">
         <v>1.2262225701610101</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:41">
+      <c r="A43" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D43" s="6">
@@ -6219,112 +6232,112 @@
       <c r="E43" s="6">
         <v>-168.15609000000001</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="7">
         <v>28.83</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="7">
         <v>0.44</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="7">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="7">
         <v>28.232176923076899</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J43" s="7">
         <v>0.85903607978946706</v>
       </c>
-      <c r="K43" s="9">
+      <c r="K43" s="7">
         <v>2.3825374101188498E-2</v>
       </c>
-      <c r="L43" s="9">
+      <c r="L43" s="7">
         <v>26.94</v>
       </c>
-      <c r="M43" s="9">
+      <c r="M43" s="7">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N43" s="9">
+      <c r="N43" s="7">
         <v>0.112</v>
       </c>
-      <c r="O43" s="9">
+      <c r="O43" s="7">
         <v>64.1214839343302</v>
       </c>
-      <c r="P43" s="9">
+      <c r="P43" s="7">
         <v>29.242791889050402</v>
       </c>
-      <c r="Q43" s="9">
+      <c r="Q43" s="7">
         <v>7.8154648772541799</v>
       </c>
-      <c r="R43" s="9">
+      <c r="R43" s="7">
         <v>27.124480896420099</v>
       </c>
-      <c r="S43" s="9">
+      <c r="S43" s="7">
         <v>15.9849456193873</v>
       </c>
-      <c r="T43" s="9">
+      <c r="T43" s="7">
         <v>0.224185950435554</v>
       </c>
-      <c r="U43" s="9">
+      <c r="U43" s="7">
         <v>11.142733380177001</v>
       </c>
-      <c r="V43" s="9">
+      <c r="V43" s="7">
         <v>3.6018325200450501</v>
       </c>
-      <c r="W43" s="9">
+      <c r="W43" s="7">
         <v>0.962630232467798</v>
       </c>
-      <c r="X43" s="9">
+      <c r="X43" s="7">
         <v>5.7400111111111103E-2</v>
       </c>
-      <c r="Y43" s="9">
+      <c r="Y43" s="7">
         <v>3.8611624034834501E-2</v>
       </c>
-      <c r="Z43" s="9">
+      <c r="Z43" s="7">
         <v>1.2210067610817801E-2</v>
       </c>
-      <c r="AA43" s="9">
+      <c r="AA43" s="7">
         <v>4.1295095385450599E-2</v>
       </c>
-      <c r="AB43" s="9">
+      <c r="AB43" s="7">
         <v>1.58385057526607E-2</v>
       </c>
-      <c r="AC43" s="9">
+      <c r="AC43" s="7">
         <v>7.7842009024763005E-4</v>
       </c>
-      <c r="AD43" s="9">
+      <c r="AD43" s="7">
         <v>2.9210666666666701E-2</v>
       </c>
-      <c r="AE43" s="9">
+      <c r="AE43" s="7">
         <v>2.0558173690773202E-2</v>
       </c>
-      <c r="AF43" s="9">
+      <c r="AF43" s="7">
         <v>6.5010653396193399E-3</v>
       </c>
-      <c r="AG43" s="9">
+      <c r="AG43" s="7">
         <v>51.1332037037037</v>
       </c>
-      <c r="AH43" s="9">
+      <c r="AH43" s="7">
         <v>7.7865821104533204</v>
       </c>
-      <c r="AI43" s="9">
+      <c r="AI43" s="7">
         <v>2.46233346569533</v>
       </c>
-      <c r="AJ43" s="9">
+      <c r="AJ43" s="7">
         <v>42.3856958435208</v>
       </c>
-      <c r="AK43" s="9">
+      <c r="AK43" s="7">
         <v>8.0377365920498498</v>
       </c>
-      <c r="AL43" s="9">
+      <c r="AL43" s="7">
         <v>0.39744049553289201</v>
       </c>
-      <c r="AM43" s="9">
+      <c r="AM43" s="7">
         <v>32.993220370370402</v>
       </c>
-      <c r="AN43" s="9">
+      <c r="AN43" s="7">
         <v>3.70230065181677</v>
       </c>
-      <c r="AO43" s="9">
+      <c r="AO43" s="7">
         <v>1.1707702642466999</v>
       </c>
     </row>
@@ -6341,24 +6354,1245 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="64">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="6">
+        <v>28.423400000000001</v>
+      </c>
+      <c r="E2" s="6">
+        <v>-178.33110000000002</v>
+      </c>
+      <c r="F2" s="7">
+        <v>23.133376923076899</v>
+      </c>
+      <c r="G2" s="7">
+        <v>45.507982028626003</v>
+      </c>
+      <c r="H2" s="7">
+        <v>9.4871123966942195E-2</v>
+      </c>
+      <c r="I2" s="7">
+        <v>39.265282173816402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="6">
+        <v>28.226900000000001</v>
+      </c>
+      <c r="E3" s="6">
+        <v>-177.38002999999998</v>
+      </c>
+      <c r="F3" s="7">
+        <v>23.185015384615401</v>
+      </c>
+      <c r="G3" s="7">
+        <v>45.801144491687502</v>
+      </c>
+      <c r="H3" s="7">
+        <v>9.10865893986888E-2</v>
+      </c>
+      <c r="I3" s="7">
+        <v>39.367662591687001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="6">
+        <v>27.856289999999998</v>
+      </c>
+      <c r="E4" s="6">
+        <v>-175.84730000000002</v>
+      </c>
+      <c r="F4" s="7">
+        <v>23.452330769230802</v>
+      </c>
+      <c r="G4" s="7">
+        <v>46.095115765200703</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.117243139754219</v>
+      </c>
+      <c r="I4" s="7">
+        <v>39.666391361043203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="6">
+        <v>26.009169999999997</v>
+      </c>
+      <c r="E5" s="6">
+        <v>-173.94968</v>
+      </c>
+      <c r="F5" s="7">
+        <v>24.4984538461539</v>
+      </c>
+      <c r="G5" s="7">
+        <v>42.012271211401298</v>
+      </c>
+      <c r="H5" s="7">
+        <v>9.5184262568671796E-2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>41.316668629743802</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="6">
+        <v>25.775849999999998</v>
+      </c>
+      <c r="E6" s="6">
+        <v>-171.73244</v>
+      </c>
+      <c r="F6" s="7">
+        <v>24.495846153846099</v>
+      </c>
+      <c r="G6" s="7">
+        <v>42.258834305182297</v>
+      </c>
+      <c r="H6" s="7">
+        <v>7.60651414662184E-2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>41.458515688671604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="6">
+        <v>25.414149999999999</v>
+      </c>
+      <c r="E7" s="6">
+        <v>-170.57877999999999</v>
+      </c>
+      <c r="F7" s="7">
+        <v>24.6105846153846</v>
+      </c>
+      <c r="G7" s="7">
+        <v>40.558492486654202</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.104731750499634</v>
+      </c>
+      <c r="I7" s="7">
+        <v>41.869655791977799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="6">
+        <v>23.790989999999997</v>
+      </c>
+      <c r="E8" s="6">
+        <v>-166.21302</v>
+      </c>
+      <c r="F8" s="7">
+        <v>24.956961538461599</v>
+      </c>
+      <c r="G8" s="7">
+        <v>39.167735003852002</v>
+      </c>
+      <c r="H8" s="7">
+        <v>8.8450752939204902E-2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>43.398087518337398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="6">
+        <v>23.57572</v>
+      </c>
+      <c r="E9" s="6">
+        <v>-164.70270000000002</v>
+      </c>
+      <c r="F9" s="7">
+        <v>24.9598923076923</v>
+      </c>
+      <c r="G9" s="7">
+        <v>39.203234964034898</v>
+      </c>
+      <c r="H9" s="7">
+        <v>8.5289776114494897E-2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>43.507914251705103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="6">
+        <v>23.055</v>
+      </c>
+      <c r="E10" s="6">
+        <v>-161.92995999999999</v>
+      </c>
+      <c r="F10" s="7">
+        <v>24.960569230769199</v>
+      </c>
+      <c r="G10" s="7">
+        <v>37.175377907047398</v>
+      </c>
+      <c r="H10" s="7">
+        <v>6.62715645263766E-2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>43.638761033007299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="6">
+        <v>22.091189999999997</v>
+      </c>
+      <c r="E11" s="6">
+        <v>-159.57042000000001</v>
+      </c>
+      <c r="F11" s="7">
+        <v>25.2211769230769</v>
+      </c>
+      <c r="G11" s="7">
+        <v>34.807964590852201</v>
+      </c>
+      <c r="H11" s="7">
+        <v>8.7545200415861807E-2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>43.007571252871003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="6">
+        <v>21.897921999999998</v>
+      </c>
+      <c r="E12" s="6">
+        <v>-160.15118899999999</v>
+      </c>
+      <c r="F12" s="7">
+        <v>25.386246153846201</v>
+      </c>
+      <c r="G12" s="7">
+        <v>34.807964590852201</v>
+      </c>
+      <c r="H12" s="7">
+        <v>6.7249427009906201E-2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>43.776517578175302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="6">
+        <v>21.48649</v>
+      </c>
+      <c r="E13" s="6">
+        <v>-158.00346999999999</v>
+      </c>
+      <c r="F13" s="7">
+        <v>25.2935923076923</v>
+      </c>
+      <c r="G13" s="7">
+        <v>28.556640916367201</v>
+      </c>
+      <c r="H13" s="7">
+        <v>7.8791402032938801E-2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>43.257167879286598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="6">
+        <v>21.140629999999998</v>
+      </c>
+      <c r="E14" s="6">
+        <v>-157.09115</v>
+      </c>
+      <c r="F14" s="7">
+        <v>25.242346153846199</v>
+      </c>
+      <c r="G14" s="7">
+        <v>28.556640916367201</v>
+      </c>
+      <c r="H14" s="7">
+        <v>8.9700239050223396E-2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>44.381059030154901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="6">
+        <v>20.821100000000001</v>
+      </c>
+      <c r="E15" s="6">
+        <v>-156.91766000000001</v>
+      </c>
+      <c r="F15" s="7">
+        <v>25.489238461538498</v>
+      </c>
+      <c r="G15" s="7">
+        <v>28.556640916367201</v>
+      </c>
+      <c r="H15" s="7">
+        <v>8.4018973050246998E-2</v>
+      </c>
+      <c r="I15" s="7">
+        <v>44.953106292626501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="6">
+        <v>20.815069999999999</v>
+      </c>
+      <c r="E16" s="6">
+        <v>-156.39988</v>
+      </c>
+      <c r="F16" s="7">
+        <v>25.187007692307699</v>
+      </c>
+      <c r="G16" s="7">
+        <v>29.725011016802199</v>
+      </c>
+      <c r="H16" s="7">
+        <v>7.6004744392924206E-2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>43.7165007579462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="6">
+        <v>19.526309999999999</v>
+      </c>
+      <c r="E17" s="6">
+        <v>-155.41561000000002</v>
+      </c>
+      <c r="F17" s="7">
+        <v>25.2987461538461</v>
+      </c>
+      <c r="G17" s="7">
+        <v>26.476330372376999</v>
+      </c>
+      <c r="H17" s="7">
+        <v>6.6264003733644203E-2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>41.461423233859399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="6">
+        <v>16.74147</v>
+      </c>
+      <c r="E18" s="6">
+        <v>-169.51560000000001</v>
+      </c>
+      <c r="F18" s="7">
+        <v>26.429207692307699</v>
+      </c>
+      <c r="G18" s="7">
+        <v>34.033758130067</v>
+      </c>
+      <c r="H18" s="7">
+        <v>5.3058060919152598E-2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>45.552707998602898</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="6">
+        <v>19.301130000000001</v>
+      </c>
+      <c r="E19" s="6">
+        <v>166.61556000000002</v>
+      </c>
+      <c r="F19" s="7">
+        <v>27.256830769230699</v>
+      </c>
+      <c r="G19" s="7">
+        <v>28.0327972896768</v>
+      </c>
+      <c r="H19" s="7">
+        <v>4.19111343001035E-2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>44.713863868513997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="6">
+        <v>20.546889999999998</v>
+      </c>
+      <c r="E20" s="6">
+        <v>144.89339000000001</v>
+      </c>
+      <c r="F20" s="7">
+        <v>27.617192307692299</v>
+      </c>
+      <c r="G20" s="7">
+        <v>20.9987203198896</v>
+      </c>
+      <c r="H20" s="7">
+        <v>4.31549747263682E-2</v>
+      </c>
+      <c r="I20" s="7">
+        <v>43.201211776691103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="6">
+        <v>20.022109999999998</v>
+      </c>
+      <c r="E21" s="6">
+        <v>145.22189</v>
+      </c>
+      <c r="F21" s="7">
+        <v>27.751769230769298</v>
+      </c>
+      <c r="G21" s="7">
+        <v>19.554809326167199</v>
+      </c>
+      <c r="H21" s="7">
+        <v>4.3782293125618203E-2</v>
+      </c>
+      <c r="I21" s="7">
+        <v>43.478261450692798</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="6">
+        <v>19.69406</v>
+      </c>
+      <c r="E22" s="6">
+        <v>145.40110000000001</v>
+      </c>
+      <c r="F22" s="7">
+        <v>27.7943769230769</v>
+      </c>
+      <c r="G22" s="7">
+        <v>19.554809326167199</v>
+      </c>
+      <c r="H22" s="7">
+        <v>4.1928097055888201E-2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>43.121240790545997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="6">
+        <v>18.760909999999999</v>
+      </c>
+      <c r="E23" s="6">
+        <v>145.65638000000001</v>
+      </c>
+      <c r="F23" s="7">
+        <v>28.000830769230799</v>
+      </c>
+      <c r="G23" s="7">
+        <v>21.821478996431701</v>
+      </c>
+      <c r="H23" s="7">
+        <v>4.1548097357016901E-2</v>
+      </c>
+      <c r="I23" s="7">
+        <v>42.805033604998698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="6">
+        <v>18.110340000000001</v>
+      </c>
+      <c r="E24" s="6">
+        <v>145.75653</v>
+      </c>
+      <c r="F24" s="7">
+        <v>28.001961538461501</v>
+      </c>
+      <c r="G24" s="7">
+        <v>20.329351785076899</v>
+      </c>
+      <c r="H24" s="7">
+        <v>4.5336177058999699E-2</v>
+      </c>
+      <c r="I24" s="7">
+        <v>43.1460346916598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="6">
+        <v>17.602909999999998</v>
+      </c>
+      <c r="E25" s="6">
+        <v>145.82533999999998</v>
+      </c>
+      <c r="F25" s="7">
+        <v>28.076592307692302</v>
+      </c>
+      <c r="G25" s="7">
+        <v>20.329351785076899</v>
+      </c>
+      <c r="H25" s="7">
+        <v>4.3068691197130998E-2</v>
+      </c>
+      <c r="I25" s="7">
+        <v>43.4626099633252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="6">
+        <v>17.308009999999999</v>
+      </c>
+      <c r="E26" s="6">
+        <v>145.83727999999999</v>
+      </c>
+      <c r="F26" s="7">
+        <v>28.110646153846101</v>
+      </c>
+      <c r="G26" s="7">
+        <v>20.165442507578099</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4.2267403968254E-2</v>
+      </c>
+      <c r="I26" s="7">
+        <v>43.663095668878803</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="6">
+        <v>16.706060000000001</v>
+      </c>
+      <c r="E27" s="6">
+        <v>145.77567999999999</v>
+      </c>
+      <c r="F27" s="7">
+        <v>28.143415384615398</v>
+      </c>
+      <c r="G27" s="7">
+        <v>20.165442507578099</v>
+      </c>
+      <c r="H27" s="7">
+        <v>4.15969490898749E-2</v>
+      </c>
+      <c r="I27" s="7">
+        <v>43.159807775061097</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="6">
+        <v>15.185379999999999</v>
+      </c>
+      <c r="E28" s="6">
+        <v>145.75326000000001</v>
+      </c>
+      <c r="F28" s="7">
+        <v>28.1390307692308</v>
+      </c>
+      <c r="G28" s="7">
+        <v>18.050378525804199</v>
+      </c>
+      <c r="H28" s="7">
+        <v>4.72265570726218E-2</v>
+      </c>
+      <c r="I28" s="7">
+        <v>43.310200750960497</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="6">
+        <v>14.991619999999999</v>
+      </c>
+      <c r="E29" s="6">
+        <v>145.63243</v>
+      </c>
+      <c r="F29" s="7">
+        <v>28.1547153846154</v>
+      </c>
+      <c r="G29" s="7">
+        <v>18.050378525804199</v>
+      </c>
+      <c r="H29" s="7">
+        <v>4.2263712737398998E-2</v>
+      </c>
+      <c r="I29" s="7">
+        <v>42.806615452322802</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="6">
+        <v>14.852279999999999</v>
+      </c>
+      <c r="E30" s="6">
+        <v>145.55479</v>
+      </c>
+      <c r="F30" s="7">
+        <v>28.2011769230769</v>
+      </c>
+      <c r="G30" s="7">
+        <v>18.355678882061301</v>
+      </c>
+      <c r="H30" s="7">
+        <v>3.8363302850978602E-2</v>
+      </c>
+      <c r="I30" s="7">
+        <v>43.5751960181627</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="6">
+        <v>14.16038</v>
+      </c>
+      <c r="E31" s="6">
+        <v>145.21026000000001</v>
+      </c>
+      <c r="F31" s="7">
+        <v>28.2989307692308</v>
+      </c>
+      <c r="G31" s="7">
+        <v>16.890647042167</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3.1237099836230801E-2</v>
+      </c>
+      <c r="I31" s="7">
+        <v>43.658483863080697</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="6">
+        <v>13.462809999999999</v>
+      </c>
+      <c r="E32" s="6">
+        <v>144.78749999999999</v>
+      </c>
+      <c r="F32" s="7">
+        <v>28.288715384615301</v>
+      </c>
+      <c r="G32" s="7">
+        <v>15.539813991186801</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3.5696872236327101E-2</v>
+      </c>
+      <c r="I32" s="7">
+        <v>42.636856768993901</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="6">
+        <v>6.3985199999999995</v>
+      </c>
+      <c r="E33" s="6">
+        <v>-162.37922</v>
+      </c>
+      <c r="F33" s="7">
+        <v>27.9837615384616</v>
+      </c>
+      <c r="G33" s="7">
+        <v>30.3206765501596</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0.125122730806277</v>
+      </c>
+      <c r="I33" s="7">
+        <v>39.053144682151597</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="6">
+        <v>5.8833779999999996</v>
+      </c>
+      <c r="E34" s="6">
+        <v>-162.086037</v>
+      </c>
+      <c r="F34" s="7">
+        <v>27.972484615384701</v>
+      </c>
+      <c r="G34" s="7">
+        <v>30.3206765501596</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0.124903998157411</v>
+      </c>
+      <c r="I34" s="7">
+        <v>39.209256130251198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0.80440999999999996</v>
+      </c>
+      <c r="E35" s="6">
+        <v>-176.6207</v>
+      </c>
+      <c r="F35" s="7">
+        <v>28.160569230769301</v>
+      </c>
+      <c r="G35" s="7">
+        <v>21.490693108220398</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0.18417817574358999</v>
+      </c>
+      <c r="I35" s="7">
+        <v>47.822408410758001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.19630999999999998</v>
+      </c>
+      <c r="E36" s="6">
+        <v>-176.47863999999998</v>
+      </c>
+      <c r="F36" s="7">
+        <v>28.155584615384601</v>
+      </c>
+      <c r="G36" s="7">
+        <v>20.852570562469001</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0.190037661077543</v>
+      </c>
+      <c r="I36" s="7">
+        <v>48.404574938875299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="6">
+        <v>-0.37373999999999996</v>
+      </c>
+      <c r="E37" s="6">
+        <v>-159.99718000000001</v>
+      </c>
+      <c r="F37" s="7">
+        <v>27.016761538461498</v>
+      </c>
+      <c r="G37" s="7">
+        <v>24.899309965311598</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0.21188724040404</v>
+      </c>
+      <c r="I37" s="7">
+        <v>50.188835268948601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="6">
+        <v>-11.05617</v>
+      </c>
+      <c r="E38" s="6">
+        <v>-171.08171999999999</v>
+      </c>
+      <c r="F38" s="7">
+        <v>28.860346153846201</v>
+      </c>
+      <c r="G38" s="7">
+        <v>21.153814289511399</v>
+      </c>
+      <c r="H38" s="7">
+        <v>5.1864663103864797E-2</v>
+      </c>
+      <c r="I38" s="7">
+        <v>42.364848125509397</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="6">
+        <v>-14.173639999999999</v>
+      </c>
+      <c r="E39" s="6">
+        <v>-169.64860000000002</v>
+      </c>
+      <c r="F39" s="7">
+        <v>28.355646153846099</v>
+      </c>
+      <c r="G39" s="7">
+        <v>23.4031538363169</v>
+      </c>
+      <c r="H39" s="7">
+        <v>4.48130104637261E-2</v>
+      </c>
+      <c r="I39" s="7">
+        <v>41.763511624805503</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="6">
+        <v>-14.23903</v>
+      </c>
+      <c r="E40" s="6">
+        <v>-169.46906999999999</v>
+      </c>
+      <c r="F40" s="7">
+        <v>28.394384615384599</v>
+      </c>
+      <c r="G40" s="7">
+        <v>23.4031538363169</v>
+      </c>
+      <c r="H40" s="7">
+        <v>4.4694120202020203E-2</v>
+      </c>
+      <c r="I40" s="7">
+        <v>41.3452214853301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="6">
+        <v>-14.29721</v>
+      </c>
+      <c r="E41" s="6">
+        <v>-170.69513000000001</v>
+      </c>
+      <c r="F41" s="7">
+        <v>28.3045923076923</v>
+      </c>
+      <c r="G41" s="7">
+        <v>22.3419829777812</v>
+      </c>
+      <c r="H41" s="7">
+        <v>6.0910384413410401E-2</v>
+      </c>
+      <c r="I41" s="7">
+        <v>41.588879874694399</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="6">
+        <v>-14.546000000000001</v>
+      </c>
+      <c r="E42" s="6">
+        <v>-168.15609000000001</v>
+      </c>
+      <c r="F42" s="7">
+        <v>28.232176923076899</v>
+      </c>
+      <c r="G42" s="7">
+        <v>27.124480896420099</v>
+      </c>
+      <c r="H42" s="7">
+        <v>4.1295095385450599E-2</v>
+      </c>
+      <c r="I42" s="7">
+        <v>42.3856958435208</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/crep_oceanographic/Gove2013_pone.0061974.s005.xlsx
+++ b/data/crep_oceanographic/Gove2013_pone.0061974.s005.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robins64/Documents/git_repos/PelagicReefs/data/crep_oceanographic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesrobinson/Documents/git-repos/PelagicReefs/data/crep_oceanographic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B02835A-FDE2-CA4B-9D1C-5F6734C491DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD2EC05-53A4-CE4E-A016-CBB29D255E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="43200" windowHeight="24560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Gove2014_SuppTable2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="195">
   <si>
     <t>Sea Surface Temperature (°C)</t>
   </si>
@@ -425,16 +425,950 @@
   <si>
     <t>irradiance_einsteins_m2_d1_mean</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Location Name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Location Code</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Region</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Geomorphic Type</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lat</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Reef Area</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bathymetric Slope</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Population Status</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Pearl &amp; Hermes Reef</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PHR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NWHI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Atoll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>U</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Maro Reef</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MAR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>French Frigate Shoals</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FFS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lisianski</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LIS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Kauai</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>KAU</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MHI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Island</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>P</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Necker</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NEC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Kure</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>KUR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Oahu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>OAH</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Maui, Lanai, Molokai, Lanai, Kahoolawe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">MAUI
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NUI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Midway</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Johnston</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>JOH</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PRIA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tutuila</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TUT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>AMSAM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Laysan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LAY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rose</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ROS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Hawaii</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HAW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Kingman</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>KIN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Saipan, Tinian, Aguijan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SAI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MARIANA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Niihau</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NII</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Wake</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>WAK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Guam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GUA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Palmyra</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PAL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Baker</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BAK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Farallon de Pajaros</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FDP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Pagan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PAG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Maug</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MAU</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ofu, Olosega, Tau</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MANUA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Jarvis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>JAR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Swains</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SWA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Howland</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HOW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Guguan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GUG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sarigan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SAR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Asuncion</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ASC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Alamagan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ALA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rota</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ROT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Agrihan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>AGR</t>
+    </r>
+  </si>
+  <si>
+    <t>reef_area_km2</t>
+  </si>
+  <si>
+    <t>atoll_island</t>
+  </si>
+  <si>
+    <t>Atoll</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,6 +1459,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -559,7 +1510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -632,6 +1583,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -645,7 +1636,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyAlignment="1">
@@ -699,6 +1690,81 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -6355,15 +7421,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="64">
+    <row r="1" spans="1:23" ht="64">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -6391,8 +7457,14 @@
       <c r="I1" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -6420,8 +7492,23 @@
       <c r="I2" s="7">
         <v>39.265282173816402</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="31">
+        <v>83.15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O2" s="20"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="23"/>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -6449,8 +7536,23 @@
       <c r="I3" s="7">
         <v>39.367662591687001</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="31">
+        <v>101.52</v>
+      </c>
+      <c r="K3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O3" s="24"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -6478,8 +7580,23 @@
       <c r="I4" s="7">
         <v>39.666391361043203</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="43">
+        <v>467.27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>194</v>
+      </c>
+      <c r="O4" s="28"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="30"/>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -6507,8 +7624,23 @@
       <c r="I5" s="7">
         <v>41.316668629743802</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="31">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="K5" t="s">
+        <v>194</v>
+      </c>
+      <c r="O5" s="28"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="30"/>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -6536,8 +7668,23 @@
       <c r="I6" s="7">
         <v>41.458515688671604</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="31">
+        <v>488.13</v>
+      </c>
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="28"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="30"/>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
@@ -6565,8 +7712,23 @@
       <c r="I7" s="7">
         <v>41.869655791977799</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="31">
+        <v>3.03</v>
+      </c>
+      <c r="K7" t="s">
+        <v>194</v>
+      </c>
+      <c r="O7" s="39"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="41"/>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -6594,8 +7756,23 @@
       <c r="I8" s="7">
         <v>43.398087518337398</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="31">
+        <v>677.96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>194</v>
+      </c>
+      <c r="O8" s="28"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="30"/>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -6623,8 +7800,23 @@
       <c r="I9" s="7">
         <v>43.507914251705103</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="31">
+        <v>1028.32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="28"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="30"/>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -6652,8 +7844,21 @@
       <c r="I10" s="7">
         <v>43.638761033007299</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="31"/>
+      <c r="K10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="28"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="30"/>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
@@ -6681,8 +7886,23 @@
       <c r="I11" s="7">
         <v>43.007571252871003</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="31">
+        <v>241.7</v>
+      </c>
+      <c r="K11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="28"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="30"/>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
@@ -6710,8 +7930,23 @@
       <c r="I12" s="7">
         <v>43.776517578175302</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="31">
+        <v>108.06</v>
+      </c>
+      <c r="K12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="28"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="30"/>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
@@ -6739,8 +7974,23 @@
       <c r="I13" s="7">
         <v>43.257167879286598</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="31">
+        <v>422.72</v>
+      </c>
+      <c r="K13" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="28"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="30"/>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="5" t="s">
         <v>32</v>
       </c>
@@ -6768,8 +8018,23 @@
       <c r="I14" s="7">
         <v>44.381059030154901</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="31">
+        <v>450.84</v>
+      </c>
+      <c r="K14" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="28"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="30"/>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
@@ -6797,8 +8062,23 @@
       <c r="I15" s="7">
         <v>44.953106292626501</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="31">
+        <v>450.84</v>
+      </c>
+      <c r="K15" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="28"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="30"/>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
@@ -6826,8 +8106,23 @@
       <c r="I16" s="7">
         <v>43.7165007579462</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="31">
+        <v>450.84</v>
+      </c>
+      <c r="K16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="28"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="30"/>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="5" t="s">
         <v>38</v>
       </c>
@@ -6855,8 +8150,23 @@
       <c r="I17" s="7">
         <v>41.461423233859399</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="31">
+        <v>201.67</v>
+      </c>
+      <c r="K17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="28"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="30"/>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="5" t="s">
         <v>39</v>
       </c>
@@ -6884,8 +8194,23 @@
       <c r="I18" s="7">
         <v>45.552707998602898</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="31">
+        <v>194.01</v>
+      </c>
+      <c r="K18" t="s">
+        <v>194</v>
+      </c>
+      <c r="O18" s="28"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="30"/>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="5" t="s">
         <v>41</v>
       </c>
@@ -6913,8 +8238,23 @@
       <c r="I19" s="7">
         <v>44.713863868513997</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="37">
+        <v>19.18</v>
+      </c>
+      <c r="K19" t="s">
+        <v>194</v>
+      </c>
+      <c r="O19" s="28"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="30"/>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="5" t="s">
         <v>44</v>
       </c>
@@ -6942,8 +8282,23 @@
       <c r="I20" s="7">
         <v>43.201211776691103</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="31">
+        <v>1.38</v>
+      </c>
+      <c r="K20" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="28"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="30"/>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="5" t="s">
         <v>46</v>
       </c>
@@ -6971,8 +8326,23 @@
       <c r="I21" s="7">
         <v>43.478261450692798</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="31">
+        <v>3.17</v>
+      </c>
+      <c r="K21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="28"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="30"/>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="5" t="s">
         <v>48</v>
       </c>
@@ -7000,8 +8370,23 @@
       <c r="I22" s="7">
         <v>43.121240790545997</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="31">
+        <v>2.54</v>
+      </c>
+      <c r="K22" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="28"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="30"/>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="5" t="s">
         <v>50</v>
       </c>
@@ -7029,8 +8414,23 @@
       <c r="I23" s="7">
         <v>42.805033604998698</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="43">
+        <v>9.5</v>
+      </c>
+      <c r="K23" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="28"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="30"/>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="5" t="s">
         <v>52</v>
       </c>
@@ -7058,8 +8458,23 @@
       <c r="I24" s="7">
         <v>43.1460346916598</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="31">
+        <v>16.29</v>
+      </c>
+      <c r="K24" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="28"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="30"/>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="5" t="s">
         <v>54</v>
       </c>
@@ -7087,8 +8502,23 @@
       <c r="I25" s="7">
         <v>43.4626099633252</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="31">
+        <v>4.28</v>
+      </c>
+      <c r="K25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25" s="28"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="30"/>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="5" t="s">
         <v>56</v>
       </c>
@@ -7116,8 +8546,23 @@
       <c r="I26" s="7">
         <v>43.663095668878803</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="31">
+        <v>2</v>
+      </c>
+      <c r="K26" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="28"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="30"/>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="5" t="s">
         <v>58</v>
       </c>
@@ -7145,8 +8590,23 @@
       <c r="I27" s="7">
         <v>43.159807775061097</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="31">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="28"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="30"/>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="5" t="s">
         <v>60</v>
       </c>
@@ -7174,8 +8634,23 @@
       <c r="I28" s="7">
         <v>43.310200750960497</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="31">
+        <v>95.15</v>
+      </c>
+      <c r="K28" t="s">
+        <v>3</v>
+      </c>
+      <c r="O28" s="28"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="30"/>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="5" t="s">
         <v>62</v>
       </c>
@@ -7203,8 +8678,23 @@
       <c r="I29" s="7">
         <v>42.806615452322802</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="31">
+        <v>95.15</v>
+      </c>
+      <c r="K29" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="28"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="30"/>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="5" t="s">
         <v>64</v>
       </c>
@@ -7232,8 +8722,23 @@
       <c r="I30" s="7">
         <v>43.5751960181627</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="31">
+        <v>95.15</v>
+      </c>
+      <c r="K30" t="s">
+        <v>3</v>
+      </c>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="41"/>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="5" t="s">
         <v>66</v>
       </c>
@@ -7261,8 +8766,23 @@
       <c r="I31" s="7">
         <v>43.658483863080697</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="31">
+        <v>16.03</v>
+      </c>
+      <c r="K31" t="s">
+        <v>3</v>
+      </c>
+      <c r="O31" s="28"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="30"/>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="5" t="s">
         <v>68</v>
       </c>
@@ -7290,8 +8810,23 @@
       <c r="I32" s="7">
         <v>42.636856768993901</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="31">
+        <v>94.85</v>
+      </c>
+      <c r="K32" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="28"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="30"/>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" s="5" t="s">
         <v>70</v>
       </c>
@@ -7319,8 +8854,23 @@
       <c r="I33" s="7">
         <v>39.053144682151597</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="31">
+        <v>47.63</v>
+      </c>
+      <c r="K33" t="s">
+        <v>194</v>
+      </c>
+      <c r="O33" s="28"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="30"/>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="5" t="s">
         <v>73</v>
       </c>
@@ -7348,8 +8898,23 @@
       <c r="I34" s="7">
         <v>39.209256130251198</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="31">
+        <v>52.5</v>
+      </c>
+      <c r="K34" t="s">
+        <v>194</v>
+      </c>
+      <c r="O34" s="28"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="30"/>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" s="5" t="s">
         <v>75</v>
       </c>
@@ -7377,8 +8942,23 @@
       <c r="I35" s="7">
         <v>47.822408410758001</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" s="31">
+        <v>2.57</v>
+      </c>
+      <c r="K35" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="28"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="30"/>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" s="5" t="s">
         <v>77</v>
       </c>
@@ -7406,8 +8986,23 @@
       <c r="I36" s="7">
         <v>48.404574938875299</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" s="31">
+        <v>4.43</v>
+      </c>
+      <c r="K36" t="s">
+        <v>194</v>
+      </c>
+      <c r="O36" s="28"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="30"/>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" s="5" t="s">
         <v>79</v>
       </c>
@@ -7435,8 +9030,23 @@
       <c r="I37" s="7">
         <v>50.188835268948601</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" s="31">
+        <v>4.32</v>
+      </c>
+      <c r="K37" t="s">
+        <v>194</v>
+      </c>
+      <c r="O37" s="35"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="44"/>
+      <c r="W37" s="36"/>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" s="5" t="s">
         <v>81</v>
       </c>
@@ -7464,8 +9074,14 @@
       <c r="I38" s="7">
         <v>42.364848125509397</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" s="31">
+        <v>2.82</v>
+      </c>
+      <c r="K38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" s="5" t="s">
         <v>84</v>
       </c>
@@ -7493,8 +9109,14 @@
       <c r="I39" s="7">
         <v>41.763511624805503</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" s="27">
+        <v>22.42</v>
+      </c>
+      <c r="K39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" s="5" t="s">
         <v>86</v>
       </c>
@@ -7522,8 +9144,14 @@
       <c r="I40" s="7">
         <v>41.3452214853301</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" s="27">
+        <v>22.42</v>
+      </c>
+      <c r="K40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" s="5" t="s">
         <v>88</v>
       </c>
@@ -7551,8 +9179,14 @@
       <c r="I41" s="7">
         <v>41.588879874694399</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" s="31">
+        <v>50.89</v>
+      </c>
+      <c r="K41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" s="5" t="s">
         <v>90</v>
       </c>
@@ -7580,20 +9214,1080 @@
       <c r="I42" s="7">
         <v>42.3856958435208</v>
       </c>
+      <c r="J42" s="31">
+        <v>7.8</v>
+      </c>
+      <c r="K42" t="s">
+        <v>194</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O3:W37">
+    <sortCondition ref="Q3:Q37"/>
+    <sortCondition ref="O3:O37"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="A1:I36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="26">
+      <c r="A1" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="39">
+      <c r="A2" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="27">
+        <v>27.86</v>
+      </c>
+      <c r="F2" s="27">
+        <v>-175.85</v>
+      </c>
+      <c r="G2" s="27">
+        <v>467.27</v>
+      </c>
+      <c r="H2" s="27">
+        <v>5.73</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="31">
+        <v>25.41</v>
+      </c>
+      <c r="F3" s="31">
+        <v>-170.58</v>
+      </c>
+      <c r="G3" s="31">
+        <v>1075.44</v>
+      </c>
+      <c r="H3" s="31">
+        <v>3.03</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="39">
+      <c r="A4" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="31">
+        <v>23.79</v>
+      </c>
+      <c r="F4" s="31">
+        <v>-166.21</v>
+      </c>
+      <c r="G4" s="31">
+        <v>677.96</v>
+      </c>
+      <c r="H4" s="31">
+        <v>4.96</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="31">
+        <v>26.01</v>
+      </c>
+      <c r="F5" s="31">
+        <v>-173.95</v>
+      </c>
+      <c r="G5" s="31">
+        <v>1004.27</v>
+      </c>
+      <c r="H5" s="31">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="31">
+        <v>22.09</v>
+      </c>
+      <c r="F6" s="31">
+        <v>-159.57</v>
+      </c>
+      <c r="G6" s="31">
+        <v>241.7</v>
+      </c>
+      <c r="H6" s="31">
+        <v>6.22</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="31">
+        <v>23.58</v>
+      </c>
+      <c r="F7" s="31">
+        <v>-164.7</v>
+      </c>
+      <c r="G7" s="31">
+        <v>1028.32</v>
+      </c>
+      <c r="H7" s="32">
+        <v>8.4</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="31">
+        <v>28.42</v>
+      </c>
+      <c r="F8" s="31">
+        <v>-178.33</v>
+      </c>
+      <c r="G8" s="31">
+        <v>83.15</v>
+      </c>
+      <c r="H8" s="31">
+        <v>4.87</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="31">
+        <v>21.49</v>
+      </c>
+      <c r="F9" s="31">
+        <v>-158</v>
+      </c>
+      <c r="G9" s="31">
+        <v>422.72</v>
+      </c>
+      <c r="H9" s="31">
+        <v>4.84</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="65">
+      <c r="A10" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="31">
+        <v>20.83</v>
+      </c>
+      <c r="F10" s="31">
+        <v>-156.75</v>
+      </c>
+      <c r="G10" s="31">
+        <v>450.84</v>
+      </c>
+      <c r="H10" s="31">
+        <v>2.68</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="31">
+        <v>28.23</v>
+      </c>
+      <c r="F11" s="31">
+        <v>-177.38</v>
+      </c>
+      <c r="G11" s="31">
+        <v>101.52</v>
+      </c>
+      <c r="H11" s="32">
+        <v>4.7</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="31">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="F12" s="31">
+        <v>-169.52</v>
+      </c>
+      <c r="G12" s="31">
+        <v>194.01</v>
+      </c>
+      <c r="H12" s="31">
+        <v>23.73</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="31">
+        <v>-14.3</v>
+      </c>
+      <c r="F13" s="31">
+        <v>-170.7</v>
+      </c>
+      <c r="G13" s="31">
+        <v>50.89</v>
+      </c>
+      <c r="H13" s="31">
+        <v>6.39</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="31">
+        <v>25.78</v>
+      </c>
+      <c r="F14" s="31">
+        <v>-171.73</v>
+      </c>
+      <c r="G14" s="31">
+        <v>488.13</v>
+      </c>
+      <c r="H14" s="31">
+        <v>10.36</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="31">
+        <v>-14.55</v>
+      </c>
+      <c r="F15" s="31">
+        <v>-168.16</v>
+      </c>
+      <c r="G15" s="31">
+        <v>7.8</v>
+      </c>
+      <c r="H15" s="31">
+        <v>43.61</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="31">
+        <v>19.53</v>
+      </c>
+      <c r="F16" s="31">
+        <v>-155.41999999999999</v>
+      </c>
+      <c r="G16" s="31">
+        <v>201.67</v>
+      </c>
+      <c r="H16" s="31">
+        <v>4.84</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="31">
+        <v>6.4</v>
+      </c>
+      <c r="F17" s="31">
+        <v>-162.38</v>
+      </c>
+      <c r="G17" s="31">
+        <v>47.63</v>
+      </c>
+      <c r="H17" s="31">
+        <v>23.88</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="39">
+      <c r="A18" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="31">
+        <v>15.01</v>
+      </c>
+      <c r="F18" s="31">
+        <v>145.65</v>
+      </c>
+      <c r="G18" s="31">
+        <v>95.15</v>
+      </c>
+      <c r="H18" s="31">
+        <v>12.2</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="31">
+        <v>21.9</v>
+      </c>
+      <c r="F19" s="31">
+        <v>-160.15</v>
+      </c>
+      <c r="G19" s="31">
+        <v>108.06</v>
+      </c>
+      <c r="H19" s="31">
+        <v>5.27</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="31">
+        <v>19.3</v>
+      </c>
+      <c r="F20" s="31">
+        <v>166.62</v>
+      </c>
+      <c r="G20" s="31">
+        <v>19.18</v>
+      </c>
+      <c r="H20" s="32">
+        <v>41.4</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="31">
+        <v>13.46</v>
+      </c>
+      <c r="F21" s="31">
+        <v>144.79</v>
+      </c>
+      <c r="G21" s="31">
+        <v>94.85</v>
+      </c>
+      <c r="H21" s="31">
+        <v>15.16</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="31">
+        <v>5.88</v>
+      </c>
+      <c r="F22" s="31">
+        <v>-162.09</v>
+      </c>
+      <c r="G22" s="31">
+        <v>52.5</v>
+      </c>
+      <c r="H22" s="31">
+        <v>31.91</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="F23" s="31">
+        <v>-176.48</v>
+      </c>
+      <c r="G23" s="31">
+        <v>4.43</v>
+      </c>
+      <c r="H23" s="31">
+        <v>26.24</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="26">
+      <c r="A24" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="31">
+        <v>20.55</v>
+      </c>
+      <c r="F24" s="31">
+        <v>144.88999999999999</v>
+      </c>
+      <c r="G24" s="31">
+        <v>1.38</v>
+      </c>
+      <c r="H24" s="31">
+        <v>24.98</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="31">
+        <v>18.11</v>
+      </c>
+      <c r="F25" s="31">
+        <v>145.76</v>
+      </c>
+      <c r="G25" s="31">
+        <v>16.29</v>
+      </c>
+      <c r="H25" s="31">
+        <v>19.89</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="31">
+        <v>20.02</v>
+      </c>
+      <c r="F26" s="31">
+        <v>145.22</v>
+      </c>
+      <c r="G26" s="31">
+        <v>3.17</v>
+      </c>
+      <c r="H26" s="31">
+        <v>27.28</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="39">
+      <c r="A27" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="31">
+        <v>-14.21</v>
+      </c>
+      <c r="F27" s="31">
+        <v>-169.56</v>
+      </c>
+      <c r="G27" s="31">
+        <v>22.42</v>
+      </c>
+      <c r="H27" s="31">
+        <v>20.53</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="31">
+        <v>-0.37</v>
+      </c>
+      <c r="F28" s="31">
+        <v>-160</v>
+      </c>
+      <c r="G28" s="31">
+        <v>4.32</v>
+      </c>
+      <c r="H28" s="34">
+        <v>29</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="31">
+        <v>-11.06</v>
+      </c>
+      <c r="F29" s="31">
+        <v>-171.08</v>
+      </c>
+      <c r="G29" s="31">
+        <v>2.82</v>
+      </c>
+      <c r="H29" s="31">
+        <v>51.41</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="F30" s="31">
+        <v>-176.62</v>
+      </c>
+      <c r="G30" s="31">
+        <v>2.57</v>
+      </c>
+      <c r="H30" s="31">
+        <v>26.48</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="31">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="F31" s="31">
+        <v>145.84</v>
+      </c>
+      <c r="G31" s="31">
+        <v>2</v>
+      </c>
+      <c r="H31" s="31">
+        <v>21.46</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="31">
+        <v>16.71</v>
+      </c>
+      <c r="F32" s="31">
+        <v>145.78</v>
+      </c>
+      <c r="G32" s="31">
+        <v>2</v>
+      </c>
+      <c r="H32" s="31">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="31">
+        <v>19.690000000000001</v>
+      </c>
+      <c r="F33" s="31">
+        <v>145.4</v>
+      </c>
+      <c r="G33" s="31">
+        <v>2.54</v>
+      </c>
+      <c r="H33" s="31">
+        <v>16.32</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" s="31">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F34" s="31">
+        <v>145.83000000000001</v>
+      </c>
+      <c r="G34" s="31">
+        <v>4.28</v>
+      </c>
+      <c r="H34" s="31">
+        <v>23.65</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="31">
+        <v>14.16</v>
+      </c>
+      <c r="F35" s="31">
+        <v>145.21</v>
+      </c>
+      <c r="G35" s="31">
+        <v>16.03</v>
+      </c>
+      <c r="H35" s="31">
+        <v>12.34</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="37">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="F36" s="37">
+        <v>145.66</v>
+      </c>
+      <c r="G36" s="37">
+        <v>9.5</v>
+      </c>
+      <c r="H36" s="37">
+        <v>23.03</v>
+      </c>
+      <c r="I36" s="36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/crep_oceanographic/Gove2013_pone.0061974.s005.xlsx
+++ b/data/crep_oceanographic/Gove2013_pone.0061974.s005.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesrobinson/Documents/git-repos/PelagicReefs/data/crep_oceanographic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD2EC05-53A4-CE4E-A016-CBB29D255E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755AFBD5-8771-EE43-BB37-8087C6AC5801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="191">
   <si>
     <t>Sea Surface Temperature (°C)</t>
   </si>
@@ -527,16 +527,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="9"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Pearl &amp; Hermes Reef</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <b/>
         <sz val="9"/>
         <rFont val="Times New Roman"/>
@@ -1348,15 +1338,6 @@
       </rPr>
       <t>AGR</t>
     </r>
-  </si>
-  <si>
-    <t>reef_area_km2</t>
-  </si>
-  <si>
-    <t>atoll_island</t>
-  </si>
-  <si>
-    <t>Atoll</t>
   </si>
 </sst>
 </file>
@@ -1510,7 +1491,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1612,17 +1593,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1636,7 +1606,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyAlignment="1">
@@ -1653,42 +1623,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1745,26 +1679,47 @@
     <xf numFmtId="2" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2081,7 +2036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="X1" workbookViewId="0">
       <selection activeCell="C3" sqref="A1:AO43"/>
     </sheetView>
   </sheetViews>
@@ -2112,50 +2067,50 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="11" t="s">
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="17" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="8" t="s">
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="10"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="30"/>
     </row>
     <row r="2" spans="1:41" ht="37.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -7421,15 +7376,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W42"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="64">
+    <row r="1" spans="1:21" ht="64">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -7457,14 +7412,8 @@
       <c r="I1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -7492,23 +7441,17 @@
       <c r="I2" s="7">
         <v>39.265282173816402</v>
       </c>
-      <c r="J2" s="31">
-        <v>83.15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>194</v>
-      </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="23"/>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="M2" s="8"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="11"/>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -7536,23 +7479,17 @@
       <c r="I3" s="7">
         <v>39.367662591687001</v>
       </c>
-      <c r="J3" s="31">
-        <v>101.52</v>
-      </c>
-      <c r="K3" t="s">
-        <v>194</v>
-      </c>
-      <c r="O3" s="24"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="26"/>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="M3" s="12"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="14"/>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -7580,23 +7517,17 @@
       <c r="I4" s="7">
         <v>39.666391361043203</v>
       </c>
-      <c r="J4" s="43">
-        <v>467.27</v>
-      </c>
-      <c r="K4" t="s">
-        <v>194</v>
-      </c>
-      <c r="O4" s="28"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="30"/>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="M4" s="16"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="18"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -7624,23 +7555,17 @@
       <c r="I5" s="7">
         <v>41.316668629743802</v>
       </c>
-      <c r="J5" s="31">
-        <v>10.210000000000001</v>
-      </c>
-      <c r="K5" t="s">
-        <v>194</v>
-      </c>
-      <c r="O5" s="28"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="30"/>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="M5" s="16"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="18"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -7668,23 +7593,17 @@
       <c r="I6" s="7">
         <v>41.458515688671604</v>
       </c>
-      <c r="J6" s="31">
-        <v>488.13</v>
-      </c>
-      <c r="K6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O6" s="28"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="30"/>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="M6" s="16"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="18"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
@@ -7712,23 +7631,17 @@
       <c r="I7" s="7">
         <v>41.869655791977799</v>
       </c>
-      <c r="J7" s="31">
-        <v>3.03</v>
-      </c>
-      <c r="K7" t="s">
-        <v>194</v>
-      </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="41"/>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="M7" s="16"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="18"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -7756,23 +7669,17 @@
       <c r="I8" s="7">
         <v>43.398087518337398</v>
       </c>
-      <c r="J8" s="31">
-        <v>677.96</v>
-      </c>
-      <c r="K8" t="s">
-        <v>194</v>
-      </c>
-      <c r="O8" s="28"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="30"/>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="M8" s="16"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="18"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -7800,23 +7707,17 @@
       <c r="I9" s="7">
         <v>43.507914251705103</v>
       </c>
-      <c r="J9" s="31">
-        <v>1028.32</v>
-      </c>
-      <c r="K9" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="28"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="30"/>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="M9" s="16"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="18"/>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -7844,21 +7745,17 @@
       <c r="I10" s="7">
         <v>43.638761033007299</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="28"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="30"/>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="M10" s="16"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="18"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
@@ -7886,23 +7783,17 @@
       <c r="I11" s="7">
         <v>43.007571252871003</v>
       </c>
-      <c r="J11" s="31">
-        <v>241.7</v>
-      </c>
-      <c r="K11" t="s">
-        <v>3</v>
-      </c>
-      <c r="O11" s="28"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="30"/>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="M11" s="16"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="18"/>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
@@ -7930,23 +7821,17 @@
       <c r="I12" s="7">
         <v>43.776517578175302</v>
       </c>
-      <c r="J12" s="31">
-        <v>108.06</v>
-      </c>
-      <c r="K12" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="28"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="30"/>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="M12" s="16"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="18"/>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
@@ -7974,23 +7859,17 @@
       <c r="I13" s="7">
         <v>43.257167879286598</v>
       </c>
-      <c r="J13" s="31">
-        <v>422.72</v>
-      </c>
-      <c r="K13" t="s">
-        <v>3</v>
-      </c>
-      <c r="O13" s="28"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="30"/>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="M13" s="16"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="18"/>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
         <v>32</v>
       </c>
@@ -8018,23 +7897,17 @@
       <c r="I14" s="7">
         <v>44.381059030154901</v>
       </c>
-      <c r="J14" s="31">
-        <v>450.84</v>
-      </c>
-      <c r="K14" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="28"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="30"/>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="M14" s="16"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="18"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
@@ -8062,23 +7935,17 @@
       <c r="I15" s="7">
         <v>44.953106292626501</v>
       </c>
-      <c r="J15" s="31">
-        <v>450.84</v>
-      </c>
-      <c r="K15" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="28"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="30"/>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="M15" s="16"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="18"/>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
@@ -8106,23 +7973,17 @@
       <c r="I16" s="7">
         <v>43.7165007579462</v>
       </c>
-      <c r="J16" s="31">
-        <v>450.84</v>
-      </c>
-      <c r="K16" t="s">
-        <v>3</v>
-      </c>
-      <c r="O16" s="28"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="30"/>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="M16" s="16"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="18"/>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
         <v>38</v>
       </c>
@@ -8150,23 +8011,17 @@
       <c r="I17" s="7">
         <v>41.461423233859399</v>
       </c>
-      <c r="J17" s="31">
-        <v>201.67</v>
-      </c>
-      <c r="K17" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="28"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="30"/>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="M17" s="16"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="18"/>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
         <v>39</v>
       </c>
@@ -8194,23 +8049,17 @@
       <c r="I18" s="7">
         <v>45.552707998602898</v>
       </c>
-      <c r="J18" s="31">
-        <v>194.01</v>
-      </c>
-      <c r="K18" t="s">
-        <v>194</v>
-      </c>
-      <c r="O18" s="28"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="30"/>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="M18" s="16"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="18"/>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
         <v>41</v>
       </c>
@@ -8238,23 +8087,17 @@
       <c r="I19" s="7">
         <v>44.713863868513997</v>
       </c>
-      <c r="J19" s="37">
-        <v>19.18</v>
-      </c>
-      <c r="K19" t="s">
-        <v>194</v>
-      </c>
-      <c r="O19" s="28"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="30"/>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="M19" s="16"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="18"/>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
         <v>44</v>
       </c>
@@ -8282,23 +8125,17 @@
       <c r="I20" s="7">
         <v>43.201211776691103</v>
       </c>
-      <c r="J20" s="31">
-        <v>1.38</v>
-      </c>
-      <c r="K20" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="28"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="30"/>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="M20" s="16"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="18"/>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
         <v>46</v>
       </c>
@@ -8326,23 +8163,17 @@
       <c r="I21" s="7">
         <v>43.478261450692798</v>
       </c>
-      <c r="J21" s="31">
-        <v>3.17</v>
-      </c>
-      <c r="K21" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="28"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="30"/>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="M21" s="16"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="18"/>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
         <v>48</v>
       </c>
@@ -8370,23 +8201,17 @@
       <c r="I22" s="7">
         <v>43.121240790545997</v>
       </c>
-      <c r="J22" s="31">
-        <v>2.54</v>
-      </c>
-      <c r="K22" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="28"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="30"/>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="M22" s="16"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="18"/>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
         <v>50</v>
       </c>
@@ -8414,23 +8239,17 @@
       <c r="I23" s="7">
         <v>42.805033604998698</v>
       </c>
-      <c r="J23" s="43">
-        <v>9.5</v>
-      </c>
-      <c r="K23" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="28"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="30"/>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="M23" s="16"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="18"/>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
         <v>52</v>
       </c>
@@ -8458,23 +8277,17 @@
       <c r="I24" s="7">
         <v>43.1460346916598</v>
       </c>
-      <c r="J24" s="31">
-        <v>16.29</v>
-      </c>
-      <c r="K24" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="28"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="30"/>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="M24" s="16"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="18"/>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
         <v>54</v>
       </c>
@@ -8502,23 +8315,17 @@
       <c r="I25" s="7">
         <v>43.4626099633252</v>
       </c>
-      <c r="J25" s="31">
-        <v>4.28</v>
-      </c>
-      <c r="K25" t="s">
-        <v>3</v>
-      </c>
-      <c r="O25" s="28"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="30"/>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="M25" s="16"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="18"/>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
         <v>56</v>
       </c>
@@ -8546,23 +8353,17 @@
       <c r="I26" s="7">
         <v>43.663095668878803</v>
       </c>
-      <c r="J26" s="31">
-        <v>2</v>
-      </c>
-      <c r="K26" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="28"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="30"/>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="M26" s="16"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="18"/>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
         <v>58</v>
       </c>
@@ -8590,23 +8391,17 @@
       <c r="I27" s="7">
         <v>43.159807775061097</v>
       </c>
-      <c r="J27" s="31">
-        <v>2</v>
-      </c>
-      <c r="K27" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="28"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="30"/>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="M27" s="16"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="18"/>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
         <v>60</v>
       </c>
@@ -8634,23 +8429,17 @@
       <c r="I28" s="7">
         <v>43.310200750960497</v>
       </c>
-      <c r="J28" s="31">
-        <v>95.15</v>
-      </c>
-      <c r="K28" t="s">
-        <v>3</v>
-      </c>
-      <c r="O28" s="28"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="30"/>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="M28" s="16"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="18"/>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
         <v>62</v>
       </c>
@@ -8678,23 +8467,17 @@
       <c r="I29" s="7">
         <v>42.806615452322802</v>
       </c>
-      <c r="J29" s="31">
-        <v>95.15</v>
-      </c>
-      <c r="K29" t="s">
-        <v>3</v>
-      </c>
-      <c r="O29" s="28"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="30"/>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="M29" s="16"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="18"/>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
         <v>64</v>
       </c>
@@ -8722,23 +8505,17 @@
       <c r="I30" s="7">
         <v>43.5751960181627</v>
       </c>
-      <c r="J30" s="31">
-        <v>95.15</v>
-      </c>
-      <c r="K30" t="s">
-        <v>3</v>
-      </c>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="41"/>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="M30" s="16"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="18"/>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
         <v>66</v>
       </c>
@@ -8766,23 +8543,17 @@
       <c r="I31" s="7">
         <v>43.658483863080697</v>
       </c>
-      <c r="J31" s="31">
-        <v>16.03</v>
-      </c>
-      <c r="K31" t="s">
-        <v>3</v>
-      </c>
-      <c r="O31" s="28"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="30"/>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="M31" s="16"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="18"/>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
         <v>68</v>
       </c>
@@ -8810,23 +8581,17 @@
       <c r="I32" s="7">
         <v>42.636856768993901</v>
       </c>
-      <c r="J32" s="31">
-        <v>94.85</v>
-      </c>
-      <c r="K32" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="28"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="30"/>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="M32" s="16"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="18"/>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
         <v>70</v>
       </c>
@@ -8854,23 +8619,17 @@
       <c r="I33" s="7">
         <v>39.053144682151597</v>
       </c>
-      <c r="J33" s="31">
-        <v>47.63</v>
-      </c>
-      <c r="K33" t="s">
-        <v>194</v>
-      </c>
-      <c r="O33" s="28"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="30"/>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="M33" s="16"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="18"/>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" s="5" t="s">
         <v>73</v>
       </c>
@@ -8898,23 +8657,17 @@
       <c r="I34" s="7">
         <v>39.209256130251198</v>
       </c>
-      <c r="J34" s="31">
-        <v>52.5</v>
-      </c>
-      <c r="K34" t="s">
-        <v>194</v>
-      </c>
-      <c r="O34" s="28"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="30"/>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="M34" s="16"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="18"/>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="5" t="s">
         <v>75</v>
       </c>
@@ -8942,23 +8695,17 @@
       <c r="I35" s="7">
         <v>47.822408410758001</v>
       </c>
-      <c r="J35" s="31">
-        <v>2.57</v>
-      </c>
-      <c r="K35" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="28"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="30"/>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="M35" s="16"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="18"/>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="5" t="s">
         <v>77</v>
       </c>
@@ -8986,23 +8733,17 @@
       <c r="I36" s="7">
         <v>48.404574938875299</v>
       </c>
-      <c r="J36" s="31">
-        <v>4.43</v>
-      </c>
-      <c r="K36" t="s">
-        <v>194</v>
-      </c>
-      <c r="O36" s="28"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="30"/>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="M36" s="16"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="18"/>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" s="5" t="s">
         <v>79</v>
       </c>
@@ -9030,23 +8771,17 @@
       <c r="I37" s="7">
         <v>50.188835268948601</v>
       </c>
-      <c r="J37" s="31">
-        <v>4.32</v>
-      </c>
-      <c r="K37" t="s">
-        <v>194</v>
-      </c>
-      <c r="O37" s="35"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="44"/>
-      <c r="W37" s="36"/>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="M37" s="23"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="24"/>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="5" t="s">
         <v>81</v>
       </c>
@@ -9074,14 +8809,8 @@
       <c r="I38" s="7">
         <v>42.364848125509397</v>
       </c>
-      <c r="J38" s="31">
-        <v>2.82</v>
-      </c>
-      <c r="K38" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23">
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="5" t="s">
         <v>84</v>
       </c>
@@ -9109,14 +8838,8 @@
       <c r="I39" s="7">
         <v>41.763511624805503</v>
       </c>
-      <c r="J39" s="27">
-        <v>22.42</v>
-      </c>
-      <c r="K39" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" s="5" t="s">
         <v>86</v>
       </c>
@@ -9144,14 +8867,8 @@
       <c r="I40" s="7">
         <v>41.3452214853301</v>
       </c>
-      <c r="J40" s="27">
-        <v>22.42</v>
-      </c>
-      <c r="K40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" s="5" t="s">
         <v>88</v>
       </c>
@@ -9179,14 +8896,8 @@
       <c r="I41" s="7">
         <v>41.588879874694399</v>
       </c>
-      <c r="J41" s="31">
-        <v>50.89</v>
-      </c>
-      <c r="K41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" s="5" t="s">
         <v>90</v>
       </c>
@@ -9214,17 +8925,11 @@
       <c r="I42" s="7">
         <v>42.3856958435208</v>
       </c>
-      <c r="J42" s="31">
-        <v>7.8</v>
-      </c>
-      <c r="K42" t="s">
-        <v>194</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O3:W37">
-    <sortCondition ref="Q3:Q37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M3:U37">
     <sortCondition ref="O3:O37"/>
+    <sortCondition ref="M3:M37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9234,8 +8939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="A1:I36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -9244,1047 +8949,1047 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="39">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="C2" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="D2" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="E2" s="15">
+        <v>27.86</v>
+      </c>
+      <c r="F2" s="15">
+        <v>-175.85</v>
+      </c>
+      <c r="G2" s="15">
+        <v>467.27</v>
+      </c>
+      <c r="H2" s="15">
+        <v>5.73</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="27">
-        <v>27.86</v>
-      </c>
-      <c r="F2" s="27">
-        <v>-175.85</v>
-      </c>
-      <c r="G2" s="27">
-        <v>467.27</v>
-      </c>
-      <c r="H2" s="27">
-        <v>5.73</v>
-      </c>
-      <c r="I2" s="26" t="s">
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="16" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="28" t="s">
+      <c r="B3" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="C3" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="19">
+        <v>25.41</v>
+      </c>
+      <c r="F3" s="19">
+        <v>-170.58</v>
+      </c>
+      <c r="G3" s="19">
+        <v>1075.44</v>
+      </c>
+      <c r="H3" s="19">
+        <v>3.03</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="B4" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="E4" s="19">
+        <v>23.79</v>
+      </c>
+      <c r="F4" s="19">
+        <v>-166.21</v>
+      </c>
+      <c r="G4" s="19">
+        <v>677.96</v>
+      </c>
+      <c r="H4" s="19">
+        <v>4.96</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="31">
-        <v>25.41</v>
-      </c>
-      <c r="F3" s="31">
-        <v>-170.58</v>
-      </c>
-      <c r="G3" s="31">
-        <v>1075.44</v>
-      </c>
-      <c r="H3" s="31">
-        <v>3.03</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="39">
-      <c r="A4" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="29" t="s">
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="B5" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="E5" s="19">
+        <v>26.01</v>
+      </c>
+      <c r="F5" s="19">
+        <v>-173.95</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1004.27</v>
+      </c>
+      <c r="H5" s="19">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="I5" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="31">
-        <v>23.79</v>
-      </c>
-      <c r="F4" s="31">
-        <v>-166.21</v>
-      </c>
-      <c r="G4" s="31">
-        <v>677.96</v>
-      </c>
-      <c r="H4" s="31">
-        <v>4.96</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="29" t="s">
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="B6" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="19">
+        <v>22.09</v>
+      </c>
+      <c r="F6" s="19">
+        <v>-159.57</v>
+      </c>
+      <c r="G6" s="19">
+        <v>241.7</v>
+      </c>
+      <c r="H6" s="19">
+        <v>6.22</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="19">
+        <v>23.58</v>
+      </c>
+      <c r="F7" s="19">
+        <v>-164.7</v>
+      </c>
+      <c r="G7" s="19">
+        <v>1028.32</v>
+      </c>
+      <c r="H7" s="20">
+        <v>8.4</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="E8" s="19">
+        <v>28.42</v>
+      </c>
+      <c r="F8" s="19">
+        <v>-178.33</v>
+      </c>
+      <c r="G8" s="19">
+        <v>83.15</v>
+      </c>
+      <c r="H8" s="19">
+        <v>4.87</v>
+      </c>
+      <c r="I8" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="31">
-        <v>26.01</v>
-      </c>
-      <c r="F5" s="31">
-        <v>-173.95</v>
-      </c>
-      <c r="G5" s="31">
-        <v>1004.27</v>
-      </c>
-      <c r="H5" s="31">
-        <v>10.210000000000001</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="29" t="s">
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="D9" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="E9" s="19">
+        <v>21.49</v>
+      </c>
+      <c r="F9" s="19">
+        <v>-158</v>
+      </c>
+      <c r="G9" s="19">
+        <v>422.72</v>
+      </c>
+      <c r="H9" s="19">
+        <v>4.84</v>
+      </c>
+      <c r="I9" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="31">
-        <v>22.09</v>
-      </c>
-      <c r="F6" s="31">
-        <v>-159.57</v>
-      </c>
-      <c r="G6" s="31">
-        <v>241.7</v>
-      </c>
-      <c r="H6" s="31">
-        <v>6.22</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="30" t="s">
+    </row>
+    <row r="10" spans="1:9" ht="26">
+      <c r="A10" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="19">
+        <v>20.83</v>
+      </c>
+      <c r="F10" s="19">
+        <v>-156.75</v>
+      </c>
+      <c r="G10" s="19">
+        <v>450.84</v>
+      </c>
+      <c r="H10" s="19">
+        <v>2.68</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="E11" s="19">
+        <v>28.23</v>
+      </c>
+      <c r="F11" s="19">
+        <v>-177.38</v>
+      </c>
+      <c r="G11" s="19">
+        <v>101.52</v>
+      </c>
+      <c r="H11" s="20">
+        <v>4.7</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="19">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="F12" s="19">
+        <v>-169.52</v>
+      </c>
+      <c r="G12" s="19">
+        <v>194.01</v>
+      </c>
+      <c r="H12" s="19">
+        <v>23.73</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="19">
+        <v>-14.3</v>
+      </c>
+      <c r="F13" s="19">
+        <v>-170.7</v>
+      </c>
+      <c r="G13" s="19">
+        <v>50.89</v>
+      </c>
+      <c r="H13" s="19">
+        <v>6.39</v>
+      </c>
+      <c r="I13" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="31">
-        <v>23.58</v>
-      </c>
-      <c r="F7" s="31">
-        <v>-164.7</v>
-      </c>
-      <c r="G7" s="31">
-        <v>1028.32</v>
-      </c>
-      <c r="H7" s="32">
-        <v>8.4</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="30" t="s">
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="19">
+        <v>25.78</v>
+      </c>
+      <c r="F14" s="19">
+        <v>-171.73</v>
+      </c>
+      <c r="G14" s="19">
+        <v>488.13</v>
+      </c>
+      <c r="H14" s="19">
+        <v>10.36</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="E15" s="19">
+        <v>-14.55</v>
+      </c>
+      <c r="F15" s="19">
+        <v>-168.16</v>
+      </c>
+      <c r="G15" s="19">
+        <v>7.8</v>
+      </c>
+      <c r="H15" s="19">
+        <v>43.61</v>
+      </c>
+      <c r="I15" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="31">
-        <v>28.42</v>
-      </c>
-      <c r="F8" s="31">
-        <v>-178.33</v>
-      </c>
-      <c r="G8" s="31">
-        <v>83.15</v>
-      </c>
-      <c r="H8" s="31">
-        <v>4.87</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="30" t="s">
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="E16" s="19">
+        <v>19.53</v>
+      </c>
+      <c r="F16" s="19">
+        <v>-155.41999999999999</v>
+      </c>
+      <c r="G16" s="19">
+        <v>201.67</v>
+      </c>
+      <c r="H16" s="19">
+        <v>4.84</v>
+      </c>
+      <c r="I16" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="31">
-        <v>21.49</v>
-      </c>
-      <c r="F9" s="31">
-        <v>-158</v>
-      </c>
-      <c r="G9" s="31">
-        <v>422.72</v>
-      </c>
-      <c r="H9" s="31">
-        <v>4.84</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="65">
-      <c r="A10" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="30" t="s">
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="19">
+        <v>6.4</v>
+      </c>
+      <c r="F17" s="19">
+        <v>-162.38</v>
+      </c>
+      <c r="G17" s="19">
+        <v>47.63</v>
+      </c>
+      <c r="H17" s="19">
+        <v>23.88</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="E18" s="19">
+        <v>15.01</v>
+      </c>
+      <c r="F18" s="19">
+        <v>145.65</v>
+      </c>
+      <c r="G18" s="19">
+        <v>95.15</v>
+      </c>
+      <c r="H18" s="19">
+        <v>12.2</v>
+      </c>
+      <c r="I18" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="31">
-        <v>20.83</v>
-      </c>
-      <c r="F10" s="31">
-        <v>-156.75</v>
-      </c>
-      <c r="G10" s="31">
-        <v>450.84</v>
-      </c>
-      <c r="H10" s="31">
-        <v>2.68</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="30" t="s">
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="19">
+        <v>21.9</v>
+      </c>
+      <c r="F19" s="19">
+        <v>-160.15</v>
+      </c>
+      <c r="G19" s="19">
+        <v>108.06</v>
+      </c>
+      <c r="H19" s="19">
+        <v>5.27</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="E20" s="19">
+        <v>19.3</v>
+      </c>
+      <c r="F20" s="19">
+        <v>166.62</v>
+      </c>
+      <c r="G20" s="19">
+        <v>19.18</v>
+      </c>
+      <c r="H20" s="20">
+        <v>41.4</v>
+      </c>
+      <c r="I20" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="31">
-        <v>28.23</v>
-      </c>
-      <c r="F11" s="31">
-        <v>-177.38</v>
-      </c>
-      <c r="G11" s="31">
-        <v>101.52</v>
-      </c>
-      <c r="H11" s="32">
-        <v>4.7</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="29" t="s">
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="19">
+        <v>13.46</v>
+      </c>
+      <c r="F21" s="19">
+        <v>144.79</v>
+      </c>
+      <c r="G21" s="19">
+        <v>94.85</v>
+      </c>
+      <c r="H21" s="19">
+        <v>15.16</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" s="30" t="s">
+      <c r="D22" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="19">
+        <v>5.88</v>
+      </c>
+      <c r="F22" s="19">
+        <v>-162.09</v>
+      </c>
+      <c r="G22" s="19">
+        <v>52.5</v>
+      </c>
+      <c r="H22" s="19">
+        <v>31.91</v>
+      </c>
+      <c r="I22" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="31">
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="F23" s="19">
+        <v>-176.48</v>
+      </c>
+      <c r="G23" s="19">
+        <v>4.43</v>
+      </c>
+      <c r="H23" s="19">
+        <v>26.24</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="19">
+        <v>20.55</v>
+      </c>
+      <c r="F24" s="19">
+        <v>144.88999999999999</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1.38</v>
+      </c>
+      <c r="H24" s="19">
+        <v>24.98</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="19">
+        <v>18.11</v>
+      </c>
+      <c r="F25" s="19">
+        <v>145.76</v>
+      </c>
+      <c r="G25" s="19">
+        <v>16.29</v>
+      </c>
+      <c r="H25" s="19">
+        <v>19.89</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="19">
+        <v>20.02</v>
+      </c>
+      <c r="F26" s="19">
+        <v>145.22</v>
+      </c>
+      <c r="G26" s="19">
+        <v>3.17</v>
+      </c>
+      <c r="H26" s="19">
+        <v>27.28</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="19">
+        <v>-14.21</v>
+      </c>
+      <c r="F27" s="19">
+        <v>-169.56</v>
+      </c>
+      <c r="G27" s="19">
+        <v>22.42</v>
+      </c>
+      <c r="H27" s="19">
+        <v>20.53</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="19">
+        <v>-0.37</v>
+      </c>
+      <c r="F28" s="19">
+        <v>-160</v>
+      </c>
+      <c r="G28" s="19">
+        <v>4.32</v>
+      </c>
+      <c r="H28" s="22">
+        <v>29</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="19">
+        <v>-11.06</v>
+      </c>
+      <c r="F29" s="19">
+        <v>-171.08</v>
+      </c>
+      <c r="G29" s="19">
+        <v>2.82</v>
+      </c>
+      <c r="H29" s="19">
+        <v>51.41</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="F30" s="19">
+        <v>-176.62</v>
+      </c>
+      <c r="G30" s="19">
+        <v>2.57</v>
+      </c>
+      <c r="H30" s="19">
+        <v>26.48</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="19">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="F31" s="19">
+        <v>145.84</v>
+      </c>
+      <c r="G31" s="19">
+        <v>2</v>
+      </c>
+      <c r="H31" s="19">
+        <v>21.46</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="19">
+        <v>16.71</v>
+      </c>
+      <c r="F32" s="19">
+        <v>145.78</v>
+      </c>
+      <c r="G32" s="19">
+        <v>2</v>
+      </c>
+      <c r="H32" s="19">
         <v>16.739999999999998</v>
       </c>
-      <c r="F12" s="31">
-        <v>-169.52</v>
-      </c>
-      <c r="G12" s="31">
-        <v>194.01</v>
-      </c>
-      <c r="H12" s="31">
-        <v>23.73</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" s="30" t="s">
+      <c r="I32" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="19">
+        <v>19.690000000000001</v>
+      </c>
+      <c r="F33" s="19">
+        <v>145.4</v>
+      </c>
+      <c r="G33" s="19">
+        <v>2.54</v>
+      </c>
+      <c r="H33" s="19">
+        <v>16.32</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="19">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F34" s="19">
+        <v>145.83000000000001</v>
+      </c>
+      <c r="G34" s="19">
+        <v>4.28</v>
+      </c>
+      <c r="H34" s="19">
+        <v>23.65</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="19">
+        <v>14.16</v>
+      </c>
+      <c r="F35" s="19">
+        <v>145.21</v>
+      </c>
+      <c r="G35" s="19">
+        <v>16.03</v>
+      </c>
+      <c r="H35" s="19">
+        <v>12.34</v>
+      </c>
+      <c r="I35" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="E13" s="31">
-        <v>-14.3</v>
-      </c>
-      <c r="F13" s="31">
-        <v>-170.7</v>
-      </c>
-      <c r="G13" s="31">
-        <v>50.89</v>
-      </c>
-      <c r="H13" s="31">
-        <v>6.39</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14" s="31">
-        <v>25.78</v>
-      </c>
-      <c r="F14" s="31">
-        <v>-171.73</v>
-      </c>
-      <c r="G14" s="31">
-        <v>488.13</v>
-      </c>
-      <c r="H14" s="31">
-        <v>10.36</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="30" t="s">
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="25">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="F36" s="25">
+        <v>145.66</v>
+      </c>
+      <c r="G36" s="25">
+        <v>9.5</v>
+      </c>
+      <c r="H36" s="25">
+        <v>23.03</v>
+      </c>
+      <c r="I36" s="24" t="s">
         <v>116</v>
-      </c>
-      <c r="E15" s="31">
-        <v>-14.55</v>
-      </c>
-      <c r="F15" s="31">
-        <v>-168.16</v>
-      </c>
-      <c r="G15" s="31">
-        <v>7.8</v>
-      </c>
-      <c r="H15" s="31">
-        <v>43.61</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="31">
-        <v>19.53</v>
-      </c>
-      <c r="F16" s="31">
-        <v>-155.41999999999999</v>
-      </c>
-      <c r="G16" s="31">
-        <v>201.67</v>
-      </c>
-      <c r="H16" s="31">
-        <v>4.84</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E17" s="31">
-        <v>6.4</v>
-      </c>
-      <c r="F17" s="31">
-        <v>-162.38</v>
-      </c>
-      <c r="G17" s="31">
-        <v>47.63</v>
-      </c>
-      <c r="H17" s="31">
-        <v>23.88</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="39">
-      <c r="A18" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" s="31">
-        <v>15.01</v>
-      </c>
-      <c r="F18" s="31">
-        <v>145.65</v>
-      </c>
-      <c r="G18" s="31">
-        <v>95.15</v>
-      </c>
-      <c r="H18" s="31">
-        <v>12.2</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="31">
-        <v>21.9</v>
-      </c>
-      <c r="F19" s="31">
-        <v>-160.15</v>
-      </c>
-      <c r="G19" s="31">
-        <v>108.06</v>
-      </c>
-      <c r="H19" s="31">
-        <v>5.27</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" s="31">
-        <v>19.3</v>
-      </c>
-      <c r="F20" s="31">
-        <v>166.62</v>
-      </c>
-      <c r="G20" s="31">
-        <v>19.18</v>
-      </c>
-      <c r="H20" s="32">
-        <v>41.4</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" s="31">
-        <v>13.46</v>
-      </c>
-      <c r="F21" s="31">
-        <v>144.79</v>
-      </c>
-      <c r="G21" s="31">
-        <v>94.85</v>
-      </c>
-      <c r="H21" s="31">
-        <v>15.16</v>
-      </c>
-      <c r="I21" s="30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="31">
-        <v>5.88</v>
-      </c>
-      <c r="F22" s="31">
-        <v>-162.09</v>
-      </c>
-      <c r="G22" s="31">
-        <v>52.5</v>
-      </c>
-      <c r="H22" s="31">
-        <v>31.91</v>
-      </c>
-      <c r="I22" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" s="31">
-        <v>0.2</v>
-      </c>
-      <c r="F23" s="31">
-        <v>-176.48</v>
-      </c>
-      <c r="G23" s="31">
-        <v>4.43</v>
-      </c>
-      <c r="H23" s="31">
-        <v>26.24</v>
-      </c>
-      <c r="I23" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="26">
-      <c r="A24" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="31">
-        <v>20.55</v>
-      </c>
-      <c r="F24" s="31">
-        <v>144.88999999999999</v>
-      </c>
-      <c r="G24" s="31">
-        <v>1.38</v>
-      </c>
-      <c r="H24" s="31">
-        <v>24.98</v>
-      </c>
-      <c r="I24" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25" s="31">
-        <v>18.11</v>
-      </c>
-      <c r="F25" s="31">
-        <v>145.76</v>
-      </c>
-      <c r="G25" s="31">
-        <v>16.29</v>
-      </c>
-      <c r="H25" s="31">
-        <v>19.89</v>
-      </c>
-      <c r="I25" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26" s="31">
-        <v>20.02</v>
-      </c>
-      <c r="F26" s="31">
-        <v>145.22</v>
-      </c>
-      <c r="G26" s="31">
-        <v>3.17</v>
-      </c>
-      <c r="H26" s="31">
-        <v>27.28</v>
-      </c>
-      <c r="I26" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="39">
-      <c r="A27" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" s="31">
-        <v>-14.21</v>
-      </c>
-      <c r="F27" s="31">
-        <v>-169.56</v>
-      </c>
-      <c r="G27" s="31">
-        <v>22.42</v>
-      </c>
-      <c r="H27" s="31">
-        <v>20.53</v>
-      </c>
-      <c r="I27" s="30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28" s="31">
-        <v>-0.37</v>
-      </c>
-      <c r="F28" s="31">
-        <v>-160</v>
-      </c>
-      <c r="G28" s="31">
-        <v>4.32</v>
-      </c>
-      <c r="H28" s="34">
-        <v>29</v>
-      </c>
-      <c r="I28" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29" s="31">
-        <v>-11.06</v>
-      </c>
-      <c r="F29" s="31">
-        <v>-171.08</v>
-      </c>
-      <c r="G29" s="31">
-        <v>2.82</v>
-      </c>
-      <c r="H29" s="31">
-        <v>51.41</v>
-      </c>
-      <c r="I29" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30" s="31">
-        <v>0.8</v>
-      </c>
-      <c r="F30" s="31">
-        <v>-176.62</v>
-      </c>
-      <c r="G30" s="31">
-        <v>2.57</v>
-      </c>
-      <c r="H30" s="31">
-        <v>26.48</v>
-      </c>
-      <c r="I30" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31" s="31">
-        <v>17.309999999999999</v>
-      </c>
-      <c r="F31" s="31">
-        <v>145.84</v>
-      </c>
-      <c r="G31" s="31">
-        <v>2</v>
-      </c>
-      <c r="H31" s="31">
-        <v>21.46</v>
-      </c>
-      <c r="I31" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32" s="31">
-        <v>16.71</v>
-      </c>
-      <c r="F32" s="31">
-        <v>145.78</v>
-      </c>
-      <c r="G32" s="31">
-        <v>2</v>
-      </c>
-      <c r="H32" s="31">
-        <v>16.739999999999998</v>
-      </c>
-      <c r="I32" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E33" s="31">
-        <v>19.690000000000001</v>
-      </c>
-      <c r="F33" s="31">
-        <v>145.4</v>
-      </c>
-      <c r="G33" s="31">
-        <v>2.54</v>
-      </c>
-      <c r="H33" s="31">
-        <v>16.32</v>
-      </c>
-      <c r="I33" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E34" s="31">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="F34" s="31">
-        <v>145.83000000000001</v>
-      </c>
-      <c r="G34" s="31">
-        <v>4.28</v>
-      </c>
-      <c r="H34" s="31">
-        <v>23.65</v>
-      </c>
-      <c r="I34" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E35" s="31">
-        <v>14.16</v>
-      </c>
-      <c r="F35" s="31">
-        <v>145.21</v>
-      </c>
-      <c r="G35" s="31">
-        <v>16.03</v>
-      </c>
-      <c r="H35" s="31">
-        <v>12.34</v>
-      </c>
-      <c r="I35" s="30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="D36" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="E36" s="37">
-        <v>18.760000000000002</v>
-      </c>
-      <c r="F36" s="37">
-        <v>145.66</v>
-      </c>
-      <c r="G36" s="37">
-        <v>9.5</v>
-      </c>
-      <c r="H36" s="37">
-        <v>23.03</v>
-      </c>
-      <c r="I36" s="36" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/crep_oceanographic/Gove2013_pone.0061974.s005.xlsx
+++ b/data/crep_oceanographic/Gove2013_pone.0061974.s005.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesrobinson/Documents/git-repos/PelagicReefs/data/crep_oceanographic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robins64/Documents/git_repos/PelagicReefs/data/crep_oceanographic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755AFBD5-8771-EE43-BB37-8087C6AC5801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035ACA79-E323-DD4E-9051-88DD7AFE0BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Gove2014_SuppTable2" sheetId="3" r:id="rId3"/>
+    <sheet name="Gove2013_TableS1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gove2013_condensed" sheetId="2" r:id="rId2"/>
+    <sheet name="Gove 2013 Table 1" sheetId="4" r:id="rId3"/>
+    <sheet name="Gove2016_SuppTable2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="201">
   <si>
     <t>Sea Surface Temperature (°C)</t>
   </si>
@@ -1339,6 +1340,36 @@
       <t>AGR</t>
     </r>
   </si>
+  <si>
+    <t>Island Name</t>
+  </si>
+  <si>
+    <t>Island Type</t>
+  </si>
+  <si>
+    <t>Land Area</t>
+  </si>
+  <si>
+    <t>Reef Area</t>
+  </si>
+  <si>
+    <t>Closed atoll</t>
+  </si>
+  <si>
+    <t>Pearl &amp; Hermes Reef</t>
+  </si>
+  <si>
+    <t>Open atoll</t>
+  </si>
+  <si>
+    <t>Carbonate island</t>
+  </si>
+  <si>
+    <t>Basalt island</t>
+  </si>
+  <si>
+    <t>Basalt/Carbonate island</t>
+  </si>
 </sst>
 </file>
 
@@ -1349,7 +1380,7 @@
     <numFmt numFmtId="165" formatCode="0.0000000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1457,8 +1488,19 @@
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1490,8 +1532,13 @@
         <fgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCDDDE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1593,6 +1640,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF231F20"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF231F20"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF231F20"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF231F20"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF231F20"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF231F20"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF231F20"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF231F20"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF231F20"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1606,7 +1706,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyAlignment="1">
@@ -1720,6 +1820,72 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2037,7 +2203,7 @@
   <dimension ref="A1:AO43"/>
   <sheetViews>
     <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:AO43"/>
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8936,11 +9102,1044 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00165DE3-66EA-BB41-A9F2-F3EAAFAE7FD1}">
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.1640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="40" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="40" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="40" customWidth="1"/>
+    <col min="5" max="6" width="10.5" style="40" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="40" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="40" customWidth="1"/>
+    <col min="9" max="16384" width="7.5" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="50">
+        <v>28.42</v>
+      </c>
+      <c r="E2" s="51">
+        <v>-178.33</v>
+      </c>
+      <c r="F2" s="51">
+        <v>0.92</v>
+      </c>
+      <c r="G2" s="51">
+        <v>83.15</v>
+      </c>
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="55">
+        <v>28.23</v>
+      </c>
+      <c r="E3" s="56">
+        <v>-177.38</v>
+      </c>
+      <c r="F3" s="56">
+        <v>5.98</v>
+      </c>
+      <c r="G3" s="56">
+        <v>101.52</v>
+      </c>
+      <c r="H3" s="42"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="50">
+        <v>27.86</v>
+      </c>
+      <c r="E4" s="51">
+        <v>-175.85</v>
+      </c>
+      <c r="F4" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="51">
+        <v>467.27</v>
+      </c>
+      <c r="H4" s="42"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="55">
+        <v>26.01</v>
+      </c>
+      <c r="E5" s="56">
+        <v>-173.95</v>
+      </c>
+      <c r="F5" s="56">
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="56">
+        <v>1004.27</v>
+      </c>
+      <c r="H5" s="42"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="50">
+        <v>25.78</v>
+      </c>
+      <c r="E6" s="51">
+        <v>-171.73</v>
+      </c>
+      <c r="F6" s="51">
+        <v>3.53</v>
+      </c>
+      <c r="G6" s="51">
+        <v>488.13</v>
+      </c>
+      <c r="H6" s="42"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="55">
+        <v>25.41</v>
+      </c>
+      <c r="E7" s="56">
+        <v>-170.58</v>
+      </c>
+      <c r="F7" s="56">
+        <v>0</v>
+      </c>
+      <c r="G7" s="56">
+        <v>1075.44</v>
+      </c>
+      <c r="H7" s="42"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="50">
+        <v>23.79</v>
+      </c>
+      <c r="E8" s="51">
+        <v>-166.21</v>
+      </c>
+      <c r="F8" s="51">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="51">
+        <v>677.96</v>
+      </c>
+      <c r="H8" s="42"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="55">
+        <v>23.58</v>
+      </c>
+      <c r="E9" s="56">
+        <v>-164.7</v>
+      </c>
+      <c r="F9" s="56">
+        <v>0.12</v>
+      </c>
+      <c r="G9" s="56">
+        <v>1028.32</v>
+      </c>
+      <c r="H9" s="42"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="50">
+        <v>23.06</v>
+      </c>
+      <c r="E10" s="51">
+        <v>-161.93</v>
+      </c>
+      <c r="F10" s="51">
+        <v>0.72</v>
+      </c>
+      <c r="G10" s="51">
+        <v>0.74</v>
+      </c>
+      <c r="H10" s="42"/>
+    </row>
+    <row r="11" spans="1:8" ht="30">
+      <c r="A11" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="50">
+        <v>22.09</v>
+      </c>
+      <c r="E11" s="51">
+        <v>-159.57</v>
+      </c>
+      <c r="F11" s="51">
+        <v>1436.7</v>
+      </c>
+      <c r="G11" s="51">
+        <v>241.7</v>
+      </c>
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" spans="1:8" ht="30">
+      <c r="A12" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="55">
+        <v>21.9</v>
+      </c>
+      <c r="E12" s="56">
+        <v>-160.15</v>
+      </c>
+      <c r="F12" s="56">
+        <v>186.82</v>
+      </c>
+      <c r="G12" s="56">
+        <v>108.06</v>
+      </c>
+      <c r="H12" s="42"/>
+    </row>
+    <row r="13" spans="1:8" ht="30">
+      <c r="A13" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="50">
+        <v>21.49</v>
+      </c>
+      <c r="E13" s="51">
+        <v>-158</v>
+      </c>
+      <c r="F13" s="51">
+        <v>1548.99</v>
+      </c>
+      <c r="G13" s="51">
+        <v>422.72</v>
+      </c>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" spans="1:8" ht="30">
+      <c r="A14" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="55">
+        <v>21.14</v>
+      </c>
+      <c r="E14" s="56">
+        <v>-157.09</v>
+      </c>
+      <c r="F14" s="56">
+        <v>670.22</v>
+      </c>
+      <c r="G14" s="56">
+        <v>198.51</v>
+      </c>
+      <c r="H14" s="42"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="50">
+        <v>20.82</v>
+      </c>
+      <c r="E15" s="51">
+        <v>-156.91999999999999</v>
+      </c>
+      <c r="F15" s="51">
+        <v>365.37</v>
+      </c>
+      <c r="G15" s="51">
+        <v>55.49</v>
+      </c>
+      <c r="H15" s="42"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="55">
+        <v>20.82</v>
+      </c>
+      <c r="E16" s="56">
+        <v>-156.4</v>
+      </c>
+      <c r="F16" s="56">
+        <v>1886.32</v>
+      </c>
+      <c r="G16" s="56">
+        <v>196.84</v>
+      </c>
+      <c r="H16" s="42"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" s="50">
+        <v>19.53</v>
+      </c>
+      <c r="E17" s="51">
+        <v>-155.41999999999999</v>
+      </c>
+      <c r="F17" s="51">
+        <v>10441.51</v>
+      </c>
+      <c r="G17" s="51">
+        <v>201.67</v>
+      </c>
+      <c r="H17" s="42"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" s="55">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="E18" s="56">
+        <v>-169.52</v>
+      </c>
+      <c r="F18" s="56">
+        <v>2.63</v>
+      </c>
+      <c r="G18" s="56">
+        <v>194.01</v>
+      </c>
+      <c r="H18" s="42"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="55">
+        <v>19.3</v>
+      </c>
+      <c r="E19" s="56">
+        <v>166.62</v>
+      </c>
+      <c r="F19" s="56">
+        <v>6.97</v>
+      </c>
+      <c r="G19" s="56">
+        <v>19.18</v>
+      </c>
+      <c r="H19" s="42"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="50">
+        <v>20.55</v>
+      </c>
+      <c r="E20" s="51">
+        <v>144.88999999999999</v>
+      </c>
+      <c r="F20" s="51">
+        <v>2.25</v>
+      </c>
+      <c r="G20" s="51">
+        <v>1.38</v>
+      </c>
+      <c r="H20" s="42"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" s="55">
+        <v>20.02</v>
+      </c>
+      <c r="E21" s="56">
+        <v>145.22</v>
+      </c>
+      <c r="F21" s="56">
+        <v>2.14</v>
+      </c>
+      <c r="G21" s="56">
+        <v>3.17</v>
+      </c>
+      <c r="H21" s="42"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="50">
+        <v>19.690000000000001</v>
+      </c>
+      <c r="E22" s="51">
+        <v>145.4</v>
+      </c>
+      <c r="F22" s="51">
+        <v>7.86</v>
+      </c>
+      <c r="G22" s="51">
+        <v>2.54</v>
+      </c>
+      <c r="H22" s="42"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="55">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="E23" s="56">
+        <v>145.66</v>
+      </c>
+      <c r="F23" s="56">
+        <v>44.05</v>
+      </c>
+      <c r="G23" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="H23" s="42"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" s="50">
+        <v>18.11</v>
+      </c>
+      <c r="E24" s="51">
+        <v>145.76</v>
+      </c>
+      <c r="F24" s="51">
+        <v>47.75</v>
+      </c>
+      <c r="G24" s="51">
+        <v>16.29</v>
+      </c>
+      <c r="H24" s="42"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D25" s="55">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E25" s="56">
+        <v>145.83000000000001</v>
+      </c>
+      <c r="F25" s="56">
+        <v>12.96</v>
+      </c>
+      <c r="G25" s="56">
+        <v>4.28</v>
+      </c>
+      <c r="H25" s="42"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26" s="50">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="E26" s="51">
+        <v>145.84</v>
+      </c>
+      <c r="F26" s="51">
+        <v>4.24</v>
+      </c>
+      <c r="G26" s="51">
+        <v>2</v>
+      </c>
+      <c r="H26" s="42"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" s="55">
+        <v>16.71</v>
+      </c>
+      <c r="E27" s="56">
+        <v>145.78</v>
+      </c>
+      <c r="F27" s="56">
+        <v>4.47</v>
+      </c>
+      <c r="G27" s="56">
+        <v>2</v>
+      </c>
+      <c r="H27" s="42"/>
+    </row>
+    <row r="28" spans="1:8" ht="30">
+      <c r="A28" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" s="50">
+        <v>15.19</v>
+      </c>
+      <c r="E28" s="51">
+        <v>145.75</v>
+      </c>
+      <c r="F28" s="51">
+        <v>118.98</v>
+      </c>
+      <c r="G28" s="51">
+        <v>73.040000000000006</v>
+      </c>
+      <c r="H28" s="42"/>
+    </row>
+    <row r="29" spans="1:8" ht="30">
+      <c r="A29" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="D29" s="55">
+        <v>14.99</v>
+      </c>
+      <c r="E29" s="56">
+        <v>145.63</v>
+      </c>
+      <c r="F29" s="56">
+        <v>101.21</v>
+      </c>
+      <c r="G29" s="56">
+        <v>16.2</v>
+      </c>
+      <c r="H29" s="42"/>
+    </row>
+    <row r="30" spans="1:8" ht="30">
+      <c r="A30" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D30" s="50">
+        <v>14.85</v>
+      </c>
+      <c r="E30" s="51">
+        <v>145.55000000000001</v>
+      </c>
+      <c r="F30" s="51">
+        <v>7.01</v>
+      </c>
+      <c r="G30" s="51">
+        <v>5.91</v>
+      </c>
+      <c r="H30" s="42"/>
+    </row>
+    <row r="31" spans="1:8" ht="30">
+      <c r="A31" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="D31" s="55">
+        <v>14.16</v>
+      </c>
+      <c r="E31" s="56">
+        <v>145.21</v>
+      </c>
+      <c r="F31" s="56">
+        <v>85.13</v>
+      </c>
+      <c r="G31" s="56">
+        <v>16.03</v>
+      </c>
+      <c r="H31" s="42"/>
+    </row>
+    <row r="32" spans="1:8" ht="30">
+      <c r="A32" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D32" s="50">
+        <v>13.46</v>
+      </c>
+      <c r="E32" s="51">
+        <v>144.79</v>
+      </c>
+      <c r="F32" s="51">
+        <v>544.34</v>
+      </c>
+      <c r="G32" s="51">
+        <v>94.85</v>
+      </c>
+      <c r="H32" s="42"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="D33" s="50">
+        <v>6.4</v>
+      </c>
+      <c r="E33" s="51">
+        <v>-162.38</v>
+      </c>
+      <c r="F33" s="51">
+        <v>0.76</v>
+      </c>
+      <c r="G33" s="51">
+        <v>47.63</v>
+      </c>
+      <c r="H33" s="42"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="D34" s="55">
+        <v>5.88</v>
+      </c>
+      <c r="E34" s="56">
+        <v>-162.09</v>
+      </c>
+      <c r="F34" s="56">
+        <v>2.23</v>
+      </c>
+      <c r="G34" s="56">
+        <v>52.5</v>
+      </c>
+      <c r="H34" s="42"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="E35" s="51">
+        <v>-176.62</v>
+      </c>
+      <c r="F35" s="51">
+        <v>1.8</v>
+      </c>
+      <c r="G35" s="51">
+        <v>2.57</v>
+      </c>
+      <c r="H35" s="42"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" s="55">
+        <v>0.2</v>
+      </c>
+      <c r="E36" s="56">
+        <v>-176.48</v>
+      </c>
+      <c r="F36" s="56">
+        <v>1.6</v>
+      </c>
+      <c r="G36" s="56">
+        <v>4.43</v>
+      </c>
+      <c r="H36" s="42"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" s="50">
+        <v>20.37</v>
+      </c>
+      <c r="E37" s="51">
+        <v>-160</v>
+      </c>
+      <c r="F37" s="51">
+        <v>4.43</v>
+      </c>
+      <c r="G37" s="51">
+        <v>4.32</v>
+      </c>
+      <c r="H37" s="42"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" s="50">
+        <v>211.06</v>
+      </c>
+      <c r="E38" s="51">
+        <v>-171.08</v>
+      </c>
+      <c r="F38" s="51">
+        <v>2.38</v>
+      </c>
+      <c r="G38" s="51">
+        <v>2.82</v>
+      </c>
+      <c r="H38" s="42"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D39" s="55">
+        <v>214.17</v>
+      </c>
+      <c r="E39" s="56">
+        <v>-169.65</v>
+      </c>
+      <c r="F39" s="56">
+        <v>12.61</v>
+      </c>
+      <c r="G39" s="56">
+        <v>12.03</v>
+      </c>
+      <c r="H39" s="42"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="D40" s="50">
+        <v>214.24</v>
+      </c>
+      <c r="E40" s="51">
+        <v>-169.47</v>
+      </c>
+      <c r="F40" s="51">
+        <v>45.09</v>
+      </c>
+      <c r="G40" s="51">
+        <v>10.38</v>
+      </c>
+      <c r="H40" s="42"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D41" s="55">
+        <v>214.3</v>
+      </c>
+      <c r="E41" s="56">
+        <v>-170.7</v>
+      </c>
+      <c r="F41" s="56">
+        <v>137.44999999999999</v>
+      </c>
+      <c r="G41" s="56">
+        <v>50.89</v>
+      </c>
+      <c r="H41" s="42"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="D42" s="60">
+        <v>214.55</v>
+      </c>
+      <c r="E42" s="61">
+        <v>-168.16</v>
+      </c>
+      <c r="F42" s="61">
+        <v>0.09</v>
+      </c>
+      <c r="G42" s="61">
+        <v>7.8</v>
+      </c>
+      <c r="H42" s="42"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
